--- a/REGISTRO DE COMPRAS 2024.xlsx
+++ b/REGISTRO DE COMPRAS 2024.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="FEB" sheetId="1" state="visible" r:id="rId1"/>
@@ -36,18 +36,20 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'JUL'!$B$1:$L$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'RES'!$E$4:$T$92</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="166" formatCode="#,##0.0;[Red]#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="22">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -63,10 +65,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF9C5700"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -100,12 +214,185 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -132,12 +419,119 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.3999755851924192"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -168,172 +562,259 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="20" fillId="34" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="165" fontId="16" fillId="33" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="165" fontId="16" fillId="34" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="16" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="16" fillId="33" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="35" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="21" fillId="36" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="166" fontId="21" fillId="36" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="35" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="16" fillId="34" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="16" fillId="33" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="16" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="36" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="36" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="34" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="35" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="43">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Título" xfId="2" builtinId="15"/>
+    <cellStyle name="Encabezado 1" xfId="3" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="4" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="5" builtinId="18"/>
+    <cellStyle name="Encabezado 4" xfId="6" builtinId="19"/>
+    <cellStyle name="Buena" xfId="7" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="8" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28"/>
+    <cellStyle name="Entrada" xfId="10" builtinId="20"/>
+    <cellStyle name="Salida" xfId="11" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="12" builtinId="22"/>
+    <cellStyle name="Celda vinculada" xfId="13" builtinId="24"/>
+    <cellStyle name="Celda de comprobación" xfId="14" builtinId="23"/>
+    <cellStyle name="Texto de advertencia" xfId="15" builtinId="11"/>
+    <cellStyle name="Notas" xfId="16" builtinId="10"/>
+    <cellStyle name="Texto explicativo" xfId="17" builtinId="53"/>
+    <cellStyle name="Total" xfId="18" builtinId="25"/>
+    <cellStyle name="Énfasis1" xfId="19" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="21" builtinId="31"/>
+    <cellStyle name="60% - Énfasis1" xfId="22" builtinId="32"/>
+    <cellStyle name="Énfasis2" xfId="23" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="24" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="25" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="26" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="27" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="28" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="29" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="30" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="31" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="32" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="33" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="35" builtinId="45"/>
+    <cellStyle name="20% - Énfasis5" xfId="36" builtinId="46"/>
+    <cellStyle name="40% - Énfasis5" xfId="37" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="38" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="39" builtinId="49"/>
+    <cellStyle name="20% - Énfasis6" xfId="40" builtinId="50"/>
+    <cellStyle name="40% - Énfasis6" xfId="41" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="42" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -708,36 +1189,35 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:M21"/>
+  <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N21" sqref="A18:N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="43" min="1" max="1"/>
-    <col width="5.28515625" customWidth="1" style="43" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="43" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="43" min="4" max="5"/>
-    <col width="42.85546875" customWidth="1" style="43" min="6" max="6"/>
-    <col width="11.42578125" customWidth="1" style="43" min="7" max="7"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" style="43" min="8" max="8"/>
-    <col width="13.7109375" customWidth="1" style="39" min="9" max="12"/>
-    <col width="11.42578125" customWidth="1" style="15" min="13" max="13"/>
-    <col width="11.42578125" customWidth="1" style="43" min="14" max="14"/>
-    <col width="11.42578125" customWidth="1" style="43" min="15" max="16384"/>
+    <col width="1.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="5.28515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="5.5703125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.42578125" customWidth="1" style="1" min="4" max="5"/>
+    <col width="42.85546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="11.42578125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.7109375" customWidth="1" style="38" min="9" max="12"/>
+    <col width="11.42578125" customWidth="1" style="39" min="13" max="13"/>
+    <col width="11.42578125" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" customHeight="1" s="42">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="21" customHeight="1">
+      <c r="B2" s="36" t="inlineStr">
         <is>
           <t>LIBRO DE COMPRAS</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="42">
-      <c r="B3" s="40" t="inlineStr">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>MES DE FEBRERO</t>
         </is>
@@ -779,27 +1259,27 @@
           <t>Fecha Docto</t>
         </is>
       </c>
-      <c r="I5" s="20" t="inlineStr">
+      <c r="I5" s="40" t="inlineStr">
         <is>
           <t>Monto Exento</t>
         </is>
       </c>
-      <c r="J5" s="20" t="inlineStr">
+      <c r="J5" s="40" t="inlineStr">
         <is>
           <t>Monto Neto</t>
         </is>
       </c>
-      <c r="K5" s="20" t="inlineStr">
+      <c r="K5" s="40" t="inlineStr">
         <is>
           <t>Monto IVA Recuperable</t>
         </is>
       </c>
-      <c r="L5" s="20" t="inlineStr">
+      <c r="L5" s="40" t="inlineStr">
         <is>
           <t>Monto Total</t>
         </is>
       </c>
-      <c r="M5" s="16" t="n"/>
+      <c r="M5" s="41" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="3" t="n">
@@ -829,14 +1309,14 @@
       <c r="H6" s="4" t="n">
         <v>45339</v>
       </c>
-      <c r="I6" s="13" t="n"/>
-      <c r="J6" s="13" t="n">
+      <c r="I6" s="42" t="n"/>
+      <c r="J6" s="42" t="n">
         <v>11597</v>
       </c>
-      <c r="K6" s="13" t="n">
+      <c r="K6" s="42" t="n">
         <v>2203</v>
       </c>
-      <c r="L6" s="13" t="n">
+      <c r="L6" s="42" t="n">
         <v>13800</v>
       </c>
     </row>
@@ -868,14 +1348,14 @@
       <c r="H7" s="4" t="n">
         <v>45339</v>
       </c>
-      <c r="I7" s="13" t="n"/>
-      <c r="J7" s="13" t="n">
+      <c r="I7" s="42" t="n"/>
+      <c r="J7" s="42" t="n">
         <v>160773</v>
       </c>
-      <c r="K7" s="13" t="n">
+      <c r="K7" s="42" t="n">
         <v>30547</v>
       </c>
-      <c r="L7" s="13" t="n">
+      <c r="L7" s="42" t="n">
         <v>191320</v>
       </c>
     </row>
@@ -907,14 +1387,14 @@
       <c r="H8" s="4" t="n">
         <v>45342</v>
       </c>
-      <c r="I8" s="13" t="n"/>
-      <c r="J8" s="13" t="n">
+      <c r="I8" s="42" t="n"/>
+      <c r="J8" s="42" t="n">
         <v>15639</v>
       </c>
-      <c r="K8" s="13" t="n">
+      <c r="K8" s="42" t="n">
         <v>2971</v>
       </c>
-      <c r="L8" s="13" t="n">
+      <c r="L8" s="42" t="n">
         <v>18610</v>
       </c>
     </row>
@@ -946,14 +1426,14 @@
       <c r="H9" s="4" t="n">
         <v>45344</v>
       </c>
-      <c r="I9" s="13" t="n"/>
-      <c r="J9" s="13" t="n">
+      <c r="I9" s="42" t="n"/>
+      <c r="J9" s="42" t="n">
         <v>8395</v>
       </c>
-      <c r="K9" s="13" t="n">
+      <c r="K9" s="42" t="n">
         <v>1595</v>
       </c>
-      <c r="L9" s="13" t="n">
+      <c r="L9" s="42" t="n">
         <v>9990</v>
       </c>
     </row>
@@ -985,14 +1465,14 @@
       <c r="H10" s="4" t="n">
         <v>45346</v>
       </c>
-      <c r="I10" s="13" t="n"/>
-      <c r="J10" s="13" t="n">
+      <c r="I10" s="42" t="n"/>
+      <c r="J10" s="42" t="n">
         <v>32933</v>
       </c>
-      <c r="K10" s="13" t="n">
+      <c r="K10" s="42" t="n">
         <v>6257</v>
       </c>
-      <c r="L10" s="13" t="n">
+      <c r="L10" s="42" t="n">
         <v>39190</v>
       </c>
     </row>
@@ -1024,14 +1504,14 @@
       <c r="H11" s="4" t="n">
         <v>45346</v>
       </c>
-      <c r="I11" s="13" t="n"/>
-      <c r="J11" s="13" t="n">
+      <c r="I11" s="42" t="n"/>
+      <c r="J11" s="42" t="n">
         <v>10891</v>
       </c>
-      <c r="K11" s="13" t="n">
+      <c r="K11" s="42" t="n">
         <v>2069</v>
       </c>
-      <c r="L11" s="13" t="n">
+      <c r="L11" s="42" t="n">
         <v>12960</v>
       </c>
     </row>
@@ -1063,14 +1543,14 @@
       <c r="H12" s="4" t="n">
         <v>45346</v>
       </c>
-      <c r="I12" s="13" t="n"/>
-      <c r="J12" s="13" t="n">
+      <c r="I12" s="42" t="n"/>
+      <c r="J12" s="42" t="n">
         <v>6840</v>
       </c>
-      <c r="K12" s="13" t="n">
+      <c r="K12" s="42" t="n">
         <v>1300</v>
       </c>
-      <c r="L12" s="13" t="n">
+      <c r="L12" s="42" t="n">
         <v>8140</v>
       </c>
     </row>
@@ -1102,14 +1582,14 @@
       <c r="H13" s="4" t="n">
         <v>45347</v>
       </c>
-      <c r="I13" s="13" t="n"/>
-      <c r="J13" s="13" t="n">
+      <c r="I13" s="42" t="n"/>
+      <c r="J13" s="42" t="n">
         <v>77320</v>
       </c>
-      <c r="K13" s="13" t="n">
+      <c r="K13" s="42" t="n">
         <v>14691</v>
       </c>
-      <c r="L13" s="13" t="n">
+      <c r="L13" s="42" t="n">
         <v>92011</v>
       </c>
     </row>
@@ -1141,14 +1621,14 @@
       <c r="H14" s="4" t="n">
         <v>45351</v>
       </c>
-      <c r="I14" s="13" t="n"/>
-      <c r="J14" s="13" t="n">
+      <c r="I14" s="42" t="n"/>
+      <c r="J14" s="42" t="n">
         <v>13370</v>
       </c>
-      <c r="K14" s="13" t="n">
+      <c r="K14" s="42" t="n">
         <v>2540</v>
       </c>
-      <c r="L14" s="13" t="n">
+      <c r="L14" s="42" t="n">
         <v>15910</v>
       </c>
     </row>
@@ -1180,14 +1660,14 @@
       <c r="H15" s="4" t="n">
         <v>45349</v>
       </c>
-      <c r="I15" s="13" t="n"/>
-      <c r="J15" s="13" t="n">
+      <c r="I15" s="42" t="n"/>
+      <c r="J15" s="42" t="n">
         <v>17</v>
       </c>
-      <c r="K15" s="13" t="n">
+      <c r="K15" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="L15" s="13" t="n">
+      <c r="L15" s="42" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1199,10 +1679,10 @@
       <c r="F16" s="3" t="n"/>
       <c r="G16" s="3" t="n"/>
       <c r="H16" s="4" t="n"/>
-      <c r="I16" s="13" t="n"/>
-      <c r="J16" s="13" t="n"/>
-      <c r="K16" s="13" t="n"/>
-      <c r="L16" s="13" t="n"/>
+      <c r="I16" s="42" t="n"/>
+      <c r="J16" s="42" t="n"/>
+      <c r="K16" s="42" t="n"/>
+      <c r="L16" s="42" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="17" t="n"/>
@@ -1212,69 +1692,21 @@
       <c r="F17" s="17" t="n"/>
       <c r="G17" s="17" t="n"/>
       <c r="H17" s="17" t="n"/>
-      <c r="I17" s="18">
+      <c r="I17" s="43">
         <f>SUM(I6:I16)</f>
         <v/>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="43">
         <f>SUM(J6:J16)</f>
         <v/>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="43">
         <f>SUM(K6:K16)</f>
         <v/>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="43">
         <f>SUM(L6:L16)</f>
         <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="43" t="n"/>
-      <c r="D20" s="43" t="n"/>
-      <c r="E20" s="43" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="44" t="n">
-        <v>33</v>
-      </c>
-      <c r="D21" s="44" t="inlineStr">
-        <is>
-          <t>Del Giro</t>
-        </is>
-      </c>
-      <c r="E21" s="44" t="inlineStr">
-        <is>
-          <t>1.111.111-1</t>
-        </is>
-      </c>
-      <c r="F21" s="44" t="inlineStr">
-        <is>
-          <t>DulcesPercy</t>
-        </is>
-      </c>
-      <c r="G21" s="44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H21" s="44" t="inlineStr">
-        <is>
-          <t>01/02/2000</t>
-        </is>
-      </c>
-      <c r="I21" s="44" t="inlineStr"/>
-      <c r="J21" s="44" t="n">
-        <v>8100</v>
-      </c>
-      <c r="K21" s="44" t="n">
-        <v>1900</v>
-      </c>
-      <c r="L21" s="44" t="n">
-        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -1301,7 +1733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:M22"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
@@ -1309,28 +1741,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="43" min="1" max="1"/>
-    <col width="5.28515625" customWidth="1" style="43" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="43" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="43" min="4" max="5"/>
-    <col width="42.85546875" customWidth="1" style="43" min="6" max="6"/>
-    <col width="11.42578125" customWidth="1" style="43" min="7" max="7"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" style="43" min="8" max="8"/>
-    <col width="13.7109375" customWidth="1" style="39" min="9" max="12"/>
-    <col width="11.42578125" customWidth="1" style="15" min="13" max="13"/>
-    <col width="11.42578125" customWidth="1" style="43" min="14" max="14"/>
-    <col width="11.42578125" customWidth="1" style="43" min="15" max="16384"/>
+    <col width="1.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="5.28515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="5.5703125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.42578125" customWidth="1" style="1" min="4" max="5"/>
+    <col width="42.85546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="11.42578125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.7109375" customWidth="1" style="38" min="9" max="12"/>
+    <col width="11.42578125" customWidth="1" style="39" min="13" max="13"/>
+    <col width="11.42578125" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" customHeight="1" s="42">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="21" customHeight="1">
+      <c r="B2" s="36" t="inlineStr">
         <is>
           <t>LIBRO DE COMPRAS</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="42">
-      <c r="B3" s="40" t="inlineStr">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>MES DE MARZO</t>
         </is>
@@ -1372,27 +1803,27 @@
           <t>Fecha Docto</t>
         </is>
       </c>
-      <c r="I5" s="20" t="inlineStr">
+      <c r="I5" s="40" t="inlineStr">
         <is>
           <t>Monto Exento</t>
         </is>
       </c>
-      <c r="J5" s="20" t="inlineStr">
+      <c r="J5" s="40" t="inlineStr">
         <is>
           <t>Monto Neto</t>
         </is>
       </c>
-      <c r="K5" s="20" t="inlineStr">
+      <c r="K5" s="40" t="inlineStr">
         <is>
           <t>Monto IVA Recuperable</t>
         </is>
       </c>
-      <c r="L5" s="20" t="inlineStr">
+      <c r="L5" s="40" t="inlineStr">
         <is>
           <t>Monto Total</t>
         </is>
       </c>
-      <c r="M5" s="16" t="n"/>
+      <c r="M5" s="41" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="3" t="n">
@@ -1422,16 +1853,16 @@
       <c r="H6" s="4" t="n">
         <v>45350</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="13" t="n">
+      <c r="J6" s="42" t="n">
         <v>1238</v>
       </c>
-      <c r="K6" s="13" t="n">
+      <c r="K6" s="42" t="n">
         <v>235</v>
       </c>
-      <c r="L6" s="13" t="n">
+      <c r="L6" s="42" t="n">
         <v>1473</v>
       </c>
     </row>
@@ -1463,16 +1894,16 @@
       <c r="H7" s="4" t="n">
         <v>45358</v>
       </c>
-      <c r="I7" s="13" t="n">
+      <c r="I7" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="13" t="n">
+      <c r="J7" s="42" t="n">
         <v>62902</v>
       </c>
-      <c r="K7" s="13" t="n">
+      <c r="K7" s="42" t="n">
         <v>11948</v>
       </c>
-      <c r="L7" s="13" t="n">
+      <c r="L7" s="42" t="n">
         <v>74850</v>
       </c>
     </row>
@@ -1504,16 +1935,16 @@
       <c r="H8" s="4" t="n">
         <v>45363</v>
       </c>
-      <c r="I8" s="13" t="n">
+      <c r="I8" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="13" t="n">
+      <c r="J8" s="42" t="n">
         <v>23488</v>
       </c>
-      <c r="K8" s="13" t="n">
+      <c r="K8" s="42" t="n">
         <v>4463</v>
       </c>
-      <c r="L8" s="13" t="n">
+      <c r="L8" s="42" t="n">
         <v>27951</v>
       </c>
     </row>
@@ -1545,16 +1976,16 @@
       <c r="H9" s="4" t="n">
         <v>45365</v>
       </c>
-      <c r="I9" s="13" t="n">
+      <c r="I9" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="13" t="n">
+      <c r="J9" s="42" t="n">
         <v>11760</v>
       </c>
-      <c r="K9" s="13" t="n">
+      <c r="K9" s="42" t="n">
         <v>2234</v>
       </c>
-      <c r="L9" s="13" t="n">
+      <c r="L9" s="42" t="n">
         <v>13994</v>
       </c>
     </row>
@@ -1586,16 +2017,16 @@
       <c r="H10" s="4" t="n">
         <v>45367</v>
       </c>
-      <c r="I10" s="13" t="n">
+      <c r="I10" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="13" t="n">
+      <c r="J10" s="42" t="n">
         <v>70000</v>
       </c>
-      <c r="K10" s="13" t="n">
+      <c r="K10" s="42" t="n">
         <v>13300</v>
       </c>
-      <c r="L10" s="13" t="n">
+      <c r="L10" s="42" t="n">
         <v>83300</v>
       </c>
     </row>
@@ -1627,16 +2058,16 @@
       <c r="H11" s="4" t="n">
         <v>45370</v>
       </c>
-      <c r="I11" s="13" t="n">
+      <c r="I11" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="13" t="n">
+      <c r="J11" s="42" t="n">
         <v>32750</v>
       </c>
-      <c r="K11" s="13" t="n">
+      <c r="K11" s="42" t="n">
         <v>6223</v>
       </c>
-      <c r="L11" s="13" t="n">
+      <c r="L11" s="42" t="n">
         <v>38973</v>
       </c>
     </row>
@@ -1668,16 +2099,16 @@
       <c r="H12" s="4" t="n">
         <v>45372</v>
       </c>
-      <c r="I12" s="13" t="n">
+      <c r="I12" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="13" t="n">
+      <c r="J12" s="42" t="n">
         <v>89630</v>
       </c>
-      <c r="K12" s="13" t="n">
+      <c r="K12" s="42" t="n">
         <v>17030</v>
       </c>
-      <c r="L12" s="13" t="n">
+      <c r="L12" s="42" t="n">
         <v>106660</v>
       </c>
     </row>
@@ -1709,16 +2140,16 @@
       <c r="H13" s="4" t="n">
         <v>45378</v>
       </c>
-      <c r="I13" s="13" t="n">
+      <c r="I13" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="13" t="n">
+      <c r="J13" s="42" t="n">
         <v>10579</v>
       </c>
-      <c r="K13" s="13" t="n">
+      <c r="K13" s="42" t="n">
         <v>2010</v>
       </c>
-      <c r="L13" s="13" t="n">
+      <c r="L13" s="42" t="n">
         <v>12589</v>
       </c>
     </row>
@@ -1750,16 +2181,16 @@
       <c r="H14" s="4" t="n">
         <v>45378</v>
       </c>
-      <c r="I14" s="13" t="n">
+      <c r="I14" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="13" t="n">
+      <c r="J14" s="42" t="n">
         <v>59210</v>
       </c>
-      <c r="K14" s="13" t="n">
+      <c r="K14" s="42" t="n">
         <v>11250</v>
       </c>
-      <c r="L14" s="13" t="n">
+      <c r="L14" s="42" t="n">
         <v>70460</v>
       </c>
     </row>
@@ -1791,16 +2222,16 @@
       <c r="H15" s="4" t="n">
         <v>45379</v>
       </c>
-      <c r="I15" s="13" t="n">
+      <c r="I15" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="13" t="n">
+      <c r="J15" s="42" t="n">
         <v>31950</v>
       </c>
-      <c r="K15" s="13" t="n">
+      <c r="K15" s="42" t="n">
         <v>6070</v>
       </c>
-      <c r="L15" s="13" t="n">
+      <c r="L15" s="42" t="n">
         <v>38020</v>
       </c>
     </row>
@@ -1832,16 +2263,16 @@
       <c r="H16" s="4" t="n">
         <v>45379</v>
       </c>
-      <c r="I16" s="13" t="n">
+      <c r="I16" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="13" t="n">
+      <c r="J16" s="42" t="n">
         <v>7033</v>
       </c>
-      <c r="K16" s="13" t="n">
+      <c r="K16" s="42" t="n">
         <v>1336</v>
       </c>
-      <c r="L16" s="13" t="n">
+      <c r="L16" s="42" t="n">
         <v>8369</v>
       </c>
     </row>
@@ -1873,16 +2304,16 @@
       <c r="H17" s="4" t="n">
         <v>45377</v>
       </c>
-      <c r="I17" s="13" t="n">
+      <c r="I17" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="13" t="n">
+      <c r="J17" s="42" t="n">
         <v>301</v>
       </c>
-      <c r="K17" s="13" t="n">
+      <c r="K17" s="42" t="n">
         <v>57</v>
       </c>
-      <c r="L17" s="13" t="n">
+      <c r="L17" s="42" t="n">
         <v>358</v>
       </c>
     </row>
@@ -1914,16 +2345,16 @@
       <c r="H18" s="4" t="n">
         <v>45378</v>
       </c>
-      <c r="I18" s="13" t="n">
+      <c r="I18" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="13" t="n">
+      <c r="J18" s="42" t="n">
         <v>3190</v>
       </c>
-      <c r="K18" s="13" t="n">
+      <c r="K18" s="42" t="n">
         <v>606</v>
       </c>
-      <c r="L18" s="13" t="n">
+      <c r="L18" s="42" t="n">
         <v>3796</v>
       </c>
     </row>
@@ -1955,16 +2386,16 @@
       <c r="H19" s="4" t="n">
         <v>45381</v>
       </c>
-      <c r="I19" s="13" t="n">
+      <c r="I19" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="13" t="n">
+      <c r="J19" s="42" t="n">
         <v>25001</v>
       </c>
-      <c r="K19" s="13" t="n">
+      <c r="K19" s="42" t="n">
         <v>4749</v>
       </c>
-      <c r="L19" s="13" t="n">
+      <c r="L19" s="42" t="n">
         <v>29750</v>
       </c>
     </row>
@@ -1996,16 +2427,16 @@
       <c r="H20" s="4" t="n">
         <v>45382</v>
       </c>
-      <c r="I20" s="13" t="n">
+      <c r="I20" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="13" t="n">
+      <c r="J20" s="42" t="n">
         <v>-10319</v>
       </c>
-      <c r="K20" s="13" t="n">
+      <c r="K20" s="42" t="n">
         <v>-1961</v>
       </c>
-      <c r="L20" s="13" t="n">
+      <c r="L20" s="42" t="n">
         <v>-12280</v>
       </c>
     </row>
@@ -2017,58 +2448,23 @@
       <c r="F21" s="17" t="n"/>
       <c r="G21" s="17" t="n"/>
       <c r="H21" s="17" t="n"/>
-      <c r="I21" s="18">
+      <c r="I21" s="43">
         <f>SUM(I6:I20)</f>
         <v/>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="43">
         <f>SUM(J6:J20)</f>
         <v/>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="43">
         <f>SUM(K6:K20)</f>
         <v/>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="43">
         <f>SUM(L6:L20)</f>
         <v/>
       </c>
-      <c r="M21" s="22" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="36" t="n">
-        <v>33</v>
-      </c>
-      <c r="D22" s="36" t="inlineStr">
-        <is>
-          <t>Del Giro</t>
-        </is>
-      </c>
-      <c r="E22" s="36" t="n"/>
-      <c r="F22" s="36" t="inlineStr">
-        <is>
-          <t>BASTA</t>
-        </is>
-      </c>
-      <c r="G22" s="36" t="n"/>
-      <c r="H22" s="36" t="inlineStr">
-        <is>
-          <t>01/03/1232</t>
-        </is>
-      </c>
-      <c r="I22" s="36" t="n"/>
-      <c r="J22" s="36" t="n">
-        <v>8100</v>
-      </c>
-      <c r="K22" s="36" t="n">
-        <v>1900</v>
-      </c>
-      <c r="L22" s="36" t="n">
-        <v>10000</v>
-      </c>
+      <c r="M21" s="44" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2094,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:M22"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
@@ -2102,28 +2498,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="43" min="1" max="1"/>
-    <col width="5.28515625" customWidth="1" style="43" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="43" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="43" min="4" max="5"/>
-    <col width="42.85546875" customWidth="1" style="43" min="6" max="6"/>
-    <col width="11.42578125" customWidth="1" style="43" min="7" max="7"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" style="43" min="8" max="8"/>
-    <col width="13.7109375" customWidth="1" style="39" min="9" max="12"/>
-    <col width="11.42578125" customWidth="1" style="15" min="13" max="13"/>
-    <col width="11.42578125" customWidth="1" style="43" min="14" max="14"/>
-    <col width="11.42578125" customWidth="1" style="43" min="15" max="16384"/>
+    <col width="1.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="5.28515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="5.5703125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.42578125" customWidth="1" style="1" min="4" max="5"/>
+    <col width="42.85546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="11.42578125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.7109375" customWidth="1" style="38" min="9" max="12"/>
+    <col width="11.42578125" customWidth="1" style="39" min="13" max="13"/>
+    <col width="11.42578125" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" customHeight="1" s="42">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="21" customHeight="1">
+      <c r="B2" s="36" t="inlineStr">
         <is>
           <t>LIBRO DE COMPRAS</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="42">
-      <c r="B3" s="40" t="inlineStr">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>MES DE ABRIL</t>
         </is>
@@ -2165,27 +2560,27 @@
           <t>Fecha Docto</t>
         </is>
       </c>
-      <c r="I5" s="20" t="inlineStr">
+      <c r="I5" s="40" t="inlineStr">
         <is>
           <t>Monto Exento</t>
         </is>
       </c>
-      <c r="J5" s="20" t="inlineStr">
+      <c r="J5" s="40" t="inlineStr">
         <is>
           <t>Monto Neto</t>
         </is>
       </c>
-      <c r="K5" s="20" t="inlineStr">
+      <c r="K5" s="40" t="inlineStr">
         <is>
           <t>Monto IVA Recuperable</t>
         </is>
       </c>
-      <c r="L5" s="20" t="inlineStr">
+      <c r="L5" s="40" t="inlineStr">
         <is>
           <t>Monto Total</t>
         </is>
       </c>
-      <c r="M5" s="16" t="n"/>
+      <c r="M5" s="41" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="3" t="n">
@@ -2215,16 +2610,16 @@
       <c r="H6" s="4" t="n">
         <v>45378</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="13" t="n">
+      <c r="J6" s="42" t="n">
         <v>102470</v>
       </c>
-      <c r="K6" s="13" t="n">
+      <c r="K6" s="42" t="n">
         <v>19469</v>
       </c>
-      <c r="L6" s="13" t="n">
+      <c r="L6" s="42" t="n">
         <v>121939</v>
       </c>
     </row>
@@ -2256,16 +2651,16 @@
       <c r="H7" s="4" t="n">
         <v>45383</v>
       </c>
-      <c r="I7" s="13" t="n">
+      <c r="I7" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="13" t="n">
+      <c r="J7" s="42" t="n">
         <v>3781</v>
       </c>
-      <c r="K7" s="13" t="n">
+      <c r="K7" s="42" t="n">
         <v>718</v>
       </c>
-      <c r="L7" s="13" t="n">
+      <c r="L7" s="42" t="n">
         <v>4499</v>
       </c>
     </row>
@@ -2297,16 +2692,16 @@
       <c r="H8" s="4" t="n">
         <v>45389</v>
       </c>
-      <c r="I8" s="13" t="n">
+      <c r="I8" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="13" t="n">
+      <c r="J8" s="42" t="n">
         <v>20244</v>
       </c>
-      <c r="K8" s="13" t="n">
+      <c r="K8" s="42" t="n">
         <v>3846</v>
       </c>
-      <c r="L8" s="13" t="n">
+      <c r="L8" s="42" t="n">
         <v>24090</v>
       </c>
     </row>
@@ -2338,16 +2733,16 @@
       <c r="H9" s="4" t="n">
         <v>45391</v>
       </c>
-      <c r="I9" s="13" t="n">
+      <c r="I9" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="13" t="n">
+      <c r="J9" s="42" t="n">
         <v>4451</v>
       </c>
-      <c r="K9" s="13" t="n">
+      <c r="K9" s="42" t="n">
         <v>846</v>
       </c>
-      <c r="L9" s="13" t="n">
+      <c r="L9" s="42" t="n">
         <v>5297</v>
       </c>
     </row>
@@ -2379,16 +2774,16 @@
       <c r="H10" s="4" t="n">
         <v>45391</v>
       </c>
-      <c r="I10" s="13" t="n">
+      <c r="I10" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="13" t="n">
+      <c r="J10" s="42" t="n">
         <v>213983</v>
       </c>
-      <c r="K10" s="13" t="n">
+      <c r="K10" s="42" t="n">
         <v>40657</v>
       </c>
-      <c r="L10" s="13" t="n">
+      <c r="L10" s="42" t="n">
         <v>254640</v>
       </c>
     </row>
@@ -2420,16 +2815,16 @@
       <c r="H11" s="4" t="n">
         <v>45391</v>
       </c>
-      <c r="I11" s="13" t="n">
+      <c r="I11" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="13" t="n">
+      <c r="J11" s="42" t="n">
         <v>8109</v>
       </c>
-      <c r="K11" s="13" t="n">
+      <c r="K11" s="42" t="n">
         <v>1541</v>
       </c>
-      <c r="L11" s="13" t="n">
+      <c r="L11" s="42" t="n">
         <v>9650</v>
       </c>
     </row>
@@ -2461,16 +2856,16 @@
       <c r="H12" s="4" t="n">
         <v>45392</v>
       </c>
-      <c r="I12" s="13" t="n">
+      <c r="I12" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="13" t="n">
+      <c r="J12" s="42" t="n">
         <v>43990</v>
       </c>
-      <c r="K12" s="13" t="n">
+      <c r="K12" s="42" t="n">
         <v>8358</v>
       </c>
-      <c r="L12" s="13" t="n">
+      <c r="L12" s="42" t="n">
         <v>52348</v>
       </c>
     </row>
@@ -2502,16 +2897,16 @@
       <c r="H13" s="4" t="n">
         <v>45399</v>
       </c>
-      <c r="I13" s="13" t="n">
+      <c r="I13" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="13" t="n">
+      <c r="J13" s="42" t="n">
         <v>60764</v>
       </c>
-      <c r="K13" s="13" t="n">
+      <c r="K13" s="42" t="n">
         <v>11545</v>
       </c>
-      <c r="L13" s="13" t="n">
+      <c r="L13" s="42" t="n">
         <v>72309</v>
       </c>
     </row>
@@ -2543,16 +2938,16 @@
       <c r="H14" s="4" t="n">
         <v>45400</v>
       </c>
-      <c r="I14" s="13" t="n">
+      <c r="I14" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="13" t="n">
+      <c r="J14" s="42" t="n">
         <v>117874</v>
       </c>
-      <c r="K14" s="13" t="n">
+      <c r="K14" s="42" t="n">
         <v>22396</v>
       </c>
-      <c r="L14" s="13" t="n">
+      <c r="L14" s="42" t="n">
         <v>140270</v>
       </c>
     </row>
@@ -2584,16 +2979,16 @@
       <c r="H15" s="4" t="n">
         <v>45404</v>
       </c>
-      <c r="I15" s="13" t="n">
+      <c r="I15" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="13" t="n">
+      <c r="J15" s="42" t="n">
         <v>64058</v>
       </c>
-      <c r="K15" s="13" t="n">
+      <c r="K15" s="42" t="n">
         <v>12171</v>
       </c>
-      <c r="L15" s="13" t="n">
+      <c r="L15" s="42" t="n">
         <v>76229</v>
       </c>
     </row>
@@ -2625,16 +3020,16 @@
       <c r="H16" s="4" t="n">
         <v>45405</v>
       </c>
-      <c r="I16" s="13" t="n">
+      <c r="I16" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="13" t="n">
+      <c r="J16" s="42" t="n">
         <v>28226</v>
       </c>
-      <c r="K16" s="13" t="n">
+      <c r="K16" s="42" t="n">
         <v>5363</v>
       </c>
-      <c r="L16" s="13" t="n">
+      <c r="L16" s="42" t="n">
         <v>33589</v>
       </c>
     </row>
@@ -2666,16 +3061,16 @@
       <c r="H17" s="4" t="n">
         <v>45411</v>
       </c>
-      <c r="I17" s="13" t="n">
+      <c r="I17" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="13" t="n">
+      <c r="J17" s="42" t="n">
         <v>45681</v>
       </c>
-      <c r="K17" s="13" t="n">
+      <c r="K17" s="42" t="n">
         <v>8679</v>
       </c>
-      <c r="L17" s="13" t="n">
+      <c r="L17" s="42" t="n">
         <v>54360</v>
       </c>
     </row>
@@ -2707,16 +3102,16 @@
       <c r="H18" s="4" t="n">
         <v>45408</v>
       </c>
-      <c r="I18" s="13" t="n">
+      <c r="I18" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="13" t="n">
+      <c r="J18" s="42" t="n">
         <v>2308</v>
       </c>
-      <c r="K18" s="13" t="n">
+      <c r="K18" s="42" t="n">
         <v>439</v>
       </c>
-      <c r="L18" s="13" t="n">
+      <c r="L18" s="42" t="n">
         <v>2747</v>
       </c>
     </row>
@@ -2728,20 +3123,20 @@
       <c r="F19" s="17" t="n"/>
       <c r="G19" s="17" t="n"/>
       <c r="H19" s="23" t="n"/>
-      <c r="I19" s="18" t="n"/>
-      <c r="J19" s="18">
+      <c r="I19" s="43" t="n"/>
+      <c r="J19" s="43">
         <f>SUM(J6:J18)</f>
         <v/>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="43">
         <f>SUM(K6:K18)</f>
         <v/>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="43">
         <f>SUM(L6:L18)</f>
         <v/>
       </c>
-      <c r="M19" s="22" t="n"/>
+      <c r="M19" s="44" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="3" t="n"/>
@@ -2751,10 +3146,10 @@
       <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
       <c r="H20" s="4" t="n"/>
-      <c r="I20" s="13" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
-      <c r="L20" s="13" t="n"/>
+      <c r="I20" s="42" t="n"/>
+      <c r="J20" s="42" t="n"/>
+      <c r="K20" s="42" t="n"/>
+      <c r="L20" s="42" t="n"/>
     </row>
     <row r="21" customFormat="1" s="21">
       <c r="B21" s="17" t="n"/>
@@ -2764,54 +3159,11 @@
       <c r="F21" s="17" t="n"/>
       <c r="G21" s="17" t="n"/>
       <c r="H21" s="17" t="n"/>
-      <c r="I21" s="18" t="n"/>
-      <c r="J21" s="18" t="n"/>
-      <c r="K21" s="18" t="n"/>
-      <c r="L21" s="18" t="n"/>
-      <c r="M21" s="22" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="36" t="n">
-        <v>33</v>
-      </c>
-      <c r="C22" s="36" t="inlineStr">
-        <is>
-          <t>Del Giro</t>
-        </is>
-      </c>
-      <c r="D22" s="36" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="E22" s="36" t="inlineStr">
-        <is>
-          <t>aiaiaiaiai</t>
-        </is>
-      </c>
-      <c r="F22" s="36" t="inlineStr">
-        <is>
-          <t>2121</t>
-        </is>
-      </c>
-      <c r="G22" s="36" t="inlineStr">
-        <is>
-          <t>01/04/1769</t>
-        </is>
-      </c>
-      <c r="H22" s="36" t="n"/>
-      <c r="I22" s="36" t="n">
-        <v>8100</v>
-      </c>
-      <c r="J22" s="36" t="n">
-        <v>1900</v>
-      </c>
-      <c r="K22" s="36" t="n">
-        <v>10000</v>
-      </c>
+      <c r="I21" s="43" t="n"/>
+      <c r="J21" s="43" t="n"/>
+      <c r="K21" s="43" t="n"/>
+      <c r="L21" s="43" t="n"/>
+      <c r="M21" s="44" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2837,7 +3189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:M25"/>
+  <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -2845,28 +3197,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="43" min="1" max="1"/>
-    <col width="5.28515625" customWidth="1" style="43" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="43" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="43" min="4" max="5"/>
-    <col width="42.85546875" customWidth="1" style="43" min="6" max="6"/>
-    <col width="11.42578125" customWidth="1" style="43" min="7" max="7"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" style="43" min="8" max="8"/>
-    <col width="13.7109375" customWidth="1" style="39" min="9" max="12"/>
-    <col width="11.42578125" customWidth="1" style="15" min="13" max="13"/>
-    <col width="11.42578125" customWidth="1" style="43" min="14" max="14"/>
-    <col width="11.42578125" customWidth="1" style="43" min="15" max="16384"/>
+    <col width="1.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="5.28515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="5.5703125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.42578125" customWidth="1" style="1" min="4" max="5"/>
+    <col width="42.85546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="11.42578125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.7109375" customWidth="1" style="38" min="9" max="12"/>
+    <col width="11.42578125" customWidth="1" style="39" min="13" max="13"/>
+    <col width="11.42578125" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" customHeight="1" s="42">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="21" customHeight="1">
+      <c r="B2" s="36" t="inlineStr">
         <is>
           <t>LIBRO DE COMPRAS</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="42">
-      <c r="B3" s="40" t="inlineStr">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>MES DE MAYO</t>
         </is>
@@ -2908,27 +3259,27 @@
           <t>Fecha Docto</t>
         </is>
       </c>
-      <c r="I5" s="20" t="inlineStr">
+      <c r="I5" s="40" t="inlineStr">
         <is>
           <t>Monto Exento</t>
         </is>
       </c>
-      <c r="J5" s="20" t="inlineStr">
+      <c r="J5" s="40" t="inlineStr">
         <is>
           <t>Monto Neto</t>
         </is>
       </c>
-      <c r="K5" s="20" t="inlineStr">
+      <c r="K5" s="40" t="inlineStr">
         <is>
           <t>Monto IVA Recuperable</t>
         </is>
       </c>
-      <c r="L5" s="20" t="inlineStr">
+      <c r="L5" s="40" t="inlineStr">
         <is>
           <t>Monto Total</t>
         </is>
       </c>
-      <c r="M5" s="16" t="n"/>
+      <c r="M5" s="41" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="3" t="n">
@@ -2958,16 +3309,16 @@
       <c r="H6" s="4" t="n">
         <v>45409</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="13" t="n">
+      <c r="J6" s="42" t="n">
         <v>26652</v>
       </c>
-      <c r="K6" s="13" t="n">
+      <c r="K6" s="42" t="n">
         <v>5064</v>
       </c>
-      <c r="L6" s="13" t="n">
+      <c r="L6" s="42" t="n">
         <v>31716</v>
       </c>
     </row>
@@ -2999,16 +3350,16 @@
       <c r="H7" s="4" t="n">
         <v>45411</v>
       </c>
-      <c r="I7" s="13" t="n">
+      <c r="I7" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="13" t="n">
+      <c r="J7" s="42" t="n">
         <v>7680</v>
       </c>
-      <c r="K7" s="13" t="n">
+      <c r="K7" s="42" t="n">
         <v>1459</v>
       </c>
-      <c r="L7" s="13" t="n">
+      <c r="L7" s="42" t="n">
         <v>9139</v>
       </c>
     </row>
@@ -3040,16 +3391,16 @@
       <c r="H8" s="4" t="n">
         <v>45418</v>
       </c>
-      <c r="I8" s="13" t="n">
+      <c r="I8" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="13" t="n">
+      <c r="J8" s="42" t="n">
         <v>10000</v>
       </c>
-      <c r="K8" s="13" t="n">
+      <c r="K8" s="42" t="n">
         <v>1900</v>
       </c>
-      <c r="L8" s="13" t="n">
+      <c r="L8" s="42" t="n">
         <v>11900</v>
       </c>
     </row>
@@ -3081,16 +3432,16 @@
       <c r="H9" s="4" t="n">
         <v>45420</v>
       </c>
-      <c r="I9" s="13" t="n">
+      <c r="I9" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="13" t="n">
+      <c r="J9" s="42" t="n">
         <v>17091</v>
       </c>
-      <c r="K9" s="13" t="n">
+      <c r="K9" s="42" t="n">
         <v>3247</v>
       </c>
-      <c r="L9" s="13" t="n">
+      <c r="L9" s="42" t="n">
         <v>20338</v>
       </c>
     </row>
@@ -3122,16 +3473,16 @@
       <c r="H10" s="4" t="n">
         <v>45421</v>
       </c>
-      <c r="I10" s="13" t="n">
+      <c r="I10" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="13" t="n">
+      <c r="J10" s="42" t="n">
         <v>78546</v>
       </c>
-      <c r="K10" s="13" t="n">
+      <c r="K10" s="42" t="n">
         <v>14924</v>
       </c>
-      <c r="L10" s="13" t="n">
+      <c r="L10" s="42" t="n">
         <v>93470</v>
       </c>
     </row>
@@ -3163,16 +3514,16 @@
       <c r="H11" s="4" t="n">
         <v>45421</v>
       </c>
-      <c r="I11" s="13" t="n">
+      <c r="I11" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="13" t="n">
+      <c r="J11" s="42" t="n">
         <v>9445</v>
       </c>
-      <c r="K11" s="13" t="n">
+      <c r="K11" s="42" t="n">
         <v>1795</v>
       </c>
-      <c r="L11" s="13" t="n">
+      <c r="L11" s="42" t="n">
         <v>11240</v>
       </c>
     </row>
@@ -3204,16 +3555,16 @@
       <c r="H12" s="4" t="n">
         <v>45421</v>
       </c>
-      <c r="I12" s="13" t="n">
+      <c r="I12" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="13" t="n">
+      <c r="J12" s="42" t="n">
         <v>7591</v>
       </c>
-      <c r="K12" s="13" t="n">
+      <c r="K12" s="42" t="n">
         <v>1442</v>
       </c>
-      <c r="L12" s="13" t="n">
+      <c r="L12" s="42" t="n">
         <v>9033</v>
       </c>
     </row>
@@ -3245,16 +3596,16 @@
       <c r="H13" s="4" t="n">
         <v>45422</v>
       </c>
-      <c r="I13" s="13" t="n">
+      <c r="I13" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="13" t="n">
+      <c r="J13" s="42" t="n">
         <v>154505</v>
       </c>
-      <c r="K13" s="13" t="n">
+      <c r="K13" s="42" t="n">
         <v>29356</v>
       </c>
-      <c r="L13" s="13" t="n">
+      <c r="L13" s="42" t="n">
         <v>183861</v>
       </c>
     </row>
@@ -3286,16 +3637,16 @@
       <c r="H14" s="4" t="n">
         <v>45427</v>
       </c>
-      <c r="I14" s="13" t="n">
+      <c r="I14" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="13" t="n">
+      <c r="J14" s="42" t="n">
         <v>47537</v>
       </c>
-      <c r="K14" s="13" t="n">
+      <c r="K14" s="42" t="n">
         <v>9032</v>
       </c>
-      <c r="L14" s="13" t="n">
+      <c r="L14" s="42" t="n">
         <v>56569</v>
       </c>
     </row>
@@ -3327,16 +3678,16 @@
       <c r="H15" s="4" t="n">
         <v>45428</v>
       </c>
-      <c r="I15" s="13" t="n">
+      <c r="I15" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="13" t="n">
+      <c r="J15" s="42" t="n">
         <v>62213</v>
       </c>
-      <c r="K15" s="13" t="n">
+      <c r="K15" s="42" t="n">
         <v>11820</v>
       </c>
-      <c r="L15" s="13" t="n">
+      <c r="L15" s="42" t="n">
         <v>74033</v>
       </c>
     </row>
@@ -3368,16 +3719,16 @@
       <c r="H16" s="4" t="n">
         <v>45429</v>
       </c>
-      <c r="I16" s="13" t="n">
+      <c r="I16" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="13" t="n">
+      <c r="J16" s="42" t="n">
         <v>64472</v>
       </c>
-      <c r="K16" s="13" t="n">
+      <c r="K16" s="42" t="n">
         <v>12250</v>
       </c>
-      <c r="L16" s="13" t="n">
+      <c r="L16" s="42" t="n">
         <v>76722</v>
       </c>
     </row>
@@ -3409,16 +3760,16 @@
       <c r="H17" s="4" t="n">
         <v>45429</v>
       </c>
-      <c r="I17" s="13" t="n">
+      <c r="I17" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="13" t="n">
+      <c r="J17" s="42" t="n">
         <v>57165</v>
       </c>
-      <c r="K17" s="13" t="n">
+      <c r="K17" s="42" t="n">
         <v>10861</v>
       </c>
-      <c r="L17" s="13" t="n">
+      <c r="L17" s="42" t="n">
         <v>68026</v>
       </c>
     </row>
@@ -3450,16 +3801,16 @@
       <c r="H18" s="4" t="n">
         <v>45443</v>
       </c>
-      <c r="I18" s="13" t="n">
+      <c r="I18" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="13" t="n">
+      <c r="J18" s="42" t="n">
         <v>8151</v>
       </c>
-      <c r="K18" s="13" t="n">
+      <c r="K18" s="42" t="n">
         <v>1549</v>
       </c>
-      <c r="L18" s="13" t="n">
+      <c r="L18" s="42" t="n">
         <v>9700</v>
       </c>
     </row>
@@ -3491,16 +3842,16 @@
       <c r="H19" s="4" t="n">
         <v>45441</v>
       </c>
-      <c r="I19" s="13" t="n">
+      <c r="I19" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="13" t="n">
+      <c r="J19" s="42" t="n">
         <v>1103</v>
       </c>
-      <c r="K19" s="13" t="n">
+      <c r="K19" s="42" t="n">
         <v>210</v>
       </c>
-      <c r="L19" s="13" t="n">
+      <c r="L19" s="42" t="n">
         <v>1313</v>
       </c>
     </row>
@@ -3532,16 +3883,16 @@
       <c r="H20" s="4" t="n">
         <v>45440</v>
       </c>
-      <c r="I20" s="13" t="n">
+      <c r="I20" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="13" t="n">
+      <c r="J20" s="42" t="n">
         <v>18</v>
       </c>
-      <c r="K20" s="13" t="n">
+      <c r="K20" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="L20" s="13" t="n">
+      <c r="L20" s="42" t="n">
         <v>21</v>
       </c>
     </row>
@@ -3553,188 +3904,65 @@
       <c r="F21" s="17" t="n"/>
       <c r="G21" s="17" t="n"/>
       <c r="H21" s="17" t="n"/>
-      <c r="I21" s="18">
+      <c r="I21" s="43">
         <f>SUM(I6:I20)</f>
         <v/>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="43">
         <f>SUM(J6:J20)</f>
         <v/>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="43">
         <f>SUM(K6:K20)</f>
         <v/>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="43">
         <f>SUM(L6:L20)</f>
         <v/>
       </c>
-      <c r="M21" s="22" t="n"/>
+      <c r="M21" s="44" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="36" t="n">
-        <v>33</v>
-      </c>
-      <c r="C22" s="36" t="inlineStr">
-        <is>
-          <t>Del Giro</t>
-        </is>
-      </c>
-      <c r="D22" s="36" t="n"/>
-      <c r="E22" s="36" t="inlineStr">
-        <is>
-          <t>auxilio</t>
-        </is>
-      </c>
-      <c r="F22" s="36" t="inlineStr">
-        <is>
-          <t>1212</t>
-        </is>
-      </c>
-      <c r="G22" s="36" t="inlineStr">
-        <is>
-          <t>01/05/1999</t>
-        </is>
-      </c>
-      <c r="H22" s="36" t="n"/>
-      <c r="I22" s="36" t="n">
-        <v>8100</v>
-      </c>
-      <c r="J22" s="36" t="n">
-        <v>1900</v>
-      </c>
-      <c r="K22" s="36" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" s="36" t="n">
-        <v>33</v>
-      </c>
-      <c r="C23" s="36" t="inlineStr">
-        <is>
-          <t>Del Giro</t>
-        </is>
-      </c>
-      <c r="D23" s="36" t="n"/>
-      <c r="E23" s="36" t="inlineStr">
-        <is>
-          <t>nopuedo</t>
-        </is>
-      </c>
-      <c r="F23" s="36" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="G23" s="36" t="inlineStr">
-        <is>
-          <t>01/05/1721</t>
-        </is>
-      </c>
-      <c r="H23" s="36" t="n"/>
-      <c r="I23" s="36" t="n">
-        <v>8100</v>
-      </c>
-      <c r="J23" s="36" t="n">
-        <v>1900</v>
-      </c>
-      <c r="K23" s="36" t="n">
-        <v>10000</v>
-      </c>
-      <c r="L23" s="36" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="44" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" s="44" t="n">
-        <v>33</v>
-      </c>
-      <c r="D24" s="44" t="inlineStr">
-        <is>
-          <t>Del Giro</t>
-        </is>
-      </c>
-      <c r="E24" s="44" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="F24" s="44" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="G24" s="44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H24" s="44" t="inlineStr">
-        <is>
-          <t>01/05/2000</t>
-        </is>
-      </c>
-      <c r="I24" s="44" t="inlineStr"/>
-      <c r="J24" s="44" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K24" s="44" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="L24" s="44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="44" t="inlineStr"/>
-      <c r="B25" s="44" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" s="44" t="n">
-        <v>33</v>
-      </c>
-      <c r="D25" s="44" t="inlineStr">
-        <is>
-          <t>Del Giro</t>
-        </is>
-      </c>
-      <c r="E25" s="44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F25" s="44" t="inlineStr">
-        <is>
-          <t>NO HAY</t>
-        </is>
-      </c>
-      <c r="G25" s="44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H25" s="44" t="inlineStr">
-        <is>
-          <t>10/05/2000</t>
-        </is>
-      </c>
-      <c r="I25" s="44" t="inlineStr"/>
-      <c r="J25" s="44" t="n">
-        <v>18.63</v>
-      </c>
-      <c r="K25" s="44" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="L25" t="n">
-        <v>23</v>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>10</v>
+      </c>
+      <c r="H22" s="45" t="n">
+        <v>36656</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10</v>
+      </c>
+      <c r="K22" t="n">
+        <v>10</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3769,28 +3997,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="43" min="1" max="1"/>
-    <col width="5.28515625" customWidth="1" style="43" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="43" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="43" min="4" max="5"/>
-    <col width="42.85546875" customWidth="1" style="43" min="6" max="6"/>
-    <col width="11.42578125" customWidth="1" style="43" min="7" max="7"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" style="43" min="8" max="8"/>
-    <col width="13.7109375" customWidth="1" style="39" min="9" max="12"/>
-    <col width="11.42578125" customWidth="1" style="15" min="13" max="13"/>
-    <col width="11.42578125" customWidth="1" style="43" min="14" max="14"/>
-    <col width="11.42578125" customWidth="1" style="43" min="15" max="16384"/>
+    <col width="1.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="5.28515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="5.5703125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.42578125" customWidth="1" style="1" min="4" max="5"/>
+    <col width="42.85546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="11.42578125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.7109375" customWidth="1" style="38" min="9" max="12"/>
+    <col width="11.42578125" customWidth="1" style="39" min="13" max="13"/>
+    <col width="11.42578125" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" customHeight="1" s="42">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="21" customHeight="1">
+      <c r="B2" s="36" t="inlineStr">
         <is>
           <t>LIBRO DE COMPRAS</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="42">
-      <c r="B3" s="40" t="inlineStr">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>MES DE JUNIO</t>
         </is>
@@ -3832,27 +4059,27 @@
           <t>Fecha Docto</t>
         </is>
       </c>
-      <c r="I5" s="20" t="inlineStr">
+      <c r="I5" s="40" t="inlineStr">
         <is>
           <t>Monto Exento</t>
         </is>
       </c>
-      <c r="J5" s="20" t="inlineStr">
+      <c r="J5" s="40" t="inlineStr">
         <is>
           <t>Monto Neto</t>
         </is>
       </c>
-      <c r="K5" s="20" t="inlineStr">
+      <c r="K5" s="40" t="inlineStr">
         <is>
           <t>Monto IVA Recuperable</t>
         </is>
       </c>
-      <c r="L5" s="20" t="inlineStr">
+      <c r="L5" s="40" t="inlineStr">
         <is>
           <t>Monto Total</t>
         </is>
       </c>
-      <c r="M5" s="16" t="n"/>
+      <c r="M5" s="41" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="3" t="n">
@@ -3882,16 +4109,16 @@
       <c r="H6" s="4" t="n">
         <v>45436</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="13" t="n">
+      <c r="J6" s="42" t="n">
         <v>154505</v>
       </c>
-      <c r="K6" s="13" t="n">
+      <c r="K6" s="42" t="n">
         <v>29356</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="42">
         <f>SUM(I6:K6)</f>
         <v/>
       </c>
@@ -3924,16 +4151,16 @@
       <c r="H7" s="4" t="n">
         <v>45443</v>
       </c>
-      <c r="I7" s="13" t="n">
+      <c r="I7" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="13" t="n">
+      <c r="J7" s="42" t="n">
         <v>74244</v>
       </c>
-      <c r="K7" s="13" t="n">
+      <c r="K7" s="42" t="n">
         <v>14106</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="42">
         <f>SUM(I7:K7)</f>
         <v/>
       </c>
@@ -3966,16 +4193,16 @@
       <c r="H8" s="4" t="n">
         <v>45442</v>
       </c>
-      <c r="I8" s="13" t="n">
+      <c r="I8" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="13" t="n">
+      <c r="J8" s="42" t="n">
         <v>1968</v>
       </c>
-      <c r="K8" s="13" t="n">
+      <c r="K8" s="42" t="n">
         <v>374</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="42">
         <f>SUM(I8:K8)</f>
         <v/>
       </c>
@@ -4008,16 +4235,16 @@
       <c r="H9" s="4" t="n">
         <v>45449</v>
       </c>
-      <c r="I9" s="13" t="n">
+      <c r="I9" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="13" t="n">
+      <c r="J9" s="42" t="n">
         <v>5269</v>
       </c>
-      <c r="K9" s="13" t="n">
+      <c r="K9" s="42" t="n">
         <v>1001</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="42">
         <f>SUM(I9:K9)</f>
         <v/>
       </c>
@@ -4050,16 +4277,16 @@
       <c r="H10" s="4" t="n">
         <v>45449</v>
       </c>
-      <c r="I10" s="13" t="n">
+      <c r="I10" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="13" t="n">
+      <c r="J10" s="42" t="n">
         <v>34456</v>
       </c>
-      <c r="K10" s="13" t="n">
+      <c r="K10" s="42" t="n">
         <v>6547</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="42">
         <f>SUM(I10:K10)</f>
         <v/>
       </c>
@@ -4092,16 +4319,16 @@
       <c r="H11" s="4" t="n">
         <v>45455</v>
       </c>
-      <c r="I11" s="13" t="n">
+      <c r="I11" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="13" t="n">
+      <c r="J11" s="42" t="n">
         <v>69126</v>
       </c>
-      <c r="K11" s="13" t="n">
+      <c r="K11" s="42" t="n">
         <v>13134</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="42">
         <f>SUM(I11:K11)</f>
         <v/>
       </c>
@@ -4134,16 +4361,16 @@
       <c r="H12" s="4" t="n">
         <v>45456</v>
       </c>
-      <c r="I12" s="13" t="n">
+      <c r="I12" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="13" t="n">
+      <c r="J12" s="42" t="n">
         <v>94399</v>
       </c>
-      <c r="K12" s="13" t="n">
+      <c r="K12" s="42" t="n">
         <v>17936</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="42">
         <f>SUM(I12:K12)</f>
         <v/>
       </c>
@@ -4176,16 +4403,16 @@
       <c r="H13" s="4" t="n">
         <v>45457</v>
       </c>
-      <c r="I13" s="13" t="n">
+      <c r="I13" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="13" t="n">
+      <c r="J13" s="42" t="n">
         <v>84062</v>
       </c>
-      <c r="K13" s="13" t="n">
+      <c r="K13" s="42" t="n">
         <v>15972</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="42">
         <f>SUM(I13:K13)</f>
         <v/>
       </c>
@@ -4218,16 +4445,16 @@
       <c r="H14" s="4" t="n">
         <v>45457</v>
       </c>
-      <c r="I14" s="13" t="n">
+      <c r="I14" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="13" t="n">
+      <c r="J14" s="42" t="n">
         <v>32000</v>
       </c>
-      <c r="K14" s="13" t="n">
+      <c r="K14" s="42" t="n">
         <v>6080</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="42">
         <f>SUM(I14:K14)</f>
         <v/>
       </c>
@@ -4260,16 +4487,16 @@
       <c r="H15" s="4" t="n">
         <v>45459</v>
       </c>
-      <c r="I15" s="13" t="n">
+      <c r="I15" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="13" t="n">
+      <c r="J15" s="42" t="n">
         <v>19731</v>
       </c>
-      <c r="K15" s="13" t="n">
+      <c r="K15" s="42" t="n">
         <v>3749</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="42">
         <f>SUM(I15:K15)</f>
         <v/>
       </c>
@@ -4302,16 +4529,16 @@
       <c r="H16" s="4" t="n">
         <v>45463</v>
       </c>
-      <c r="I16" s="13" t="n">
+      <c r="I16" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="13" t="n">
+      <c r="J16" s="42" t="n">
         <v>9832</v>
       </c>
-      <c r="K16" s="13" t="n">
+      <c r="K16" s="42" t="n">
         <v>1868</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="42">
         <f>SUM(I16:K16)</f>
         <v/>
       </c>
@@ -4344,16 +4571,16 @@
       <c r="H17" s="4" t="n">
         <v>45467</v>
       </c>
-      <c r="I17" s="13" t="n">
+      <c r="I17" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="13" t="n">
+      <c r="J17" s="42" t="n">
         <v>92437</v>
       </c>
-      <c r="K17" s="13" t="n">
+      <c r="K17" s="42" t="n">
         <v>17563</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="42">
         <f>SUM(I17:K17)</f>
         <v/>
       </c>
@@ -4386,16 +4613,16 @@
       <c r="H18" s="4" t="n">
         <v>45469</v>
       </c>
-      <c r="I18" s="13" t="n">
+      <c r="I18" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="13" t="n">
+      <c r="J18" s="42" t="n">
         <v>1533</v>
       </c>
-      <c r="K18" s="13" t="n">
+      <c r="K18" s="42" t="n">
         <v>291</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="42">
         <f>SUM(I18:K18)</f>
         <v/>
       </c>
@@ -4428,16 +4655,16 @@
       <c r="H19" s="4" t="n">
         <v>45471</v>
       </c>
-      <c r="I19" s="13" t="n">
+      <c r="I19" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="13" t="n">
+      <c r="J19" s="42" t="n">
         <v>16723</v>
       </c>
-      <c r="K19" s="13" t="n">
+      <c r="K19" s="42" t="n">
         <v>3177</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="42">
         <f>SUM(I19:K19)</f>
         <v/>
       </c>
@@ -4470,16 +4697,16 @@
       <c r="H20" s="4" t="n">
         <v>45472</v>
       </c>
-      <c r="I20" s="13" t="n">
+      <c r="I20" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="13" t="n">
+      <c r="J20" s="42" t="n">
         <v>7328</v>
       </c>
-      <c r="K20" s="13" t="n">
+      <c r="K20" s="42" t="n">
         <v>1392</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="42">
         <f>SUM(I20:K20)</f>
         <v/>
       </c>
@@ -4512,16 +4739,16 @@
       <c r="H21" s="4" t="n">
         <v>45472</v>
       </c>
-      <c r="I21" s="13" t="n">
+      <c r="I21" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J21" s="13" t="n">
+      <c r="J21" s="42" t="n">
         <v>156642</v>
       </c>
-      <c r="K21" s="13" t="n">
+      <c r="K21" s="42" t="n">
         <v>29762</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="42">
         <f>SUM(I21:K21)</f>
         <v/>
       </c>
@@ -4554,16 +4781,16 @@
       <c r="H22" s="4" t="n">
         <v>45449</v>
       </c>
-      <c r="I22" s="13" t="n">
+      <c r="I22" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J22" s="13" t="n">
+      <c r="J22" s="42" t="n">
         <v>-54893</v>
       </c>
-      <c r="K22" s="13" t="n">
+      <c r="K22" s="42" t="n">
         <v>-10430</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="42">
         <f>SUM(I22:K22)</f>
         <v/>
       </c>
@@ -4596,16 +4823,16 @@
       <c r="H23" s="4" t="n">
         <v>45456</v>
       </c>
-      <c r="I23" s="13" t="n">
+      <c r="I23" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="13" t="n">
+      <c r="J23" s="42" t="n">
         <v>-69126</v>
       </c>
-      <c r="K23" s="13" t="n">
+      <c r="K23" s="42" t="n">
         <v>-13134</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="42">
         <f>SUM(I23:K23)</f>
         <v/>
       </c>
@@ -4638,16 +4865,16 @@
       <c r="H24" s="4" t="n">
         <v>45457</v>
       </c>
-      <c r="I24" s="13" t="n">
+      <c r="I24" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J24" s="13" t="n">
+      <c r="J24" s="42" t="n">
         <v>-94399</v>
       </c>
-      <c r="K24" s="13" t="n">
+      <c r="K24" s="42" t="n">
         <v>-17936</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="42">
         <f>SUM(I24:K24)</f>
         <v/>
       </c>
@@ -4680,16 +4907,16 @@
       <c r="H25" s="4" t="n">
         <v>45467</v>
       </c>
-      <c r="I25" s="13" t="n">
+      <c r="I25" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="13" t="n">
+      <c r="J25" s="42" t="n">
         <v>-544</v>
       </c>
-      <c r="K25" s="13" t="n">
+      <c r="K25" s="42" t="n">
         <v>-103</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="42">
         <f>SUM(I25:K25)</f>
         <v/>
       </c>
@@ -4702,23 +4929,23 @@
       <c r="F26" s="17" t="n"/>
       <c r="G26" s="17" t="n"/>
       <c r="H26" s="23" t="n"/>
-      <c r="I26" s="18">
+      <c r="I26" s="43">
         <f>SUM(I6:I25)</f>
         <v/>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="43">
         <f>SUM(J6:J25)</f>
         <v/>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="43">
         <f>SUM(K6:K25)</f>
         <v/>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="43">
         <f>SUM(L6:L25)</f>
         <v/>
       </c>
-      <c r="M26" s="22" t="n"/>
+      <c r="M26" s="44" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4752,28 +4979,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="43" min="1" max="1"/>
-    <col width="5.28515625" customWidth="1" style="43" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="43" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="43" min="4" max="5"/>
-    <col width="42.85546875" customWidth="1" style="43" min="6" max="6"/>
-    <col width="11.42578125" customWidth="1" style="43" min="7" max="7"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" style="43" min="8" max="8"/>
-    <col width="13.7109375" customWidth="1" style="39" min="9" max="12"/>
-    <col width="11.42578125" customWidth="1" style="15" min="13" max="13"/>
-    <col width="11.42578125" customWidth="1" style="43" min="14" max="14"/>
-    <col width="11.42578125" customWidth="1" style="43" min="15" max="16384"/>
+    <col width="1.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="5.28515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="5.5703125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.42578125" customWidth="1" style="1" min="4" max="5"/>
+    <col width="42.85546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="11.42578125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.7109375" customWidth="1" style="38" min="9" max="12"/>
+    <col width="11.42578125" customWidth="1" style="39" min="13" max="13"/>
+    <col width="11.42578125" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" customHeight="1" s="42">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="21" customHeight="1">
+      <c r="B2" s="36" t="inlineStr">
         <is>
           <t>LIBRO DE COMPRAS</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="42">
-      <c r="B3" s="40" t="inlineStr">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>MES DE JULIO</t>
         </is>
@@ -4815,27 +5041,27 @@
           <t>Fecha Docto</t>
         </is>
       </c>
-      <c r="I5" s="20" t="inlineStr">
+      <c r="I5" s="40" t="inlineStr">
         <is>
           <t>Monto Exento</t>
         </is>
       </c>
-      <c r="J5" s="20" t="inlineStr">
+      <c r="J5" s="40" t="inlineStr">
         <is>
           <t>Monto Neto</t>
         </is>
       </c>
-      <c r="K5" s="20" t="inlineStr">
+      <c r="K5" s="40" t="inlineStr">
         <is>
           <t>Monto IVA Recuperable</t>
         </is>
       </c>
-      <c r="L5" s="20" t="inlineStr">
+      <c r="L5" s="40" t="inlineStr">
         <is>
           <t>Monto Total</t>
         </is>
       </c>
-      <c r="M5" s="16" t="n"/>
+      <c r="M5" s="41" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="3" t="n">
@@ -4865,14 +5091,14 @@
       <c r="H6" s="4" t="n">
         <v>45472</v>
       </c>
-      <c r="I6" s="13" t="n"/>
-      <c r="J6" s="13" t="n">
+      <c r="I6" s="42" t="n"/>
+      <c r="J6" s="42" t="n">
         <v>20335</v>
       </c>
-      <c r="K6" s="13" t="n">
+      <c r="K6" s="42" t="n">
         <v>3864</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="42">
         <f>SUM(I6:K6)</f>
         <v/>
       </c>
@@ -4905,14 +5131,14 @@
       <c r="H7" s="4" t="n">
         <v>45470</v>
       </c>
-      <c r="I7" s="13" t="n"/>
-      <c r="J7" s="13" t="n">
+      <c r="I7" s="42" t="n"/>
+      <c r="J7" s="42" t="n">
         <v>4443</v>
       </c>
-      <c r="K7" s="13" t="n">
+      <c r="K7" s="42" t="n">
         <v>844</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="42">
         <f>SUM(I7:K7)</f>
         <v/>
       </c>
@@ -4945,14 +5171,14 @@
       <c r="H8" s="4" t="n">
         <v>45477</v>
       </c>
-      <c r="I8" s="13" t="n"/>
-      <c r="J8" s="13" t="n">
+      <c r="I8" s="42" t="n"/>
+      <c r="J8" s="42" t="n">
         <v>75027</v>
       </c>
-      <c r="K8" s="13" t="n">
+      <c r="K8" s="42" t="n">
         <v>14255</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="42">
         <f>SUM(I8:K8)</f>
         <v/>
       </c>
@@ -4985,14 +5211,14 @@
       <c r="H9" s="4" t="n">
         <v>45478</v>
       </c>
-      <c r="I9" s="13" t="n"/>
-      <c r="J9" s="13" t="n">
+      <c r="I9" s="42" t="n"/>
+      <c r="J9" s="42" t="n">
         <v>184786</v>
       </c>
-      <c r="K9" s="13" t="n">
+      <c r="K9" s="42" t="n">
         <v>35109</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="42">
         <f>SUM(I9:K9)</f>
         <v/>
       </c>
@@ -5025,14 +5251,14 @@
       <c r="H10" s="4" t="n">
         <v>45479</v>
       </c>
-      <c r="I10" s="13" t="n"/>
-      <c r="J10" s="13" t="n">
+      <c r="I10" s="42" t="n"/>
+      <c r="J10" s="42" t="n">
         <v>12773</v>
       </c>
-      <c r="K10" s="13" t="n">
+      <c r="K10" s="42" t="n">
         <v>2427</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="42">
         <f>SUM(I10:K10)</f>
         <v/>
       </c>
@@ -5065,14 +5291,14 @@
       <c r="H11" s="4" t="n">
         <v>45479</v>
       </c>
-      <c r="I11" s="13" t="n"/>
-      <c r="J11" s="13" t="n">
+      <c r="I11" s="42" t="n"/>
+      <c r="J11" s="42" t="n">
         <v>42605</v>
       </c>
-      <c r="K11" s="13" t="n">
+      <c r="K11" s="42" t="n">
         <v>8095</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="42">
         <f>SUM(I11:K11)</f>
         <v/>
       </c>
@@ -5105,14 +5331,14 @@
       <c r="H12" s="4" t="n">
         <v>45481</v>
       </c>
-      <c r="I12" s="13" t="n"/>
-      <c r="J12" s="13" t="n">
+      <c r="I12" s="42" t="n"/>
+      <c r="J12" s="42" t="n">
         <v>102941</v>
       </c>
-      <c r="K12" s="13" t="n">
+      <c r="K12" s="42" t="n">
         <v>19559</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="42">
         <f>SUM(I12:K12)</f>
         <v/>
       </c>
@@ -5145,14 +5371,14 @@
       <c r="H13" s="4" t="n">
         <v>45482</v>
       </c>
-      <c r="I13" s="13" t="n"/>
-      <c r="J13" s="13" t="n">
+      <c r="I13" s="42" t="n"/>
+      <c r="J13" s="42" t="n">
         <v>47067</v>
       </c>
-      <c r="K13" s="13" t="n">
+      <c r="K13" s="42" t="n">
         <v>8943</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="42">
         <f>SUM(I13:K13)</f>
         <v/>
       </c>
@@ -5185,14 +5411,14 @@
       <c r="H14" s="4" t="n">
         <v>45482</v>
       </c>
-      <c r="I14" s="13" t="n"/>
-      <c r="J14" s="13" t="n">
+      <c r="I14" s="42" t="n"/>
+      <c r="J14" s="42" t="n">
         <v>12706</v>
       </c>
-      <c r="K14" s="13" t="n">
+      <c r="K14" s="42" t="n">
         <v>2414</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="42">
         <f>SUM(I14:K14)</f>
         <v/>
       </c>
@@ -5225,14 +5451,14 @@
       <c r="H15" s="4" t="n">
         <v>45484</v>
       </c>
-      <c r="I15" s="13" t="n"/>
-      <c r="J15" s="13" t="n">
+      <c r="I15" s="42" t="n"/>
+      <c r="J15" s="42" t="n">
         <v>10536</v>
       </c>
-      <c r="K15" s="13" t="n">
+      <c r="K15" s="42" t="n">
         <v>2002</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="42">
         <f>SUM(I15:K15)</f>
         <v/>
       </c>
@@ -5265,14 +5491,14 @@
       <c r="H16" s="4" t="n">
         <v>45486</v>
       </c>
-      <c r="I16" s="13" t="n"/>
-      <c r="J16" s="13" t="n">
+      <c r="I16" s="42" t="n"/>
+      <c r="J16" s="42" t="n">
         <v>65876</v>
       </c>
-      <c r="K16" s="13" t="n">
+      <c r="K16" s="42" t="n">
         <v>12516</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="42">
         <f>SUM(I16:K16)</f>
         <v/>
       </c>
@@ -5305,14 +5531,14 @@
       <c r="H17" s="4" t="n">
         <v>45490</v>
       </c>
-      <c r="I17" s="13" t="n"/>
-      <c r="J17" s="13" t="n">
+      <c r="I17" s="42" t="n"/>
+      <c r="J17" s="42" t="n">
         <v>10068</v>
       </c>
-      <c r="K17" s="13" t="n">
+      <c r="K17" s="42" t="n">
         <v>1913</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="42">
         <f>SUM(I17:K17)</f>
         <v/>
       </c>
@@ -5345,14 +5571,14 @@
       <c r="H18" s="4" t="n">
         <v>45502</v>
       </c>
-      <c r="I18" s="13" t="n"/>
-      <c r="J18" s="13" t="n">
+      <c r="I18" s="42" t="n"/>
+      <c r="J18" s="42" t="n">
         <v>850</v>
       </c>
-      <c r="K18" s="13" t="n">
+      <c r="K18" s="42" t="n">
         <v>162</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="42">
         <f>SUM(I18:K18)</f>
         <v/>
       </c>
@@ -5365,10 +5591,10 @@
       <c r="F19" s="3" t="n"/>
       <c r="G19" s="3" t="n"/>
       <c r="H19" s="4" t="n"/>
-      <c r="I19" s="13" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
-      <c r="L19" s="13">
+      <c r="I19" s="42" t="n"/>
+      <c r="J19" s="42" t="n"/>
+      <c r="K19" s="42" t="n"/>
+      <c r="L19" s="42">
         <f>SUM(I19:K19)</f>
         <v/>
       </c>
@@ -5381,10 +5607,10 @@
       <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
       <c r="H20" s="4" t="n"/>
-      <c r="I20" s="13" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
-      <c r="L20" s="13">
+      <c r="I20" s="42" t="n"/>
+      <c r="J20" s="42" t="n"/>
+      <c r="K20" s="42" t="n"/>
+      <c r="L20" s="42">
         <f>SUM(I20:K20)</f>
         <v/>
       </c>
@@ -5397,10 +5623,10 @@
       <c r="F21" s="3" t="n"/>
       <c r="G21" s="3" t="n"/>
       <c r="H21" s="4" t="n"/>
-      <c r="I21" s="13" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
-      <c r="L21" s="13">
+      <c r="I21" s="42" t="n"/>
+      <c r="J21" s="42" t="n"/>
+      <c r="K21" s="42" t="n"/>
+      <c r="L21" s="42">
         <f>SUM(I21:K21)</f>
         <v/>
       </c>
@@ -5413,10 +5639,10 @@
       <c r="F22" s="3" t="n"/>
       <c r="G22" s="3" t="n"/>
       <c r="H22" s="4" t="n"/>
-      <c r="I22" s="13" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
-      <c r="L22" s="13">
+      <c r="I22" s="42" t="n"/>
+      <c r="J22" s="42" t="n"/>
+      <c r="K22" s="42" t="n"/>
+      <c r="L22" s="42">
         <f>SUM(I22:K22)</f>
         <v/>
       </c>
@@ -5429,10 +5655,10 @@
       <c r="F23" s="3" t="n"/>
       <c r="G23" s="3" t="n"/>
       <c r="H23" s="4" t="n"/>
-      <c r="I23" s="13" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
-      <c r="L23" s="13">
+      <c r="I23" s="42" t="n"/>
+      <c r="J23" s="42" t="n"/>
+      <c r="K23" s="42" t="n"/>
+      <c r="L23" s="42">
         <f>SUM(I23:K23)</f>
         <v/>
       </c>
@@ -5445,10 +5671,10 @@
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
       <c r="H24" s="4" t="n"/>
-      <c r="I24" s="13" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
-      <c r="L24" s="13">
+      <c r="I24" s="42" t="n"/>
+      <c r="J24" s="42" t="n"/>
+      <c r="K24" s="42" t="n"/>
+      <c r="L24" s="42">
         <f>SUM(I24:K24)</f>
         <v/>
       </c>
@@ -5461,10 +5687,10 @@
       <c r="F25" s="3" t="n"/>
       <c r="G25" s="3" t="n"/>
       <c r="H25" s="4" t="n"/>
-      <c r="I25" s="13" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
-      <c r="L25" s="13">
+      <c r="I25" s="42" t="n"/>
+      <c r="J25" s="42" t="n"/>
+      <c r="K25" s="42" t="n"/>
+      <c r="L25" s="42">
         <f>SUM(I25:K25)</f>
         <v/>
       </c>
@@ -5477,23 +5703,23 @@
       <c r="F26" s="17" t="n"/>
       <c r="G26" s="17" t="n"/>
       <c r="H26" s="23" t="n"/>
-      <c r="I26" s="18">
+      <c r="I26" s="43">
         <f>SUM(I6:I25)</f>
         <v/>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="43">
         <f>SUM(J6:J25)</f>
         <v/>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="43">
         <f>SUM(K6:K25)</f>
         <v/>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="43">
         <f>SUM(L6:L25)</f>
         <v/>
       </c>
-      <c r="M26" s="22" t="n"/>
+      <c r="M26" s="44" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5527,28 +5753,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="43" min="1" max="1"/>
-    <col width="5.28515625" customWidth="1" style="43" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="43" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="43" min="4" max="5"/>
-    <col width="42.85546875" customWidth="1" style="43" min="6" max="6"/>
-    <col width="11.42578125" customWidth="1" style="43" min="7" max="7"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" style="43" min="8" max="8"/>
-    <col width="13.7109375" customWidth="1" style="39" min="9" max="12"/>
-    <col width="11.42578125" customWidth="1" style="15" min="13" max="13"/>
-    <col width="11.42578125" customWidth="1" style="43" min="14" max="14"/>
-    <col width="11.42578125" customWidth="1" style="43" min="15" max="16384"/>
+    <col width="1.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="5.28515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="5.5703125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.42578125" customWidth="1" style="1" min="4" max="5"/>
+    <col width="42.85546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="11.42578125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.7109375" customWidth="1" style="38" min="9" max="12"/>
+    <col width="11.42578125" customWidth="1" style="39" min="13" max="13"/>
+    <col width="11.42578125" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" customHeight="1" s="42">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="21" customHeight="1">
+      <c r="B2" s="36" t="inlineStr">
         <is>
           <t>LIBRO DE COMPRAS</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="42">
-      <c r="B3" s="40" t="inlineStr">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>MES DE AGOSTO</t>
         </is>
@@ -5590,27 +5815,27 @@
           <t>Fecha Docto</t>
         </is>
       </c>
-      <c r="I5" s="20" t="inlineStr">
+      <c r="I5" s="40" t="inlineStr">
         <is>
           <t>Monto Exento</t>
         </is>
       </c>
-      <c r="J5" s="20" t="inlineStr">
+      <c r="J5" s="40" t="inlineStr">
         <is>
           <t>Monto Neto</t>
         </is>
       </c>
-      <c r="K5" s="20" t="inlineStr">
+      <c r="K5" s="40" t="inlineStr">
         <is>
           <t>Monto IVA Recuperable</t>
         </is>
       </c>
-      <c r="L5" s="20" t="inlineStr">
+      <c r="L5" s="40" t="inlineStr">
         <is>
           <t>Monto Total</t>
         </is>
       </c>
-      <c r="M5" s="16" t="n"/>
+      <c r="M5" s="41" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="3" t="n">
@@ -5640,14 +5865,14 @@
       <c r="H6" s="4" t="n">
         <v>45497</v>
       </c>
-      <c r="I6" s="13" t="n"/>
-      <c r="J6" s="13" t="n">
+      <c r="I6" s="42" t="n"/>
+      <c r="J6" s="42" t="n">
         <v>31159</v>
       </c>
-      <c r="K6" s="13" t="n">
+      <c r="K6" s="42" t="n">
         <v>5920</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="42">
         <f>SUM(I6:K6)</f>
         <v/>
       </c>
@@ -5680,14 +5905,14 @@
       <c r="H7" s="4" t="n">
         <v>45499</v>
       </c>
-      <c r="I7" s="13" t="n"/>
-      <c r="J7" s="13" t="n">
+      <c r="I7" s="42" t="n"/>
+      <c r="J7" s="42" t="n">
         <v>64728</v>
       </c>
-      <c r="K7" s="13" t="n">
+      <c r="K7" s="42" t="n">
         <v>12298</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="42">
         <f>SUM(I7:K7)</f>
         <v/>
       </c>
@@ -5720,14 +5945,14 @@
       <c r="H8" s="4" t="n">
         <v>45505</v>
       </c>
-      <c r="I8" s="13" t="n"/>
-      <c r="J8" s="13" t="n">
+      <c r="I8" s="42" t="n"/>
+      <c r="J8" s="42" t="n">
         <v>10067</v>
       </c>
-      <c r="K8" s="13" t="n">
+      <c r="K8" s="42" t="n">
         <v>1913</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="42">
         <f>SUM(I8:K8)</f>
         <v/>
       </c>
@@ -5760,14 +5985,14 @@
       <c r="H9" s="4" t="n">
         <v>45505</v>
       </c>
-      <c r="I9" s="13" t="n"/>
-      <c r="J9" s="13" t="n">
+      <c r="I9" s="42" t="n"/>
+      <c r="J9" s="42" t="n">
         <v>10017</v>
       </c>
-      <c r="K9" s="13" t="n">
+      <c r="K9" s="42" t="n">
         <v>1903</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="42">
         <f>SUM(I9:K9)</f>
         <v/>
       </c>
@@ -5800,14 +6025,14 @@
       <c r="H10" s="4" t="n">
         <v>45503</v>
       </c>
-      <c r="I10" s="13" t="n"/>
-      <c r="J10" s="13" t="n">
+      <c r="I10" s="42" t="n"/>
+      <c r="J10" s="42" t="n">
         <v>11700</v>
       </c>
-      <c r="K10" s="13" t="n">
+      <c r="K10" s="42" t="n">
         <v>2223</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="42">
         <f>SUM(I10:K10)</f>
         <v/>
       </c>
@@ -5840,14 +6065,14 @@
       <c r="H11" s="4" t="n">
         <v>45509</v>
       </c>
-      <c r="I11" s="13" t="n"/>
-      <c r="J11" s="13" t="n">
+      <c r="I11" s="42" t="n"/>
+      <c r="J11" s="42" t="n">
         <v>9501</v>
       </c>
-      <c r="K11" s="13" t="n">
+      <c r="K11" s="42" t="n">
         <v>1805</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="42">
         <f>SUM(I11:K11)</f>
         <v/>
       </c>
@@ -5880,14 +6105,14 @@
       <c r="H12" s="4" t="n">
         <v>45509</v>
       </c>
-      <c r="I12" s="13" t="n"/>
-      <c r="J12" s="13" t="n">
+      <c r="I12" s="42" t="n"/>
+      <c r="J12" s="42" t="n">
         <v>101345</v>
       </c>
-      <c r="K12" s="13" t="n">
+      <c r="K12" s="42" t="n">
         <v>19255</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="42">
         <f>SUM(I12:K12)</f>
         <v/>
       </c>
@@ -5920,14 +6145,14 @@
       <c r="H13" s="4" t="n">
         <v>45509</v>
       </c>
-      <c r="I13" s="13" t="n"/>
-      <c r="J13" s="13" t="n">
+      <c r="I13" s="42" t="n"/>
+      <c r="J13" s="42" t="n">
         <v>55408</v>
       </c>
-      <c r="K13" s="13" t="n">
+      <c r="K13" s="42" t="n">
         <v>10528</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="42">
         <f>SUM(I13:K13)</f>
         <v/>
       </c>
@@ -5960,14 +6185,14 @@
       <c r="H14" s="4" t="n">
         <v>45510</v>
       </c>
-      <c r="I14" s="13" t="n"/>
-      <c r="J14" s="13" t="n">
+      <c r="I14" s="42" t="n"/>
+      <c r="J14" s="42" t="n">
         <v>43380</v>
       </c>
-      <c r="K14" s="13" t="n">
+      <c r="K14" s="42" t="n">
         <v>8242</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="42">
         <f>SUM(I14:K14)</f>
         <v/>
       </c>
@@ -6000,14 +6225,14 @@
       <c r="H15" s="4" t="n">
         <v>45511</v>
       </c>
-      <c r="I15" s="13" t="n"/>
-      <c r="J15" s="13" t="n">
+      <c r="I15" s="42" t="n"/>
+      <c r="J15" s="42" t="n">
         <v>15899</v>
       </c>
-      <c r="K15" s="13" t="n">
+      <c r="K15" s="42" t="n">
         <v>3021</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="42">
         <f>SUM(I15:K15)</f>
         <v/>
       </c>
@@ -6040,14 +6265,14 @@
       <c r="H16" s="4" t="n">
         <v>45512</v>
       </c>
-      <c r="I16" s="13" t="n"/>
-      <c r="J16" s="13" t="n">
+      <c r="I16" s="42" t="n"/>
+      <c r="J16" s="42" t="n">
         <v>1818</v>
       </c>
-      <c r="K16" s="13" t="n">
+      <c r="K16" s="42" t="n">
         <v>345</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="42">
         <f>SUM(I16:K16)</f>
         <v/>
       </c>
@@ -6080,14 +6305,14 @@
       <c r="H17" s="4" t="n">
         <v>45513</v>
       </c>
-      <c r="I17" s="13" t="n"/>
-      <c r="J17" s="13" t="n">
+      <c r="I17" s="42" t="n"/>
+      <c r="J17" s="42" t="n">
         <v>30795</v>
       </c>
-      <c r="K17" s="13" t="n">
+      <c r="K17" s="42" t="n">
         <v>5851</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="42">
         <f>SUM(I17:K17)</f>
         <v/>
       </c>
@@ -6120,14 +6345,14 @@
       <c r="H18" s="4" t="n">
         <v>45513</v>
       </c>
-      <c r="I18" s="13" t="n"/>
-      <c r="J18" s="13" t="n">
+      <c r="I18" s="42" t="n"/>
+      <c r="J18" s="42" t="n">
         <v>3151</v>
       </c>
-      <c r="K18" s="13" t="n">
+      <c r="K18" s="42" t="n">
         <v>599</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="42">
         <f>SUM(I18:K18)</f>
         <v/>
       </c>
@@ -6160,14 +6385,14 @@
       <c r="H19" s="4" t="n">
         <v>45513</v>
       </c>
-      <c r="I19" s="13" t="n"/>
-      <c r="J19" s="13" t="n">
+      <c r="I19" s="42" t="n"/>
+      <c r="J19" s="42" t="n">
         <v>29269</v>
       </c>
-      <c r="K19" s="13" t="n">
+      <c r="K19" s="42" t="n">
         <v>5561</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="42">
         <f>SUM(I19:K19)</f>
         <v/>
       </c>
@@ -6200,14 +6425,14 @@
       <c r="H20" s="4" t="n">
         <v>45514</v>
       </c>
-      <c r="I20" s="13" t="n"/>
-      <c r="J20" s="13" t="n">
+      <c r="I20" s="42" t="n"/>
+      <c r="J20" s="42" t="n">
         <v>62213</v>
       </c>
-      <c r="K20" s="13" t="n">
+      <c r="K20" s="42" t="n">
         <v>11820</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="42">
         <f>SUM(I20:K20)</f>
         <v/>
       </c>
@@ -6240,14 +6465,14 @@
       <c r="H21" s="4" t="n">
         <v>45520</v>
       </c>
-      <c r="I21" s="13" t="n"/>
-      <c r="J21" s="13" t="n">
+      <c r="I21" s="42" t="n"/>
+      <c r="J21" s="42" t="n">
         <v>179424</v>
       </c>
-      <c r="K21" s="13" t="n">
+      <c r="K21" s="42" t="n">
         <v>34091</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="42">
         <f>SUM(I21:K21)</f>
         <v/>
       </c>
@@ -6280,14 +6505,14 @@
       <c r="H22" s="4" t="n">
         <v>45530</v>
       </c>
-      <c r="I22" s="13" t="n"/>
-      <c r="J22" s="13" t="n">
+      <c r="I22" s="42" t="n"/>
+      <c r="J22" s="42" t="n">
         <v>10453</v>
       </c>
-      <c r="K22" s="13" t="n">
+      <c r="K22" s="42" t="n">
         <v>1986</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="42">
         <f>SUM(I22:K22)</f>
         <v/>
       </c>
@@ -6320,14 +6545,14 @@
       <c r="H23" s="4" t="n">
         <v>45532</v>
       </c>
-      <c r="I23" s="13" t="n"/>
-      <c r="J23" s="13" t="n">
+      <c r="I23" s="42" t="n"/>
+      <c r="J23" s="42" t="n">
         <v>2064</v>
       </c>
-      <c r="K23" s="13" t="n">
+      <c r="K23" s="42" t="n">
         <v>392</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="42">
         <f>SUM(I23:K23)</f>
         <v/>
       </c>
@@ -6360,14 +6585,14 @@
       <c r="H24" s="4" t="n">
         <v>45530</v>
       </c>
-      <c r="I24" s="13" t="n"/>
-      <c r="J24" s="13" t="n">
+      <c r="I24" s="42" t="n"/>
+      <c r="J24" s="42" t="n">
         <v>41</v>
       </c>
-      <c r="K24" s="13" t="n">
+      <c r="K24" s="42" t="n">
         <v>8</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="42">
         <f>SUM(I24:K24)</f>
         <v/>
       </c>
@@ -6380,10 +6605,10 @@
       <c r="F25" s="3" t="n"/>
       <c r="G25" s="3" t="n"/>
       <c r="H25" s="4" t="n"/>
-      <c r="I25" s="13" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
-      <c r="L25" s="13">
+      <c r="I25" s="42" t="n"/>
+      <c r="J25" s="42" t="n"/>
+      <c r="K25" s="42" t="n"/>
+      <c r="L25" s="42">
         <f>SUM(I25:K25)</f>
         <v/>
       </c>
@@ -6396,23 +6621,23 @@
       <c r="F26" s="17" t="n"/>
       <c r="G26" s="17" t="n"/>
       <c r="H26" s="23" t="n"/>
-      <c r="I26" s="18">
+      <c r="I26" s="43">
         <f>SUM(I6:I25)</f>
         <v/>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="43">
         <f>SUM(J6:J25)</f>
         <v/>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="43">
         <f>SUM(K6:K25)</f>
         <v/>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="43">
         <f>SUM(L6:L25)</f>
         <v/>
       </c>
-      <c r="M26" s="22" t="n"/>
+      <c r="M26" s="44" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6431,34 +6656,33 @@
   </sheetPr>
   <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="1.7109375" customWidth="1" style="43" min="1" max="1"/>
-    <col width="5.28515625" customWidth="1" style="43" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="43" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="43" min="4" max="5"/>
-    <col width="42.85546875" customWidth="1" style="43" min="6" max="6"/>
-    <col width="11.42578125" customWidth="1" style="43" min="7" max="7"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" style="43" min="8" max="8"/>
-    <col width="13.7109375" customWidth="1" style="39" min="9" max="12"/>
-    <col width="11.42578125" customWidth="1" style="15" min="13" max="13"/>
-    <col width="11.42578125" customWidth="1" style="43" min="14" max="14"/>
-    <col width="11.42578125" customWidth="1" style="43" min="15" max="16384"/>
+    <col width="1.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="5.28515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="5.5703125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.42578125" customWidth="1" style="1" min="4" max="5"/>
+    <col width="42.85546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="11.42578125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13.7109375" customWidth="1" style="38" min="9" max="12"/>
+    <col width="11.42578125" customWidth="1" style="39" min="13" max="13"/>
+    <col width="11.42578125" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" customHeight="1" s="42">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="21" customHeight="1">
+      <c r="B2" s="36" t="inlineStr">
         <is>
           <t>LIBRO DE COMPRAS</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="42">
-      <c r="B3" s="40" t="inlineStr">
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>MES DE SEPTIEMBRE</t>
         </is>
@@ -6500,27 +6724,27 @@
           <t>Fecha Docto</t>
         </is>
       </c>
-      <c r="I5" s="20" t="inlineStr">
+      <c r="I5" s="40" t="inlineStr">
         <is>
           <t>Monto Exento</t>
         </is>
       </c>
-      <c r="J5" s="20" t="inlineStr">
+      <c r="J5" s="40" t="inlineStr">
         <is>
           <t>Monto Neto</t>
         </is>
       </c>
-      <c r="K5" s="20" t="inlineStr">
+      <c r="K5" s="40" t="inlineStr">
         <is>
           <t>Monto IVA Recuperable</t>
         </is>
       </c>
-      <c r="L5" s="20" t="inlineStr">
+      <c r="L5" s="40" t="inlineStr">
         <is>
           <t>Monto Total</t>
         </is>
       </c>
-      <c r="M5" s="16" t="n"/>
+      <c r="M5" s="41" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="3" t="n">
@@ -6550,14 +6774,14 @@
       <c r="H6" s="4" t="n">
         <v>45531</v>
       </c>
-      <c r="I6" s="13" t="n"/>
-      <c r="J6" s="13" t="n">
+      <c r="I6" s="42" t="n"/>
+      <c r="J6" s="42" t="n">
         <v>69126</v>
       </c>
-      <c r="K6" s="13" t="n">
+      <c r="K6" s="42" t="n">
         <v>13134</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="42">
         <f>SUM(I6:K6)</f>
         <v/>
       </c>
@@ -6590,14 +6814,14 @@
       <c r="H7" s="4" t="n">
         <v>45533</v>
       </c>
-      <c r="I7" s="13" t="n"/>
-      <c r="J7" s="13" t="n">
+      <c r="I7" s="42" t="n"/>
+      <c r="J7" s="42" t="n">
         <v>12560</v>
       </c>
-      <c r="K7" s="13" t="n">
+      <c r="K7" s="42" t="n">
         <v>2386</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="42">
         <f>SUM(I7:K7)</f>
         <v/>
       </c>
@@ -6630,14 +6854,14 @@
       <c r="H8" s="4" t="n">
         <v>45539</v>
       </c>
-      <c r="I8" s="13" t="n"/>
-      <c r="J8" s="13" t="n">
+      <c r="I8" s="42" t="n"/>
+      <c r="J8" s="42" t="n">
         <v>24244</v>
       </c>
-      <c r="K8" s="13" t="n">
+      <c r="K8" s="42" t="n">
         <v>4606</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="42">
         <f>SUM(I8:K8)</f>
         <v/>
       </c>
@@ -6670,14 +6894,14 @@
       <c r="H9" s="4" t="n">
         <v>45541</v>
       </c>
-      <c r="I9" s="13" t="n"/>
-      <c r="J9" s="13" t="n">
+      <c r="I9" s="42" t="n"/>
+      <c r="J9" s="42" t="n">
         <v>23521</v>
       </c>
-      <c r="K9" s="13" t="n">
+      <c r="K9" s="42" t="n">
         <v>4469</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="42">
         <f>SUM(I9:K9)</f>
         <v/>
       </c>
@@ -6710,14 +6934,14 @@
       <c r="H10" s="4" t="n">
         <v>45544</v>
       </c>
-      <c r="I10" s="13" t="n"/>
-      <c r="J10" s="13" t="n">
+      <c r="I10" s="42" t="n"/>
+      <c r="J10" s="42" t="n">
         <v>81513</v>
       </c>
-      <c r="K10" s="13" t="n">
+      <c r="K10" s="42" t="n">
         <v>15487</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="42">
         <f>SUM(I10:K10)</f>
         <v/>
       </c>
@@ -6750,14 +6974,14 @@
       <c r="H11" s="4" t="n">
         <v>45545</v>
       </c>
-      <c r="I11" s="13" t="n"/>
-      <c r="J11" s="13" t="n">
+      <c r="I11" s="42" t="n"/>
+      <c r="J11" s="42" t="n">
         <v>14529</v>
       </c>
-      <c r="K11" s="13" t="n">
+      <c r="K11" s="42" t="n">
         <v>2761</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="42">
         <f>SUM(I11:K11)</f>
         <v/>
       </c>
@@ -6790,14 +7014,14 @@
       <c r="H12" s="4" t="n">
         <v>45545</v>
       </c>
-      <c r="I12" s="13" t="n"/>
-      <c r="J12" s="13" t="n">
+      <c r="I12" s="42" t="n"/>
+      <c r="J12" s="42" t="n">
         <v>53269</v>
       </c>
-      <c r="K12" s="13" t="n">
+      <c r="K12" s="42" t="n">
         <v>10121</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="42">
         <f>SUM(I12:K12)</f>
         <v/>
       </c>
@@ -6830,14 +7054,14 @@
       <c r="H13" s="4" t="n">
         <v>45545</v>
       </c>
-      <c r="I13" s="13" t="n"/>
-      <c r="J13" s="13" t="n">
+      <c r="I13" s="42" t="n"/>
+      <c r="J13" s="42" t="n">
         <v>17796</v>
       </c>
-      <c r="K13" s="13" t="n">
+      <c r="K13" s="42" t="n">
         <v>3381</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="42">
         <f>SUM(I13:K13)</f>
         <v/>
       </c>
@@ -6870,14 +7094,14 @@
       <c r="H14" s="4" t="n">
         <v>45550</v>
       </c>
-      <c r="I14" s="13" t="n"/>
-      <c r="J14" s="13" t="n">
+      <c r="I14" s="42" t="n"/>
+      <c r="J14" s="42" t="n">
         <v>11933</v>
       </c>
-      <c r="K14" s="13" t="n">
+      <c r="K14" s="42" t="n">
         <v>2267</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="42">
         <f>SUM(I14:K14)</f>
         <v/>
       </c>
@@ -6910,14 +7134,14 @@
       <c r="H15" s="4" t="n">
         <v>45552</v>
       </c>
-      <c r="I15" s="13" t="n"/>
-      <c r="J15" s="13" t="n">
+      <c r="I15" s="42" t="n"/>
+      <c r="J15" s="42" t="n">
         <v>41597</v>
       </c>
-      <c r="K15" s="13" t="n">
+      <c r="K15" s="42" t="n">
         <v>7903</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="42">
         <f>SUM(I15:K15)</f>
         <v/>
       </c>
@@ -6950,14 +7174,14 @@
       <c r="H16" s="4" t="n">
         <v>45561</v>
       </c>
-      <c r="I16" s="13" t="n"/>
-      <c r="J16" s="13" t="n">
+      <c r="I16" s="42" t="n"/>
+      <c r="J16" s="42" t="n">
         <v>4369</v>
       </c>
-      <c r="K16" s="13" t="n">
+      <c r="K16" s="42" t="n">
         <v>830</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="42">
         <f>SUM(I16:K16)</f>
         <v/>
       </c>
@@ -6990,14 +7214,14 @@
       <c r="H17" s="4" t="n">
         <v>45560</v>
       </c>
-      <c r="I17" s="13" t="n"/>
-      <c r="J17" s="13" t="n">
+      <c r="I17" s="42" t="n"/>
+      <c r="J17" s="42" t="n">
         <v>80</v>
       </c>
-      <c r="K17" s="13" t="n">
+      <c r="K17" s="42" t="n">
         <v>15</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="42">
         <f>SUM(I17:K17)</f>
         <v/>
       </c>
@@ -7010,10 +7234,10 @@
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="4" t="n"/>
-      <c r="I18" s="13" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
-      <c r="L18" s="13">
+      <c r="I18" s="42" t="n"/>
+      <c r="J18" s="42" t="n"/>
+      <c r="K18" s="42" t="n"/>
+      <c r="L18" s="42">
         <f>SUM(I18:K18)</f>
         <v/>
       </c>
@@ -7026,10 +7250,10 @@
       <c r="F19" s="3" t="n"/>
       <c r="G19" s="3" t="n"/>
       <c r="H19" s="4" t="n"/>
-      <c r="I19" s="13" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
-      <c r="L19" s="13">
+      <c r="I19" s="42" t="n"/>
+      <c r="J19" s="42" t="n"/>
+      <c r="K19" s="42" t="n"/>
+      <c r="L19" s="42">
         <f>SUM(I19:K19)</f>
         <v/>
       </c>
@@ -7042,10 +7266,10 @@
       <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
       <c r="H20" s="4" t="n"/>
-      <c r="I20" s="13" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
-      <c r="L20" s="13">
+      <c r="I20" s="42" t="n"/>
+      <c r="J20" s="42" t="n"/>
+      <c r="K20" s="42" t="n"/>
+      <c r="L20" s="42">
         <f>SUM(I20:K20)</f>
         <v/>
       </c>
@@ -7058,10 +7282,10 @@
       <c r="F21" s="3" t="n"/>
       <c r="G21" s="3" t="n"/>
       <c r="H21" s="4" t="n"/>
-      <c r="I21" s="13" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
-      <c r="L21" s="13">
+      <c r="I21" s="42" t="n"/>
+      <c r="J21" s="42" t="n"/>
+      <c r="K21" s="42" t="n"/>
+      <c r="L21" s="42">
         <f>SUM(I21:K21)</f>
         <v/>
       </c>
@@ -7074,10 +7298,10 @@
       <c r="F22" s="3" t="n"/>
       <c r="G22" s="3" t="n"/>
       <c r="H22" s="4" t="n"/>
-      <c r="I22" s="13" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
-      <c r="L22" s="13">
+      <c r="I22" s="42" t="n"/>
+      <c r="J22" s="42" t="n"/>
+      <c r="K22" s="42" t="n"/>
+      <c r="L22" s="42">
         <f>SUM(I22:K22)</f>
         <v/>
       </c>
@@ -7090,10 +7314,10 @@
       <c r="F23" s="3" t="n"/>
       <c r="G23" s="3" t="n"/>
       <c r="H23" s="4" t="n"/>
-      <c r="I23" s="13" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
-      <c r="L23" s="13">
+      <c r="I23" s="42" t="n"/>
+      <c r="J23" s="42" t="n"/>
+      <c r="K23" s="42" t="n"/>
+      <c r="L23" s="42">
         <f>SUM(I23:K23)</f>
         <v/>
       </c>
@@ -7106,10 +7330,10 @@
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
       <c r="H24" s="4" t="n"/>
-      <c r="I24" s="13" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
-      <c r="L24" s="13">
+      <c r="I24" s="42" t="n"/>
+      <c r="J24" s="42" t="n"/>
+      <c r="K24" s="42" t="n"/>
+      <c r="L24" s="42">
         <f>SUM(I24:K24)</f>
         <v/>
       </c>
@@ -7122,10 +7346,10 @@
       <c r="F25" s="3" t="n"/>
       <c r="G25" s="3" t="n"/>
       <c r="H25" s="4" t="n"/>
-      <c r="I25" s="13" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
-      <c r="L25" s="13">
+      <c r="I25" s="42" t="n"/>
+      <c r="J25" s="42" t="n"/>
+      <c r="K25" s="42" t="n"/>
+      <c r="L25" s="42">
         <f>SUM(I25:K25)</f>
         <v/>
       </c>
@@ -7138,23 +7362,23 @@
       <c r="F26" s="17" t="n"/>
       <c r="G26" s="17" t="n"/>
       <c r="H26" s="23" t="n"/>
-      <c r="I26" s="18">
+      <c r="I26" s="43">
         <f>SUM(I6:I25)</f>
         <v/>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="43">
         <f>SUM(J6:J25)</f>
         <v/>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="43">
         <f>SUM(K6:K25)</f>
         <v/>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="43">
         <f>SUM(L6:L25)</f>
         <v/>
       </c>
-      <c r="M26" s="22" t="n"/>
+      <c r="M26" s="44" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7183,16 +7407,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="5.140625" customWidth="1" style="43" min="1" max="1"/>
-    <col width="5.28515625" customWidth="1" style="43" min="2" max="2"/>
-    <col width="5.5703125" customWidth="1" style="43" min="3" max="3"/>
-    <col width="13.7109375" customWidth="1" style="43" min="4" max="4"/>
-    <col width="38.28515625" customWidth="1" style="43" min="5" max="5"/>
-    <col width="11.42578125" customWidth="1" style="43" min="6" max="7"/>
-    <col width="13.7109375" customWidth="1" style="41" min="8" max="19"/>
+    <col width="5.140625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="5.28515625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="5.5703125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13.7109375" customWidth="1" style="1" min="4" max="4"/>
+    <col width="38.28515625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="11.42578125" customWidth="1" style="1" min="6" max="7"/>
+    <col width="13.7109375" customWidth="1" style="46" min="8" max="19"/>
     <col width="5.7109375" customWidth="1" style="34" min="20" max="20"/>
-    <col width="11.42578125" customWidth="1" style="43" min="21" max="21"/>
-    <col width="11.42578125" customWidth="1" style="43" min="22" max="16384"/>
+    <col width="11.42578125" customWidth="1" style="1" min="21" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7202,22 +7425,22 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1" s="42">
-      <c r="B2" s="37" t="inlineStr">
+    <row r="2" ht="21" customHeight="1">
+      <c r="B2" s="36" t="inlineStr">
         <is>
           <t>RESUMEN DE LIBRO DE COMPRAS 2024</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="H3" s="28" t="n">
+      <c r="H3" s="47" t="n">
         <v>9250</v>
       </c>
-      <c r="I3" s="29" t="n">
+      <c r="I3" s="48" t="n">
         <v>1.19</v>
       </c>
-      <c r="J3" s="29" t="n"/>
-      <c r="K3" s="29">
+      <c r="J3" s="48" t="n"/>
+      <c r="K3" s="48">
         <f>+H3/I3</f>
         <v/>
       </c>
@@ -7253,62 +7476,62 @@
           <t>FECHA DOC</t>
         </is>
       </c>
-      <c r="H4" s="12" t="inlineStr">
+      <c r="H4" s="49" t="inlineStr">
         <is>
           <t>MATERIA PRIMA</t>
         </is>
       </c>
-      <c r="I4" s="12" t="inlineStr">
+      <c r="I4" s="49" t="inlineStr">
         <is>
           <t>ENVASES Y EMPAQUES</t>
         </is>
       </c>
-      <c r="J4" s="12" t="inlineStr">
+      <c r="J4" s="49" t="inlineStr">
         <is>
           <t>COMPLEMENTO VENTAS</t>
         </is>
       </c>
-      <c r="K4" s="12" t="inlineStr">
+      <c r="K4" s="49" t="inlineStr">
         <is>
           <t>ETIQUETAS</t>
         </is>
       </c>
-      <c r="L4" s="12" t="inlineStr">
+      <c r="L4" s="49" t="inlineStr">
         <is>
           <t>LIBRERÍA</t>
         </is>
       </c>
-      <c r="M4" s="12" t="inlineStr">
+      <c r="M4" s="49" t="inlineStr">
         <is>
           <t>HERRAMIENTAS DE COCINA</t>
         </is>
       </c>
-      <c r="N4" s="12" t="inlineStr">
+      <c r="N4" s="49" t="inlineStr">
         <is>
           <t>UTILES DE ASEO</t>
         </is>
       </c>
-      <c r="O4" s="12" t="inlineStr">
+      <c r="O4" s="49" t="inlineStr">
         <is>
           <t>MATERIAL EXPOSICIÓN</t>
         </is>
       </c>
-      <c r="P4" s="12" t="inlineStr">
+      <c r="P4" s="49" t="inlineStr">
         <is>
           <t>GG</t>
         </is>
       </c>
-      <c r="Q4" s="12" t="inlineStr">
+      <c r="Q4" s="49" t="inlineStr">
         <is>
           <t>COMERCIO ELECTRONICO</t>
         </is>
       </c>
-      <c r="R4" s="12" t="inlineStr">
+      <c r="R4" s="49" t="inlineStr">
         <is>
           <t>IVA CREDITO</t>
         </is>
       </c>
-      <c r="S4" s="12" t="inlineStr">
+      <c r="S4" s="49" t="inlineStr">
         <is>
           <t>MONTO TOTAL</t>
         </is>
@@ -7339,24 +7562,24 @@
       <c r="G5" s="26" t="n">
         <v>45378</v>
       </c>
-      <c r="H5" s="27" t="n">
+      <c r="H5" s="50" t="n">
         <v>102470</v>
       </c>
-      <c r="I5" s="27" t="n"/>
-      <c r="J5" s="27" t="n"/>
-      <c r="K5" s="27" t="n"/>
-      <c r="L5" s="27" t="n"/>
-      <c r="M5" s="27" t="n"/>
-      <c r="N5" s="27" t="n"/>
-      <c r="O5" s="27" t="n"/>
-      <c r="P5" s="27" t="n">
+      <c r="I5" s="50" t="n"/>
+      <c r="J5" s="50" t="n"/>
+      <c r="K5" s="50" t="n"/>
+      <c r="L5" s="50" t="n"/>
+      <c r="M5" s="50" t="n"/>
+      <c r="N5" s="50" t="n"/>
+      <c r="O5" s="50" t="n"/>
+      <c r="P5" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" s="27" t="n"/>
-      <c r="R5" s="27" t="n">
+      <c r="Q5" s="50" t="n"/>
+      <c r="R5" s="50" t="n">
         <v>19469</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="50">
         <f>SUM(H5:R5)</f>
         <v/>
       </c>
@@ -7391,24 +7614,24 @@
       <c r="G6" s="26" t="n">
         <v>45383</v>
       </c>
-      <c r="H6" s="27" t="n"/>
-      <c r="I6" s="27" t="n">
+      <c r="H6" s="50" t="n"/>
+      <c r="I6" s="50" t="n">
         <v>3782</v>
       </c>
-      <c r="J6" s="27" t="n"/>
-      <c r="K6" s="27" t="n"/>
-      <c r="L6" s="27" t="n"/>
-      <c r="M6" s="27" t="n"/>
-      <c r="N6" s="27" t="n"/>
-      <c r="O6" s="27" t="n"/>
-      <c r="P6" s="27" t="n">
+      <c r="J6" s="50" t="n"/>
+      <c r="K6" s="50" t="n"/>
+      <c r="L6" s="50" t="n"/>
+      <c r="M6" s="50" t="n"/>
+      <c r="N6" s="50" t="n"/>
+      <c r="O6" s="50" t="n"/>
+      <c r="P6" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" s="27" t="n"/>
-      <c r="R6" s="27" t="n">
+      <c r="Q6" s="50" t="n"/>
+      <c r="R6" s="50" t="n">
         <v>718</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="50">
         <f>SUM(H6:R6)</f>
         <v/>
       </c>
@@ -7443,22 +7666,22 @@
       <c r="G7" s="26" t="n">
         <v>45389</v>
       </c>
-      <c r="H7" s="27" t="n"/>
-      <c r="I7" s="27" t="n"/>
-      <c r="J7" s="27" t="n"/>
-      <c r="K7" s="27" t="n"/>
-      <c r="L7" s="27" t="n">
+      <c r="H7" s="50" t="n"/>
+      <c r="I7" s="50" t="n"/>
+      <c r="J7" s="50" t="n"/>
+      <c r="K7" s="50" t="n"/>
+      <c r="L7" s="50" t="n">
         <v>20244</v>
       </c>
-      <c r="M7" s="27" t="n"/>
-      <c r="N7" s="27" t="n"/>
-      <c r="O7" s="27" t="n"/>
-      <c r="P7" s="27" t="n"/>
-      <c r="Q7" s="27" t="n"/>
-      <c r="R7" s="27" t="n">
+      <c r="M7" s="50" t="n"/>
+      <c r="N7" s="50" t="n"/>
+      <c r="O7" s="50" t="n"/>
+      <c r="P7" s="50" t="n"/>
+      <c r="Q7" s="50" t="n"/>
+      <c r="R7" s="50" t="n">
         <v>3846</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="50">
         <f>SUM(H7:R7)</f>
         <v/>
       </c>
@@ -7493,26 +7716,26 @@
       <c r="G8" s="26" t="n">
         <v>45391</v>
       </c>
-      <c r="H8" s="27" t="n"/>
-      <c r="I8" s="27" t="n">
+      <c r="H8" s="50" t="n"/>
+      <c r="I8" s="50" t="n">
         <v>3779</v>
       </c>
-      <c r="J8" s="27" t="n"/>
-      <c r="K8" s="27" t="n">
+      <c r="J8" s="50" t="n"/>
+      <c r="K8" s="50" t="n">
         <v>672</v>
       </c>
-      <c r="L8" s="27" t="n"/>
-      <c r="M8" s="27" t="n"/>
-      <c r="N8" s="27" t="n"/>
-      <c r="O8" s="27" t="n"/>
-      <c r="P8" s="27" t="n">
+      <c r="L8" s="50" t="n"/>
+      <c r="M8" s="50" t="n"/>
+      <c r="N8" s="50" t="n"/>
+      <c r="O8" s="50" t="n"/>
+      <c r="P8" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="27" t="n"/>
-      <c r="R8" s="27" t="n">
+      <c r="Q8" s="50" t="n"/>
+      <c r="R8" s="50" t="n">
         <v>846</v>
       </c>
-      <c r="S8" s="27">
+      <c r="S8" s="50">
         <f>SUM(H8:R8)</f>
         <v/>
       </c>
@@ -7547,24 +7770,24 @@
       <c r="G9" s="26" t="n">
         <v>45391</v>
       </c>
-      <c r="H9" s="27" t="n">
+      <c r="H9" s="50" t="n">
         <v>213983</v>
       </c>
-      <c r="I9" s="27" t="n"/>
-      <c r="J9" s="27" t="n"/>
-      <c r="K9" s="27" t="n"/>
-      <c r="L9" s="27" t="n"/>
-      <c r="M9" s="27" t="n"/>
-      <c r="N9" s="27" t="n"/>
-      <c r="O9" s="27" t="n"/>
-      <c r="P9" s="27" t="n">
+      <c r="I9" s="50" t="n"/>
+      <c r="J9" s="50" t="n"/>
+      <c r="K9" s="50" t="n"/>
+      <c r="L9" s="50" t="n"/>
+      <c r="M9" s="50" t="n"/>
+      <c r="N9" s="50" t="n"/>
+      <c r="O9" s="50" t="n"/>
+      <c r="P9" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" s="27" t="n"/>
-      <c r="R9" s="27" t="n">
+      <c r="Q9" s="50" t="n"/>
+      <c r="R9" s="50" t="n">
         <v>40657</v>
       </c>
-      <c r="S9" s="27">
+      <c r="S9" s="50">
         <f>SUM(H9:R9)</f>
         <v/>
       </c>
@@ -7599,24 +7822,24 @@
       <c r="G10" s="26" t="n">
         <v>45391</v>
       </c>
-      <c r="H10" s="27" t="n"/>
-      <c r="I10" s="27" t="n">
+      <c r="H10" s="50" t="n"/>
+      <c r="I10" s="50" t="n">
         <v>8109</v>
       </c>
-      <c r="J10" s="27" t="n"/>
-      <c r="K10" s="27" t="n"/>
-      <c r="L10" s="27" t="n"/>
-      <c r="M10" s="27" t="n"/>
-      <c r="N10" s="27" t="n"/>
-      <c r="O10" s="27" t="n"/>
-      <c r="P10" s="27" t="n">
+      <c r="J10" s="50" t="n"/>
+      <c r="K10" s="50" t="n"/>
+      <c r="L10" s="50" t="n"/>
+      <c r="M10" s="50" t="n"/>
+      <c r="N10" s="50" t="n"/>
+      <c r="O10" s="50" t="n"/>
+      <c r="P10" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" s="27" t="n"/>
-      <c r="R10" s="27" t="n">
+      <c r="Q10" s="50" t="n"/>
+      <c r="R10" s="50" t="n">
         <v>1541</v>
       </c>
-      <c r="S10" s="27">
+      <c r="S10" s="50">
         <f>SUM(H10:R10)</f>
         <v/>
       </c>
@@ -7651,24 +7874,24 @@
       <c r="G11" s="26" t="n">
         <v>45392</v>
       </c>
-      <c r="H11" s="27" t="n"/>
-      <c r="I11" s="27" t="n">
+      <c r="H11" s="50" t="n"/>
+      <c r="I11" s="50" t="n">
         <v>43990</v>
       </c>
-      <c r="J11" s="27" t="n"/>
-      <c r="K11" s="27" t="n"/>
-      <c r="L11" s="27" t="n"/>
-      <c r="M11" s="27" t="n"/>
-      <c r="N11" s="27" t="n"/>
-      <c r="O11" s="27" t="n"/>
-      <c r="P11" s="27" t="n">
+      <c r="J11" s="50" t="n"/>
+      <c r="K11" s="50" t="n"/>
+      <c r="L11" s="50" t="n"/>
+      <c r="M11" s="50" t="n"/>
+      <c r="N11" s="50" t="n"/>
+      <c r="O11" s="50" t="n"/>
+      <c r="P11" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" s="27" t="n"/>
-      <c r="R11" s="27" t="n">
+      <c r="Q11" s="50" t="n"/>
+      <c r="R11" s="50" t="n">
         <v>8358</v>
       </c>
-      <c r="S11" s="27">
+      <c r="S11" s="50">
         <f>SUM(H11:R11)</f>
         <v/>
       </c>
@@ -7703,24 +7926,24 @@
       <c r="G12" s="4" t="n">
         <v>45399</v>
       </c>
-      <c r="H12" s="7" t="n">
+      <c r="H12" s="51" t="n">
         <v>60764</v>
       </c>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-      <c r="K12" s="7" t="n"/>
-      <c r="L12" s="7" t="n"/>
-      <c r="M12" s="7" t="n"/>
-      <c r="N12" s="7" t="n"/>
-      <c r="O12" s="7" t="n"/>
-      <c r="P12" s="7" t="n">
+      <c r="I12" s="51" t="n"/>
+      <c r="J12" s="51" t="n"/>
+      <c r="K12" s="51" t="n"/>
+      <c r="L12" s="51" t="n"/>
+      <c r="M12" s="51" t="n"/>
+      <c r="N12" s="51" t="n"/>
+      <c r="O12" s="51" t="n"/>
+      <c r="P12" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" s="7" t="n"/>
-      <c r="R12" s="7" t="n">
+      <c r="Q12" s="51" t="n"/>
+      <c r="R12" s="51" t="n">
         <v>11545</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="51">
         <f>SUM(H12:R12)</f>
         <v/>
       </c>
@@ -7750,27 +7973,27 @@
       <c r="G13" s="26" t="n">
         <v>45400</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="50">
         <f>70336+40756</f>
         <v/>
       </c>
-      <c r="I13" s="27" t="n"/>
-      <c r="J13" s="27" t="n"/>
-      <c r="K13" s="27" t="n"/>
-      <c r="L13" s="27" t="n"/>
-      <c r="M13" s="27" t="n"/>
-      <c r="N13" s="27" t="n">
+      <c r="I13" s="50" t="n"/>
+      <c r="J13" s="50" t="n"/>
+      <c r="K13" s="50" t="n"/>
+      <c r="L13" s="50" t="n"/>
+      <c r="M13" s="50" t="n"/>
+      <c r="N13" s="50" t="n">
         <v>3849</v>
       </c>
-      <c r="O13" s="27" t="n"/>
-      <c r="P13" s="27" t="n">
+      <c r="O13" s="50" t="n"/>
+      <c r="P13" s="50" t="n">
         <v>2933</v>
       </c>
-      <c r="Q13" s="27" t="n"/>
-      <c r="R13" s="27" t="n">
+      <c r="Q13" s="50" t="n"/>
+      <c r="R13" s="50" t="n">
         <v>22396</v>
       </c>
-      <c r="S13" s="27">
+      <c r="S13" s="50">
         <f>SUM(H13:R13)</f>
         <v/>
       </c>
@@ -7805,24 +8028,24 @@
       <c r="G14" s="26" t="n">
         <v>45404</v>
       </c>
-      <c r="H14" s="27" t="n">
+      <c r="H14" s="50" t="n">
         <v>64058</v>
       </c>
-      <c r="I14" s="27" t="n"/>
-      <c r="J14" s="27" t="n"/>
-      <c r="K14" s="27" t="n"/>
-      <c r="L14" s="27" t="n"/>
-      <c r="M14" s="27" t="n"/>
-      <c r="N14" s="27" t="n"/>
-      <c r="O14" s="27" t="n"/>
-      <c r="P14" s="27" t="n">
+      <c r="I14" s="50" t="n"/>
+      <c r="J14" s="50" t="n"/>
+      <c r="K14" s="50" t="n"/>
+      <c r="L14" s="50" t="n"/>
+      <c r="M14" s="50" t="n"/>
+      <c r="N14" s="50" t="n"/>
+      <c r="O14" s="50" t="n"/>
+      <c r="P14" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" s="27" t="n"/>
-      <c r="R14" s="27" t="n">
+      <c r="Q14" s="50" t="n"/>
+      <c r="R14" s="50" t="n">
         <v>12171</v>
       </c>
-      <c r="S14" s="27">
+      <c r="S14" s="50">
         <f>SUM(H14:R14)</f>
         <v/>
       </c>
@@ -7857,24 +8080,24 @@
       <c r="G15" s="26" t="n">
         <v>45405</v>
       </c>
-      <c r="H15" s="27" t="n"/>
-      <c r="I15" s="27" t="n">
+      <c r="H15" s="50" t="n"/>
+      <c r="I15" s="50" t="n">
         <v>28235</v>
       </c>
-      <c r="J15" s="27" t="n"/>
-      <c r="K15" s="27" t="n"/>
-      <c r="L15" s="27" t="n"/>
-      <c r="M15" s="27" t="n"/>
-      <c r="N15" s="27" t="n"/>
-      <c r="O15" s="27" t="n"/>
-      <c r="P15" s="27" t="n">
+      <c r="J15" s="50" t="n"/>
+      <c r="K15" s="50" t="n"/>
+      <c r="L15" s="50" t="n"/>
+      <c r="M15" s="50" t="n"/>
+      <c r="N15" s="50" t="n"/>
+      <c r="O15" s="50" t="n"/>
+      <c r="P15" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" s="27" t="n"/>
-      <c r="R15" s="27" t="n">
+      <c r="Q15" s="50" t="n"/>
+      <c r="R15" s="50" t="n">
         <v>5365</v>
       </c>
-      <c r="S15" s="27">
+      <c r="S15" s="50">
         <f>SUM(H15:R15)</f>
         <v/>
       </c>
@@ -7909,24 +8132,24 @@
       <c r="G16" s="26" t="n">
         <v>45411</v>
       </c>
-      <c r="H16" s="27" t="n">
+      <c r="H16" s="50" t="n">
         <v>45681</v>
       </c>
-      <c r="I16" s="27" t="n"/>
-      <c r="J16" s="27" t="n"/>
-      <c r="K16" s="27" t="n"/>
-      <c r="L16" s="27" t="n"/>
-      <c r="M16" s="27" t="n"/>
-      <c r="N16" s="27" t="n"/>
-      <c r="O16" s="27" t="n"/>
-      <c r="P16" s="27" t="n">
+      <c r="I16" s="50" t="n"/>
+      <c r="J16" s="50" t="n"/>
+      <c r="K16" s="50" t="n"/>
+      <c r="L16" s="50" t="n"/>
+      <c r="M16" s="50" t="n"/>
+      <c r="N16" s="50" t="n"/>
+      <c r="O16" s="50" t="n"/>
+      <c r="P16" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" s="27" t="n"/>
-      <c r="R16" s="27" t="n">
+      <c r="Q16" s="50" t="n"/>
+      <c r="R16" s="50" t="n">
         <v>8679</v>
       </c>
-      <c r="S16" s="27">
+      <c r="S16" s="50">
         <f>SUM(H16:R16)</f>
         <v/>
       </c>
@@ -7961,24 +8184,24 @@
       <c r="G17" s="26" t="n">
         <v>45408</v>
       </c>
-      <c r="H17" s="27" t="n"/>
-      <c r="I17" s="27" t="n"/>
-      <c r="J17" s="27" t="n"/>
-      <c r="K17" s="27" t="n"/>
-      <c r="L17" s="27" t="n"/>
-      <c r="M17" s="27" t="n"/>
-      <c r="N17" s="27" t="n"/>
-      <c r="O17" s="27" t="n"/>
-      <c r="P17" s="27" t="n">
+      <c r="H17" s="50" t="n"/>
+      <c r="I17" s="50" t="n"/>
+      <c r="J17" s="50" t="n"/>
+      <c r="K17" s="50" t="n"/>
+      <c r="L17" s="50" t="n"/>
+      <c r="M17" s="50" t="n"/>
+      <c r="N17" s="50" t="n"/>
+      <c r="O17" s="50" t="n"/>
+      <c r="P17" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" s="27" t="n">
+      <c r="Q17" s="50" t="n">
         <v>2308</v>
       </c>
-      <c r="R17" s="27" t="n">
+      <c r="R17" s="50" t="n">
         <v>439</v>
       </c>
-      <c r="S17" s="27">
+      <c r="S17" s="50">
         <f>SUM(H17:R17)</f>
         <v/>
       </c>
@@ -8013,22 +8236,22 @@
       <c r="G18" s="26" t="n">
         <v>45339</v>
       </c>
-      <c r="H18" s="27" t="n"/>
-      <c r="I18" s="27" t="n">
+      <c r="H18" s="50" t="n"/>
+      <c r="I18" s="50" t="n">
         <v>11597</v>
       </c>
-      <c r="J18" s="27" t="n"/>
-      <c r="K18" s="27" t="n"/>
-      <c r="L18" s="27" t="n"/>
-      <c r="M18" s="27" t="n"/>
-      <c r="N18" s="27" t="n"/>
-      <c r="O18" s="27" t="n"/>
-      <c r="P18" s="27" t="n"/>
-      <c r="Q18" s="27" t="n"/>
-      <c r="R18" s="27" t="n">
+      <c r="J18" s="50" t="n"/>
+      <c r="K18" s="50" t="n"/>
+      <c r="L18" s="50" t="n"/>
+      <c r="M18" s="50" t="n"/>
+      <c r="N18" s="50" t="n"/>
+      <c r="O18" s="50" t="n"/>
+      <c r="P18" s="50" t="n"/>
+      <c r="Q18" s="50" t="n"/>
+      <c r="R18" s="50" t="n">
         <v>2203</v>
       </c>
-      <c r="S18" s="27">
+      <c r="S18" s="50">
         <f>SUM(H18:R18)</f>
         <v/>
       </c>
@@ -8063,22 +8286,22 @@
       <c r="G19" s="26" t="n">
         <v>45339</v>
       </c>
-      <c r="H19" s="27" t="n">
+      <c r="H19" s="50" t="n">
         <v>160773</v>
       </c>
-      <c r="I19" s="27" t="n"/>
-      <c r="J19" s="27" t="n"/>
-      <c r="K19" s="27" t="n"/>
-      <c r="L19" s="27" t="n"/>
-      <c r="M19" s="27" t="n"/>
-      <c r="N19" s="27" t="n"/>
-      <c r="O19" s="27" t="n"/>
-      <c r="P19" s="27" t="n"/>
-      <c r="Q19" s="27" t="n"/>
-      <c r="R19" s="27" t="n">
+      <c r="I19" s="50" t="n"/>
+      <c r="J19" s="50" t="n"/>
+      <c r="K19" s="50" t="n"/>
+      <c r="L19" s="50" t="n"/>
+      <c r="M19" s="50" t="n"/>
+      <c r="N19" s="50" t="n"/>
+      <c r="O19" s="50" t="n"/>
+      <c r="P19" s="50" t="n"/>
+      <c r="Q19" s="50" t="n"/>
+      <c r="R19" s="50" t="n">
         <v>30547</v>
       </c>
-      <c r="S19" s="27">
+      <c r="S19" s="50">
         <f>SUM(H19:R19)</f>
         <v/>
       </c>
@@ -8113,24 +8336,24 @@
       <c r="G20" s="26" t="n">
         <v>45342</v>
       </c>
-      <c r="H20" s="27" t="n"/>
-      <c r="I20" s="27" t="n">
+      <c r="H20" s="50" t="n"/>
+      <c r="I20" s="50" t="n">
         <v>10639</v>
       </c>
-      <c r="J20" s="27" t="n"/>
-      <c r="K20" s="27" t="n"/>
-      <c r="L20" s="27" t="n"/>
-      <c r="M20" s="27" t="n">
+      <c r="J20" s="50" t="n"/>
+      <c r="K20" s="50" t="n"/>
+      <c r="L20" s="50" t="n"/>
+      <c r="M20" s="50" t="n">
         <v>5000</v>
       </c>
-      <c r="N20" s="27" t="n"/>
-      <c r="O20" s="27" t="n"/>
-      <c r="P20" s="27" t="n"/>
-      <c r="Q20" s="27" t="n"/>
-      <c r="R20" s="27" t="n">
+      <c r="N20" s="50" t="n"/>
+      <c r="O20" s="50" t="n"/>
+      <c r="P20" s="50" t="n"/>
+      <c r="Q20" s="50" t="n"/>
+      <c r="R20" s="50" t="n">
         <v>2971</v>
       </c>
-      <c r="S20" s="27">
+      <c r="S20" s="50">
         <f>SUM(H20:R20)</f>
         <v/>
       </c>
@@ -8165,22 +8388,22 @@
       <c r="G21" s="26" t="n">
         <v>45344</v>
       </c>
-      <c r="H21" s="27" t="n"/>
-      <c r="I21" s="27" t="n"/>
-      <c r="J21" s="27" t="n"/>
-      <c r="K21" s="27" t="n"/>
-      <c r="L21" s="27" t="n"/>
-      <c r="M21" s="27" t="n"/>
-      <c r="N21" s="27" t="n"/>
-      <c r="O21" s="27" t="n"/>
-      <c r="P21" s="27" t="n">
+      <c r="H21" s="50" t="n"/>
+      <c r="I21" s="50" t="n"/>
+      <c r="J21" s="50" t="n"/>
+      <c r="K21" s="50" t="n"/>
+      <c r="L21" s="50" t="n"/>
+      <c r="M21" s="50" t="n"/>
+      <c r="N21" s="50" t="n"/>
+      <c r="O21" s="50" t="n"/>
+      <c r="P21" s="50" t="n">
         <v>8395</v>
       </c>
-      <c r="Q21" s="27" t="n"/>
-      <c r="R21" s="27" t="n">
+      <c r="Q21" s="50" t="n"/>
+      <c r="R21" s="50" t="n">
         <v>1595</v>
       </c>
-      <c r="S21" s="27">
+      <c r="S21" s="50">
         <f>SUM(H21:R21)</f>
         <v/>
       </c>
@@ -8215,24 +8438,24 @@
       <c r="G22" s="26" t="n">
         <v>45346</v>
       </c>
-      <c r="H22" s="27" t="n"/>
-      <c r="I22" s="27" t="n"/>
-      <c r="J22" s="27" t="n"/>
-      <c r="K22" s="27" t="n"/>
-      <c r="L22" s="27" t="n"/>
-      <c r="M22" s="27" t="n">
+      <c r="H22" s="50" t="n"/>
+      <c r="I22" s="50" t="n"/>
+      <c r="J22" s="50" t="n"/>
+      <c r="K22" s="50" t="n"/>
+      <c r="L22" s="50" t="n"/>
+      <c r="M22" s="50" t="n">
         <v>19798</v>
       </c>
-      <c r="N22" s="27" t="n">
+      <c r="N22" s="50" t="n">
         <v>13135</v>
       </c>
-      <c r="O22" s="27" t="n"/>
-      <c r="P22" s="27" t="n"/>
-      <c r="Q22" s="27" t="n"/>
-      <c r="R22" s="27" t="n">
+      <c r="O22" s="50" t="n"/>
+      <c r="P22" s="50" t="n"/>
+      <c r="Q22" s="50" t="n"/>
+      <c r="R22" s="50" t="n">
         <v>6257</v>
       </c>
-      <c r="S22" s="27">
+      <c r="S22" s="50">
         <f>SUM(H22:R22)</f>
         <v/>
       </c>
@@ -8267,22 +8490,22 @@
       <c r="G23" s="26" t="n">
         <v>45346</v>
       </c>
-      <c r="H23" s="27" t="n"/>
-      <c r="I23" s="27" t="n">
+      <c r="H23" s="50" t="n"/>
+      <c r="I23" s="50" t="n">
         <v>10891</v>
       </c>
-      <c r="J23" s="27" t="n"/>
-      <c r="K23" s="27" t="n"/>
-      <c r="L23" s="27" t="n"/>
-      <c r="M23" s="27" t="n"/>
-      <c r="N23" s="27" t="n"/>
-      <c r="O23" s="27" t="n"/>
-      <c r="P23" s="27" t="n"/>
-      <c r="Q23" s="27" t="n"/>
-      <c r="R23" s="27" t="n">
+      <c r="J23" s="50" t="n"/>
+      <c r="K23" s="50" t="n"/>
+      <c r="L23" s="50" t="n"/>
+      <c r="M23" s="50" t="n"/>
+      <c r="N23" s="50" t="n"/>
+      <c r="O23" s="50" t="n"/>
+      <c r="P23" s="50" t="n"/>
+      <c r="Q23" s="50" t="n"/>
+      <c r="R23" s="50" t="n">
         <v>2069</v>
       </c>
-      <c r="S23" s="27">
+      <c r="S23" s="50">
         <f>SUM(H23:R23)</f>
         <v/>
       </c>
@@ -8317,22 +8540,22 @@
       <c r="G24" s="4" t="n">
         <v>45346</v>
       </c>
-      <c r="H24" s="7" t="n"/>
-      <c r="I24" s="7" t="n"/>
-      <c r="J24" s="7" t="n"/>
-      <c r="K24" s="7" t="n"/>
-      <c r="L24" s="7" t="n"/>
-      <c r="M24" s="7" t="n"/>
-      <c r="N24" s="7" t="n"/>
-      <c r="O24" s="7" t="n"/>
-      <c r="P24" s="7" t="n">
+      <c r="H24" s="51" t="n"/>
+      <c r="I24" s="51" t="n"/>
+      <c r="J24" s="51" t="n"/>
+      <c r="K24" s="51" t="n"/>
+      <c r="L24" s="51" t="n"/>
+      <c r="M24" s="51" t="n"/>
+      <c r="N24" s="51" t="n"/>
+      <c r="O24" s="51" t="n"/>
+      <c r="P24" s="51" t="n">
         <v>6840</v>
       </c>
-      <c r="Q24" s="7" t="n"/>
-      <c r="R24" s="7" t="n">
+      <c r="Q24" s="51" t="n"/>
+      <c r="R24" s="51" t="n">
         <v>1300</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="51">
         <f>SUM(H24:R24)</f>
         <v/>
       </c>
@@ -8362,22 +8585,22 @@
       <c r="G25" s="26" t="n">
         <v>45347</v>
       </c>
-      <c r="H25" s="27" t="n"/>
-      <c r="I25" s="27" t="n"/>
-      <c r="J25" s="27" t="n"/>
-      <c r="K25" s="27" t="n">
+      <c r="H25" s="50" t="n"/>
+      <c r="I25" s="50" t="n"/>
+      <c r="J25" s="50" t="n"/>
+      <c r="K25" s="50" t="n">
         <v>77320</v>
       </c>
-      <c r="L25" s="27" t="n"/>
-      <c r="M25" s="27" t="n"/>
-      <c r="N25" s="27" t="n"/>
-      <c r="O25" s="27" t="n"/>
-      <c r="P25" s="27" t="n"/>
-      <c r="Q25" s="27" t="n"/>
-      <c r="R25" s="27" t="n">
+      <c r="L25" s="50" t="n"/>
+      <c r="M25" s="50" t="n"/>
+      <c r="N25" s="50" t="n"/>
+      <c r="O25" s="50" t="n"/>
+      <c r="P25" s="50" t="n"/>
+      <c r="Q25" s="50" t="n"/>
+      <c r="R25" s="50" t="n">
         <v>14691</v>
       </c>
-      <c r="S25" s="27">
+      <c r="S25" s="50">
         <f>SUM(H25:R25)</f>
         <v/>
       </c>
@@ -8412,22 +8635,22 @@
       <c r="G26" s="26" t="n">
         <v>45351</v>
       </c>
-      <c r="H26" s="27" t="n"/>
-      <c r="I26" s="27" t="n">
+      <c r="H26" s="50" t="n"/>
+      <c r="I26" s="50" t="n">
         <v>13370</v>
       </c>
-      <c r="J26" s="27" t="n"/>
-      <c r="K26" s="27" t="n"/>
-      <c r="L26" s="27" t="n"/>
-      <c r="M26" s="27" t="n"/>
-      <c r="N26" s="27" t="n"/>
-      <c r="O26" s="27" t="n"/>
-      <c r="P26" s="27" t="n"/>
-      <c r="Q26" s="27" t="n"/>
-      <c r="R26" s="27" t="n">
+      <c r="J26" s="50" t="n"/>
+      <c r="K26" s="50" t="n"/>
+      <c r="L26" s="50" t="n"/>
+      <c r="M26" s="50" t="n"/>
+      <c r="N26" s="50" t="n"/>
+      <c r="O26" s="50" t="n"/>
+      <c r="P26" s="50" t="n"/>
+      <c r="Q26" s="50" t="n"/>
+      <c r="R26" s="50" t="n">
         <v>2540</v>
       </c>
-      <c r="S26" s="27">
+      <c r="S26" s="50">
         <f>SUM(H26:R26)</f>
         <v/>
       </c>
@@ -8462,22 +8685,22 @@
       <c r="G27" s="26" t="n">
         <v>45349</v>
       </c>
-      <c r="H27" s="27" t="n"/>
-      <c r="I27" s="27" t="n"/>
-      <c r="J27" s="27" t="n"/>
-      <c r="K27" s="27" t="n"/>
-      <c r="L27" s="27" t="n"/>
-      <c r="M27" s="27" t="n"/>
-      <c r="N27" s="27" t="n"/>
-      <c r="O27" s="27" t="n"/>
-      <c r="P27" s="27" t="n"/>
-      <c r="Q27" s="27" t="n">
+      <c r="H27" s="50" t="n"/>
+      <c r="I27" s="50" t="n"/>
+      <c r="J27" s="50" t="n"/>
+      <c r="K27" s="50" t="n"/>
+      <c r="L27" s="50" t="n"/>
+      <c r="M27" s="50" t="n"/>
+      <c r="N27" s="50" t="n"/>
+      <c r="O27" s="50" t="n"/>
+      <c r="P27" s="50" t="n"/>
+      <c r="Q27" s="50" t="n">
         <v>17</v>
       </c>
-      <c r="R27" s="27" t="n">
+      <c r="R27" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="S27" s="27">
+      <c r="S27" s="50">
         <f>SUM(H27:R27)</f>
         <v/>
       </c>
@@ -8512,22 +8735,22 @@
       <c r="G28" s="26" t="n">
         <v>45472</v>
       </c>
-      <c r="H28" s="27" t="n">
+      <c r="H28" s="50" t="n">
         <v>20335</v>
       </c>
-      <c r="I28" s="27" t="n"/>
-      <c r="J28" s="27" t="n"/>
-      <c r="K28" s="27" t="n"/>
-      <c r="L28" s="27" t="n"/>
-      <c r="M28" s="27" t="n"/>
-      <c r="N28" s="27" t="n"/>
-      <c r="O28" s="27" t="n"/>
-      <c r="P28" s="27" t="n"/>
-      <c r="Q28" s="27" t="n"/>
-      <c r="R28" s="27" t="n">
+      <c r="I28" s="50" t="n"/>
+      <c r="J28" s="50" t="n"/>
+      <c r="K28" s="50" t="n"/>
+      <c r="L28" s="50" t="n"/>
+      <c r="M28" s="50" t="n"/>
+      <c r="N28" s="50" t="n"/>
+      <c r="O28" s="50" t="n"/>
+      <c r="P28" s="50" t="n"/>
+      <c r="Q28" s="50" t="n"/>
+      <c r="R28" s="50" t="n">
         <v>3864</v>
       </c>
-      <c r="S28" s="27">
+      <c r="S28" s="50">
         <f>SUM(H28:R28)</f>
         <v/>
       </c>
@@ -8562,22 +8785,22 @@
       <c r="G29" s="26" t="n">
         <v>45470</v>
       </c>
-      <c r="H29" s="27" t="n"/>
-      <c r="I29" s="27" t="n"/>
-      <c r="J29" s="27" t="n"/>
-      <c r="K29" s="27" t="n"/>
-      <c r="L29" s="27" t="n"/>
-      <c r="M29" s="27" t="n"/>
-      <c r="N29" s="27" t="n"/>
-      <c r="O29" s="27" t="n"/>
-      <c r="P29" s="27" t="n"/>
-      <c r="Q29" s="27" t="n">
+      <c r="H29" s="50" t="n"/>
+      <c r="I29" s="50" t="n"/>
+      <c r="J29" s="50" t="n"/>
+      <c r="K29" s="50" t="n"/>
+      <c r="L29" s="50" t="n"/>
+      <c r="M29" s="50" t="n"/>
+      <c r="N29" s="50" t="n"/>
+      <c r="O29" s="50" t="n"/>
+      <c r="P29" s="50" t="n"/>
+      <c r="Q29" s="50" t="n">
         <v>4443</v>
       </c>
-      <c r="R29" s="27" t="n">
+      <c r="R29" s="50" t="n">
         <v>844</v>
       </c>
-      <c r="S29" s="27">
+      <c r="S29" s="50">
         <f>SUM(H29:R29)</f>
         <v/>
       </c>
@@ -8612,22 +8835,22 @@
       <c r="G30" s="26" t="n">
         <v>45477</v>
       </c>
-      <c r="H30" s="27" t="n">
+      <c r="H30" s="50" t="n">
         <v>75027</v>
       </c>
-      <c r="I30" s="27" t="n"/>
-      <c r="J30" s="27" t="n"/>
-      <c r="K30" s="27" t="n"/>
-      <c r="L30" s="27" t="n"/>
-      <c r="M30" s="27" t="n"/>
-      <c r="N30" s="27" t="n"/>
-      <c r="O30" s="27" t="n"/>
-      <c r="P30" s="27" t="n"/>
-      <c r="Q30" s="27" t="n"/>
-      <c r="R30" s="27" t="n">
+      <c r="I30" s="50" t="n"/>
+      <c r="J30" s="50" t="n"/>
+      <c r="K30" s="50" t="n"/>
+      <c r="L30" s="50" t="n"/>
+      <c r="M30" s="50" t="n"/>
+      <c r="N30" s="50" t="n"/>
+      <c r="O30" s="50" t="n"/>
+      <c r="P30" s="50" t="n"/>
+      <c r="Q30" s="50" t="n"/>
+      <c r="R30" s="50" t="n">
         <v>14255</v>
       </c>
-      <c r="S30" s="27">
+      <c r="S30" s="50">
         <f>SUM(H30:R30)</f>
         <v/>
       </c>
@@ -8662,22 +8885,22 @@
       <c r="G31" s="26" t="n">
         <v>45478</v>
       </c>
-      <c r="H31" s="27" t="n">
+      <c r="H31" s="50" t="n">
         <v>184786</v>
       </c>
-      <c r="I31" s="27" t="n"/>
-      <c r="J31" s="27" t="n"/>
-      <c r="K31" s="27" t="n"/>
-      <c r="L31" s="27" t="n"/>
-      <c r="M31" s="27" t="n"/>
-      <c r="N31" s="27" t="n"/>
-      <c r="O31" s="27" t="n"/>
-      <c r="P31" s="27" t="n"/>
-      <c r="Q31" s="27" t="n"/>
-      <c r="R31" s="27" t="n">
+      <c r="I31" s="50" t="n"/>
+      <c r="J31" s="50" t="n"/>
+      <c r="K31" s="50" t="n"/>
+      <c r="L31" s="50" t="n"/>
+      <c r="M31" s="50" t="n"/>
+      <c r="N31" s="50" t="n"/>
+      <c r="O31" s="50" t="n"/>
+      <c r="P31" s="50" t="n"/>
+      <c r="Q31" s="50" t="n"/>
+      <c r="R31" s="50" t="n">
         <v>35109</v>
       </c>
-      <c r="S31" s="27">
+      <c r="S31" s="50">
         <f>SUM(H31:R31)</f>
         <v/>
       </c>
@@ -8712,22 +8935,22 @@
       <c r="G32" s="26" t="n">
         <v>45479</v>
       </c>
-      <c r="H32" s="27" t="n">
+      <c r="H32" s="50" t="n">
         <v>12773</v>
       </c>
-      <c r="I32" s="27" t="n"/>
-      <c r="J32" s="27" t="n"/>
-      <c r="K32" s="27" t="n"/>
-      <c r="L32" s="27" t="n"/>
-      <c r="M32" s="27" t="n"/>
-      <c r="N32" s="27" t="n"/>
-      <c r="O32" s="27" t="n"/>
-      <c r="P32" s="27" t="n"/>
-      <c r="Q32" s="27" t="n"/>
-      <c r="R32" s="27" t="n">
+      <c r="I32" s="50" t="n"/>
+      <c r="J32" s="50" t="n"/>
+      <c r="K32" s="50" t="n"/>
+      <c r="L32" s="50" t="n"/>
+      <c r="M32" s="50" t="n"/>
+      <c r="N32" s="50" t="n"/>
+      <c r="O32" s="50" t="n"/>
+      <c r="P32" s="50" t="n"/>
+      <c r="Q32" s="50" t="n"/>
+      <c r="R32" s="50" t="n">
         <v>2427</v>
       </c>
-      <c r="S32" s="27">
+      <c r="S32" s="50">
         <f>SUM(H32:R32)</f>
         <v/>
       </c>
@@ -8762,26 +8985,26 @@
       <c r="G33" s="26" t="n">
         <v>45479</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="50">
         <f>6378+17436</f>
         <v/>
       </c>
-      <c r="I33" s="27" t="n"/>
-      <c r="J33" s="27" t="n"/>
-      <c r="K33" s="27" t="n"/>
-      <c r="L33" s="27" t="n"/>
-      <c r="M33" s="27" t="n"/>
-      <c r="N33" s="27">
+      <c r="I33" s="50" t="n"/>
+      <c r="J33" s="50" t="n"/>
+      <c r="K33" s="50" t="n"/>
+      <c r="L33" s="50" t="n"/>
+      <c r="M33" s="50" t="n"/>
+      <c r="N33" s="50">
         <f>3000+9244+4286+2261</f>
         <v/>
       </c>
-      <c r="O33" s="27" t="n"/>
-      <c r="P33" s="27" t="n"/>
-      <c r="Q33" s="27" t="n"/>
-      <c r="R33" s="27" t="n">
+      <c r="O33" s="50" t="n"/>
+      <c r="P33" s="50" t="n"/>
+      <c r="Q33" s="50" t="n"/>
+      <c r="R33" s="50" t="n">
         <v>8095</v>
       </c>
-      <c r="S33" s="27">
+      <c r="S33" s="50">
         <f>SUM(H33:R33)</f>
         <v/>
       </c>
@@ -8816,22 +9039,22 @@
       <c r="G34" s="26" t="n">
         <v>45481</v>
       </c>
-      <c r="H34" s="27" t="n">
+      <c r="H34" s="50" t="n">
         <v>102941</v>
       </c>
-      <c r="I34" s="27" t="n"/>
-      <c r="J34" s="27" t="n"/>
-      <c r="K34" s="27" t="n"/>
-      <c r="L34" s="27" t="n"/>
-      <c r="M34" s="27" t="n"/>
-      <c r="N34" s="27" t="n"/>
-      <c r="O34" s="27" t="n"/>
-      <c r="P34" s="27" t="n"/>
-      <c r="Q34" s="27" t="n"/>
-      <c r="R34" s="27" t="n">
+      <c r="I34" s="50" t="n"/>
+      <c r="J34" s="50" t="n"/>
+      <c r="K34" s="50" t="n"/>
+      <c r="L34" s="50" t="n"/>
+      <c r="M34" s="50" t="n"/>
+      <c r="N34" s="50" t="n"/>
+      <c r="O34" s="50" t="n"/>
+      <c r="P34" s="50" t="n"/>
+      <c r="Q34" s="50" t="n"/>
+      <c r="R34" s="50" t="n">
         <v>19559</v>
       </c>
-      <c r="S34" s="27">
+      <c r="S34" s="50">
         <f>SUM(H34:R34)</f>
         <v/>
       </c>
@@ -8866,22 +9089,22 @@
       <c r="G35" s="26" t="n">
         <v>45482</v>
       </c>
-      <c r="H35" s="27" t="n"/>
-      <c r="I35" s="27" t="n">
+      <c r="H35" s="50" t="n"/>
+      <c r="I35" s="50" t="n">
         <v>47067</v>
       </c>
-      <c r="J35" s="27" t="n"/>
-      <c r="K35" s="27" t="n"/>
-      <c r="L35" s="27" t="n"/>
-      <c r="M35" s="27" t="n"/>
-      <c r="N35" s="27" t="n"/>
-      <c r="O35" s="27" t="n"/>
-      <c r="P35" s="27" t="n"/>
-      <c r="Q35" s="27" t="n"/>
-      <c r="R35" s="27" t="n">
+      <c r="J35" s="50" t="n"/>
+      <c r="K35" s="50" t="n"/>
+      <c r="L35" s="50" t="n"/>
+      <c r="M35" s="50" t="n"/>
+      <c r="N35" s="50" t="n"/>
+      <c r="O35" s="50" t="n"/>
+      <c r="P35" s="50" t="n"/>
+      <c r="Q35" s="50" t="n"/>
+      <c r="R35" s="50" t="n">
         <v>8943</v>
       </c>
-      <c r="S35" s="27">
+      <c r="S35" s="50">
         <f>SUM(H35:R35)</f>
         <v/>
       </c>
@@ -8916,22 +9139,22 @@
       <c r="G36" s="26" t="n">
         <v>45482</v>
       </c>
-      <c r="H36" s="27" t="n">
+      <c r="H36" s="50" t="n">
         <v>12706</v>
       </c>
-      <c r="I36" s="27" t="n"/>
-      <c r="J36" s="27" t="n"/>
-      <c r="K36" s="27" t="n"/>
-      <c r="L36" s="27" t="n"/>
-      <c r="M36" s="27" t="n"/>
-      <c r="N36" s="27" t="n"/>
-      <c r="O36" s="27" t="n"/>
-      <c r="P36" s="27" t="n"/>
-      <c r="Q36" s="27" t="n"/>
-      <c r="R36" s="27" t="n">
+      <c r="I36" s="50" t="n"/>
+      <c r="J36" s="50" t="n"/>
+      <c r="K36" s="50" t="n"/>
+      <c r="L36" s="50" t="n"/>
+      <c r="M36" s="50" t="n"/>
+      <c r="N36" s="50" t="n"/>
+      <c r="O36" s="50" t="n"/>
+      <c r="P36" s="50" t="n"/>
+      <c r="Q36" s="50" t="n"/>
+      <c r="R36" s="50" t="n">
         <v>2414</v>
       </c>
-      <c r="S36" s="27">
+      <c r="S36" s="50">
         <f>SUM(H36:R36)</f>
         <v/>
       </c>
@@ -8966,22 +9189,22 @@
       <c r="G37" s="26" t="n">
         <v>45484</v>
       </c>
-      <c r="H37" s="27" t="n"/>
-      <c r="I37" s="27" t="n">
+      <c r="H37" s="50" t="n"/>
+      <c r="I37" s="50" t="n">
         <v>10536</v>
       </c>
-      <c r="J37" s="27" t="n"/>
-      <c r="K37" s="27" t="n"/>
-      <c r="L37" s="27" t="n"/>
-      <c r="M37" s="27" t="n"/>
-      <c r="N37" s="27" t="n"/>
-      <c r="O37" s="27" t="n"/>
-      <c r="P37" s="27" t="n"/>
-      <c r="Q37" s="27" t="n"/>
-      <c r="R37" s="27" t="n">
+      <c r="J37" s="50" t="n"/>
+      <c r="K37" s="50" t="n"/>
+      <c r="L37" s="50" t="n"/>
+      <c r="M37" s="50" t="n"/>
+      <c r="N37" s="50" t="n"/>
+      <c r="O37" s="50" t="n"/>
+      <c r="P37" s="50" t="n"/>
+      <c r="Q37" s="50" t="n"/>
+      <c r="R37" s="50" t="n">
         <v>2002</v>
       </c>
-      <c r="S37" s="27">
+      <c r="S37" s="50">
         <f>SUM(H37:R37)</f>
         <v/>
       </c>
@@ -9016,22 +9239,22 @@
       <c r="G38" s="26" t="n">
         <v>45486</v>
       </c>
-      <c r="H38" s="27" t="n">
+      <c r="H38" s="50" t="n">
         <v>65876</v>
       </c>
-      <c r="I38" s="27" t="n"/>
-      <c r="J38" s="27" t="n"/>
-      <c r="K38" s="27" t="n"/>
-      <c r="L38" s="27" t="n"/>
-      <c r="M38" s="27" t="n"/>
-      <c r="N38" s="27" t="n"/>
-      <c r="O38" s="27" t="n"/>
-      <c r="P38" s="27" t="n"/>
-      <c r="Q38" s="27" t="n"/>
-      <c r="R38" s="27" t="n">
+      <c r="I38" s="50" t="n"/>
+      <c r="J38" s="50" t="n"/>
+      <c r="K38" s="50" t="n"/>
+      <c r="L38" s="50" t="n"/>
+      <c r="M38" s="50" t="n"/>
+      <c r="N38" s="50" t="n"/>
+      <c r="O38" s="50" t="n"/>
+      <c r="P38" s="50" t="n"/>
+      <c r="Q38" s="50" t="n"/>
+      <c r="R38" s="50" t="n">
         <v>12516</v>
       </c>
-      <c r="S38" s="27">
+      <c r="S38" s="50">
         <f>SUM(H38:R38)</f>
         <v/>
       </c>
@@ -9066,22 +9289,22 @@
       <c r="G39" s="26" t="n">
         <v>45490</v>
       </c>
-      <c r="H39" s="27" t="n"/>
-      <c r="I39" s="27" t="n"/>
-      <c r="J39" s="27" t="n">
+      <c r="H39" s="50" t="n"/>
+      <c r="I39" s="50" t="n"/>
+      <c r="J39" s="50" t="n">
         <v>10068</v>
       </c>
-      <c r="K39" s="27" t="n"/>
-      <c r="L39" s="27" t="n"/>
-      <c r="M39" s="27" t="n"/>
-      <c r="N39" s="27" t="n"/>
-      <c r="O39" s="27" t="n"/>
-      <c r="P39" s="27" t="n"/>
-      <c r="Q39" s="27" t="n"/>
-      <c r="R39" s="27" t="n">
+      <c r="K39" s="50" t="n"/>
+      <c r="L39" s="50" t="n"/>
+      <c r="M39" s="50" t="n"/>
+      <c r="N39" s="50" t="n"/>
+      <c r="O39" s="50" t="n"/>
+      <c r="P39" s="50" t="n"/>
+      <c r="Q39" s="50" t="n"/>
+      <c r="R39" s="50" t="n">
         <v>1913</v>
       </c>
-      <c r="S39" s="27">
+      <c r="S39" s="50">
         <f>SUM(H39:R39)</f>
         <v/>
       </c>
@@ -9116,22 +9339,22 @@
       <c r="G40" s="26" t="n">
         <v>45502</v>
       </c>
-      <c r="H40" s="27" t="n"/>
-      <c r="I40" s="27" t="n"/>
-      <c r="J40" s="27" t="n"/>
-      <c r="K40" s="27" t="n"/>
-      <c r="L40" s="27" t="n"/>
-      <c r="M40" s="27" t="n"/>
-      <c r="N40" s="27" t="n"/>
-      <c r="O40" s="27" t="n"/>
-      <c r="P40" s="27" t="n"/>
-      <c r="Q40" s="27" t="n">
+      <c r="H40" s="50" t="n"/>
+      <c r="I40" s="50" t="n"/>
+      <c r="J40" s="50" t="n"/>
+      <c r="K40" s="50" t="n"/>
+      <c r="L40" s="50" t="n"/>
+      <c r="M40" s="50" t="n"/>
+      <c r="N40" s="50" t="n"/>
+      <c r="O40" s="50" t="n"/>
+      <c r="P40" s="50" t="n"/>
+      <c r="Q40" s="50" t="n">
         <v>850</v>
       </c>
-      <c r="R40" s="27" t="n">
+      <c r="R40" s="50" t="n">
         <v>162</v>
       </c>
-      <c r="S40" s="27">
+      <c r="S40" s="50">
         <f>SUM(H40:R40)</f>
         <v/>
       </c>
@@ -9166,22 +9389,22 @@
       <c r="G41" s="26" t="n">
         <v>45436</v>
       </c>
-      <c r="H41" s="33" t="n">
+      <c r="H41" s="52" t="n">
         <v>154505</v>
       </c>
-      <c r="I41" s="27" t="n"/>
-      <c r="J41" s="27" t="n"/>
-      <c r="K41" s="27" t="n"/>
-      <c r="L41" s="27" t="n"/>
-      <c r="M41" s="27" t="n"/>
-      <c r="N41" s="27" t="n"/>
-      <c r="O41" s="27" t="n"/>
-      <c r="P41" s="27" t="n"/>
-      <c r="Q41" s="27" t="n"/>
-      <c r="R41" s="27" t="n">
+      <c r="I41" s="50" t="n"/>
+      <c r="J41" s="50" t="n"/>
+      <c r="K41" s="50" t="n"/>
+      <c r="L41" s="50" t="n"/>
+      <c r="M41" s="50" t="n"/>
+      <c r="N41" s="50" t="n"/>
+      <c r="O41" s="50" t="n"/>
+      <c r="P41" s="50" t="n"/>
+      <c r="Q41" s="50" t="n"/>
+      <c r="R41" s="50" t="n">
         <v>29356</v>
       </c>
-      <c r="S41" s="27">
+      <c r="S41" s="50">
         <f>SUM(H41:R41)</f>
         <v/>
       </c>
@@ -9216,25 +9439,25 @@
       <c r="G42" s="26" t="n">
         <v>45443</v>
       </c>
-      <c r="H42" s="33">
+      <c r="H42" s="52">
         <f>74244-4580</f>
         <v/>
       </c>
-      <c r="I42" s="27" t="n"/>
-      <c r="J42" s="27" t="n"/>
-      <c r="K42" s="27" t="n"/>
-      <c r="L42" s="27" t="n"/>
-      <c r="M42" s="27" t="n"/>
-      <c r="N42" s="27" t="n">
+      <c r="I42" s="50" t="n"/>
+      <c r="J42" s="50" t="n"/>
+      <c r="K42" s="50" t="n"/>
+      <c r="L42" s="50" t="n"/>
+      <c r="M42" s="50" t="n"/>
+      <c r="N42" s="50" t="n">
         <v>4580</v>
       </c>
-      <c r="O42" s="27" t="n"/>
-      <c r="P42" s="27" t="n"/>
-      <c r="Q42" s="27" t="n"/>
-      <c r="R42" s="27" t="n">
+      <c r="O42" s="50" t="n"/>
+      <c r="P42" s="50" t="n"/>
+      <c r="Q42" s="50" t="n"/>
+      <c r="R42" s="50" t="n">
         <v>14106</v>
       </c>
-      <c r="S42" s="27">
+      <c r="S42" s="50">
         <f>SUM(H42:R42)</f>
         <v/>
       </c>
@@ -9269,22 +9492,22 @@
       <c r="G43" s="26" t="n">
         <v>45442</v>
       </c>
-      <c r="H43" s="33" t="n"/>
-      <c r="I43" s="27" t="n"/>
-      <c r="J43" s="27" t="n"/>
-      <c r="K43" s="27" t="n"/>
-      <c r="L43" s="27" t="n"/>
-      <c r="M43" s="27" t="n"/>
-      <c r="N43" s="27" t="n"/>
-      <c r="O43" s="27" t="n"/>
-      <c r="P43" s="27" t="n"/>
-      <c r="Q43" s="27" t="n">
+      <c r="H43" s="52" t="n"/>
+      <c r="I43" s="50" t="n"/>
+      <c r="J43" s="50" t="n"/>
+      <c r="K43" s="50" t="n"/>
+      <c r="L43" s="50" t="n"/>
+      <c r="M43" s="50" t="n"/>
+      <c r="N43" s="50" t="n"/>
+      <c r="O43" s="50" t="n"/>
+      <c r="P43" s="50" t="n"/>
+      <c r="Q43" s="50" t="n">
         <v>1968</v>
       </c>
-      <c r="R43" s="27" t="n">
+      <c r="R43" s="50" t="n">
         <v>374</v>
       </c>
-      <c r="S43" s="27">
+      <c r="S43" s="50">
         <f>SUM(H43:R43)</f>
         <v/>
       </c>
@@ -9319,22 +9542,22 @@
       <c r="G44" s="26" t="n">
         <v>45449</v>
       </c>
-      <c r="H44" s="33" t="n"/>
-      <c r="I44" s="27" t="n"/>
-      <c r="J44" s="27" t="n"/>
-      <c r="K44" s="27" t="n"/>
-      <c r="L44" s="27" t="n"/>
-      <c r="M44" s="27" t="n">
+      <c r="H44" s="52" t="n"/>
+      <c r="I44" s="50" t="n"/>
+      <c r="J44" s="50" t="n"/>
+      <c r="K44" s="50" t="n"/>
+      <c r="L44" s="50" t="n"/>
+      <c r="M44" s="50" t="n">
         <v>5269</v>
       </c>
-      <c r="N44" s="27" t="n"/>
-      <c r="O44" s="27" t="n"/>
-      <c r="P44" s="27" t="n"/>
-      <c r="Q44" s="27" t="n"/>
-      <c r="R44" s="27" t="n">
+      <c r="N44" s="50" t="n"/>
+      <c r="O44" s="50" t="n"/>
+      <c r="P44" s="50" t="n"/>
+      <c r="Q44" s="50" t="n"/>
+      <c r="R44" s="50" t="n">
         <v>1001</v>
       </c>
-      <c r="S44" s="27">
+      <c r="S44" s="50">
         <f>SUM(H44:R44)</f>
         <v/>
       </c>
@@ -9369,22 +9592,22 @@
       <c r="G45" s="26" t="n">
         <v>45449</v>
       </c>
-      <c r="H45" s="33" t="n"/>
-      <c r="I45" s="27" t="n"/>
-      <c r="J45" s="27" t="n"/>
-      <c r="K45" s="27" t="n"/>
-      <c r="L45" s="27" t="n"/>
-      <c r="M45" s="27" t="n"/>
-      <c r="N45" s="27" t="n"/>
-      <c r="O45" s="27" t="n">
+      <c r="H45" s="52" t="n"/>
+      <c r="I45" s="50" t="n"/>
+      <c r="J45" s="50" t="n"/>
+      <c r="K45" s="50" t="n"/>
+      <c r="L45" s="50" t="n"/>
+      <c r="M45" s="50" t="n"/>
+      <c r="N45" s="50" t="n"/>
+      <c r="O45" s="50" t="n">
         <v>34456</v>
       </c>
-      <c r="P45" s="27" t="n"/>
-      <c r="Q45" s="27" t="n"/>
-      <c r="R45" s="27" t="n">
+      <c r="P45" s="50" t="n"/>
+      <c r="Q45" s="50" t="n"/>
+      <c r="R45" s="50" t="n">
         <v>6547</v>
       </c>
-      <c r="S45" s="27">
+      <c r="S45" s="50">
         <f>SUM(H45:R45)</f>
         <v/>
       </c>
@@ -9419,22 +9642,22 @@
       <c r="G46" s="26" t="n">
         <v>45455</v>
       </c>
-      <c r="H46" s="33" t="n">
+      <c r="H46" s="52" t="n">
         <v>69126</v>
       </c>
-      <c r="I46" s="27" t="n"/>
-      <c r="J46" s="27" t="n"/>
-      <c r="K46" s="27" t="n"/>
-      <c r="L46" s="27" t="n"/>
-      <c r="M46" s="27" t="n"/>
-      <c r="N46" s="27" t="n"/>
-      <c r="O46" s="27" t="n"/>
-      <c r="P46" s="27" t="n"/>
-      <c r="Q46" s="27" t="n"/>
-      <c r="R46" s="27" t="n">
+      <c r="I46" s="50" t="n"/>
+      <c r="J46" s="50" t="n"/>
+      <c r="K46" s="50" t="n"/>
+      <c r="L46" s="50" t="n"/>
+      <c r="M46" s="50" t="n"/>
+      <c r="N46" s="50" t="n"/>
+      <c r="O46" s="50" t="n"/>
+      <c r="P46" s="50" t="n"/>
+      <c r="Q46" s="50" t="n"/>
+      <c r="R46" s="50" t="n">
         <v>13134</v>
       </c>
-      <c r="S46" s="27">
+      <c r="S46" s="50">
         <f>SUM(H46:R46)</f>
         <v/>
       </c>
@@ -9469,22 +9692,22 @@
       <c r="G47" s="4" t="n">
         <v>45456</v>
       </c>
-      <c r="H47" s="13" t="n">
+      <c r="H47" s="42" t="n">
         <v>94399</v>
       </c>
-      <c r="I47" s="7" t="n"/>
-      <c r="J47" s="7" t="n"/>
-      <c r="K47" s="7" t="n"/>
-      <c r="L47" s="7" t="n"/>
-      <c r="M47" s="7" t="n"/>
-      <c r="N47" s="7" t="n"/>
-      <c r="O47" s="7" t="n"/>
-      <c r="P47" s="7" t="n"/>
-      <c r="Q47" s="7" t="n"/>
-      <c r="R47" s="7" t="n">
+      <c r="I47" s="51" t="n"/>
+      <c r="J47" s="51" t="n"/>
+      <c r="K47" s="51" t="n"/>
+      <c r="L47" s="51" t="n"/>
+      <c r="M47" s="51" t="n"/>
+      <c r="N47" s="51" t="n"/>
+      <c r="O47" s="51" t="n"/>
+      <c r="P47" s="51" t="n"/>
+      <c r="Q47" s="51" t="n"/>
+      <c r="R47" s="51" t="n">
         <v>17936</v>
       </c>
-      <c r="S47" s="7">
+      <c r="S47" s="51">
         <f>SUM(H47:R47)</f>
         <v/>
       </c>
@@ -9514,22 +9737,22 @@
       <c r="G48" s="26" t="n">
         <v>45457</v>
       </c>
-      <c r="H48" s="33" t="n">
+      <c r="H48" s="52" t="n">
         <v>84062</v>
       </c>
-      <c r="I48" s="27" t="n"/>
-      <c r="J48" s="27" t="n"/>
-      <c r="K48" s="27" t="n"/>
-      <c r="L48" s="27" t="n"/>
-      <c r="M48" s="27" t="n"/>
-      <c r="N48" s="27" t="n"/>
-      <c r="O48" s="27" t="n"/>
-      <c r="P48" s="27" t="n"/>
-      <c r="Q48" s="27" t="n"/>
-      <c r="R48" s="27" t="n">
+      <c r="I48" s="50" t="n"/>
+      <c r="J48" s="50" t="n"/>
+      <c r="K48" s="50" t="n"/>
+      <c r="L48" s="50" t="n"/>
+      <c r="M48" s="50" t="n"/>
+      <c r="N48" s="50" t="n"/>
+      <c r="O48" s="50" t="n"/>
+      <c r="P48" s="50" t="n"/>
+      <c r="Q48" s="50" t="n"/>
+      <c r="R48" s="50" t="n">
         <v>15972</v>
       </c>
-      <c r="S48" s="27">
+      <c r="S48" s="50">
         <f>SUM(H48:R48)</f>
         <v/>
       </c>
@@ -9564,22 +9787,22 @@
       <c r="G49" s="4" t="n">
         <v>45457</v>
       </c>
-      <c r="H49" s="13" t="n">
+      <c r="H49" s="42" t="n">
         <v>32000</v>
       </c>
-      <c r="I49" s="7" t="n"/>
-      <c r="J49" s="7" t="n"/>
-      <c r="K49" s="7" t="n"/>
-      <c r="L49" s="7" t="n"/>
-      <c r="M49" s="7" t="n"/>
-      <c r="N49" s="7" t="n"/>
-      <c r="O49" s="7" t="n"/>
-      <c r="P49" s="7" t="n"/>
-      <c r="Q49" s="7" t="n"/>
-      <c r="R49" s="7" t="n">
+      <c r="I49" s="51" t="n"/>
+      <c r="J49" s="51" t="n"/>
+      <c r="K49" s="51" t="n"/>
+      <c r="L49" s="51" t="n"/>
+      <c r="M49" s="51" t="n"/>
+      <c r="N49" s="51" t="n"/>
+      <c r="O49" s="51" t="n"/>
+      <c r="P49" s="51" t="n"/>
+      <c r="Q49" s="51" t="n"/>
+      <c r="R49" s="51" t="n">
         <v>6080</v>
       </c>
-      <c r="S49" s="7">
+      <c r="S49" s="51">
         <f>SUM(H49:R49)</f>
         <v/>
       </c>
@@ -9609,22 +9832,22 @@
       <c r="G50" s="4" t="n">
         <v>45459</v>
       </c>
-      <c r="H50" s="13" t="n">
+      <c r="H50" s="42" t="n">
         <v>19731</v>
       </c>
-      <c r="I50" s="7" t="n"/>
-      <c r="J50" s="7" t="n"/>
-      <c r="K50" s="7" t="n"/>
-      <c r="L50" s="7" t="n"/>
-      <c r="M50" s="7" t="n"/>
-      <c r="N50" s="7" t="n"/>
-      <c r="O50" s="7" t="n"/>
-      <c r="P50" s="7" t="n"/>
-      <c r="Q50" s="7" t="n"/>
-      <c r="R50" s="7" t="n">
+      <c r="I50" s="51" t="n"/>
+      <c r="J50" s="51" t="n"/>
+      <c r="K50" s="51" t="n"/>
+      <c r="L50" s="51" t="n"/>
+      <c r="M50" s="51" t="n"/>
+      <c r="N50" s="51" t="n"/>
+      <c r="O50" s="51" t="n"/>
+      <c r="P50" s="51" t="n"/>
+      <c r="Q50" s="51" t="n"/>
+      <c r="R50" s="51" t="n">
         <v>3749</v>
       </c>
-      <c r="S50" s="7">
+      <c r="S50" s="51">
         <f>SUM(H50:R50)</f>
         <v/>
       </c>
@@ -9654,22 +9877,22 @@
       <c r="G51" s="26" t="n">
         <v>45463</v>
       </c>
-      <c r="H51" s="33" t="n"/>
-      <c r="I51" s="27" t="n"/>
-      <c r="J51" s="27" t="n"/>
-      <c r="K51" s="27" t="n"/>
-      <c r="L51" s="27" t="n"/>
-      <c r="M51" s="27" t="n"/>
-      <c r="N51" s="27" t="n">
+      <c r="H51" s="52" t="n"/>
+      <c r="I51" s="50" t="n"/>
+      <c r="J51" s="50" t="n"/>
+      <c r="K51" s="50" t="n"/>
+      <c r="L51" s="50" t="n"/>
+      <c r="M51" s="50" t="n"/>
+      <c r="N51" s="50" t="n">
         <v>9832</v>
       </c>
-      <c r="O51" s="27" t="n"/>
-      <c r="P51" s="27" t="n"/>
-      <c r="Q51" s="27" t="n"/>
-      <c r="R51" s="27" t="n">
+      <c r="O51" s="50" t="n"/>
+      <c r="P51" s="50" t="n"/>
+      <c r="Q51" s="50" t="n"/>
+      <c r="R51" s="50" t="n">
         <v>1868</v>
       </c>
-      <c r="S51" s="27">
+      <c r="S51" s="50">
         <f>SUM(H51:R51)</f>
         <v/>
       </c>
@@ -9704,22 +9927,22 @@
       <c r="G52" s="26" t="n">
         <v>45467</v>
       </c>
-      <c r="H52" s="33" t="n">
+      <c r="H52" s="52" t="n">
         <v>92437</v>
       </c>
-      <c r="I52" s="27" t="n"/>
-      <c r="J52" s="27" t="n"/>
-      <c r="K52" s="27" t="n"/>
-      <c r="L52" s="27" t="n"/>
-      <c r="M52" s="27" t="n"/>
-      <c r="N52" s="27" t="n"/>
-      <c r="O52" s="27" t="n"/>
-      <c r="P52" s="27" t="n"/>
-      <c r="Q52" s="27" t="n"/>
-      <c r="R52" s="27" t="n">
+      <c r="I52" s="50" t="n"/>
+      <c r="J52" s="50" t="n"/>
+      <c r="K52" s="50" t="n"/>
+      <c r="L52" s="50" t="n"/>
+      <c r="M52" s="50" t="n"/>
+      <c r="N52" s="50" t="n"/>
+      <c r="O52" s="50" t="n"/>
+      <c r="P52" s="50" t="n"/>
+      <c r="Q52" s="50" t="n"/>
+      <c r="R52" s="50" t="n">
         <v>17563</v>
       </c>
-      <c r="S52" s="27">
+      <c r="S52" s="50">
         <f>SUM(H52:R52)</f>
         <v/>
       </c>
@@ -9754,22 +9977,22 @@
       <c r="G53" s="26" t="n">
         <v>45469</v>
       </c>
-      <c r="H53" s="33" t="n"/>
-      <c r="I53" s="27" t="n"/>
-      <c r="J53" s="27" t="n"/>
-      <c r="K53" s="27" t="n"/>
-      <c r="L53" s="27" t="n"/>
-      <c r="M53" s="27" t="n"/>
-      <c r="N53" s="27" t="n"/>
-      <c r="O53" s="27" t="n"/>
-      <c r="P53" s="27" t="n"/>
-      <c r="Q53" s="27" t="n">
+      <c r="H53" s="52" t="n"/>
+      <c r="I53" s="50" t="n"/>
+      <c r="J53" s="50" t="n"/>
+      <c r="K53" s="50" t="n"/>
+      <c r="L53" s="50" t="n"/>
+      <c r="M53" s="50" t="n"/>
+      <c r="N53" s="50" t="n"/>
+      <c r="O53" s="50" t="n"/>
+      <c r="P53" s="50" t="n"/>
+      <c r="Q53" s="50" t="n">
         <v>1533</v>
       </c>
-      <c r="R53" s="27" t="n">
+      <c r="R53" s="50" t="n">
         <v>291</v>
       </c>
-      <c r="S53" s="27">
+      <c r="S53" s="50">
         <f>SUM(H53:R53)</f>
         <v/>
       </c>
@@ -9804,22 +10027,22 @@
       <c r="G54" s="26" t="n">
         <v>45471</v>
       </c>
-      <c r="H54" s="33" t="n"/>
-      <c r="I54" s="33" t="n">
+      <c r="H54" s="52" t="n"/>
+      <c r="I54" s="52" t="n">
         <v>16723</v>
       </c>
-      <c r="J54" s="33" t="n"/>
-      <c r="K54" s="27" t="n"/>
-      <c r="L54" s="27" t="n"/>
-      <c r="M54" s="27" t="n"/>
-      <c r="N54" s="27" t="n"/>
-      <c r="O54" s="27" t="n"/>
-      <c r="P54" s="27" t="n"/>
-      <c r="Q54" s="27" t="n"/>
-      <c r="R54" s="27" t="n">
+      <c r="J54" s="52" t="n"/>
+      <c r="K54" s="50" t="n"/>
+      <c r="L54" s="50" t="n"/>
+      <c r="M54" s="50" t="n"/>
+      <c r="N54" s="50" t="n"/>
+      <c r="O54" s="50" t="n"/>
+      <c r="P54" s="50" t="n"/>
+      <c r="Q54" s="50" t="n"/>
+      <c r="R54" s="50" t="n">
         <v>3177</v>
       </c>
-      <c r="S54" s="27">
+      <c r="S54" s="50">
         <f>SUM(H54:R54)</f>
         <v/>
       </c>
@@ -9854,22 +10077,22 @@
       <c r="G55" s="26" t="n">
         <v>45472</v>
       </c>
-      <c r="H55" s="33" t="n"/>
-      <c r="I55" s="33" t="n">
+      <c r="H55" s="52" t="n"/>
+      <c r="I55" s="52" t="n">
         <v>7328</v>
       </c>
-      <c r="J55" s="33" t="n"/>
-      <c r="K55" s="27" t="n"/>
-      <c r="L55" s="27" t="n"/>
-      <c r="M55" s="27" t="n"/>
-      <c r="N55" s="27" t="n"/>
-      <c r="O55" s="27" t="n"/>
-      <c r="P55" s="27" t="n"/>
-      <c r="Q55" s="27" t="n"/>
-      <c r="R55" s="27" t="n">
+      <c r="J55" s="52" t="n"/>
+      <c r="K55" s="50" t="n"/>
+      <c r="L55" s="50" t="n"/>
+      <c r="M55" s="50" t="n"/>
+      <c r="N55" s="50" t="n"/>
+      <c r="O55" s="50" t="n"/>
+      <c r="P55" s="50" t="n"/>
+      <c r="Q55" s="50" t="n"/>
+      <c r="R55" s="50" t="n">
         <v>1392</v>
       </c>
-      <c r="S55" s="27">
+      <c r="S55" s="50">
         <f>SUM(H55:R55)</f>
         <v/>
       </c>
@@ -9904,22 +10127,22 @@
       <c r="G56" s="26" t="n">
         <v>45472</v>
       </c>
-      <c r="H56" s="33" t="n">
+      <c r="H56" s="52" t="n">
         <v>156642</v>
       </c>
-      <c r="I56" s="27" t="n"/>
-      <c r="J56" s="27" t="n"/>
-      <c r="K56" s="27" t="n"/>
-      <c r="L56" s="27" t="n"/>
-      <c r="M56" s="27" t="n"/>
-      <c r="N56" s="27" t="n"/>
-      <c r="O56" s="27" t="n"/>
-      <c r="P56" s="27" t="n"/>
-      <c r="Q56" s="27" t="n"/>
-      <c r="R56" s="27" t="n">
+      <c r="I56" s="50" t="n"/>
+      <c r="J56" s="50" t="n"/>
+      <c r="K56" s="50" t="n"/>
+      <c r="L56" s="50" t="n"/>
+      <c r="M56" s="50" t="n"/>
+      <c r="N56" s="50" t="n"/>
+      <c r="O56" s="50" t="n"/>
+      <c r="P56" s="50" t="n"/>
+      <c r="Q56" s="50" t="n"/>
+      <c r="R56" s="50" t="n">
         <v>29762</v>
       </c>
-      <c r="S56" s="27">
+      <c r="S56" s="50">
         <f>SUM(H56:R56)</f>
         <v/>
       </c>
@@ -9954,22 +10177,22 @@
       <c r="G57" s="4" t="n">
         <v>45449</v>
       </c>
-      <c r="H57" s="13" t="n">
+      <c r="H57" s="42" t="n">
         <v>-54893</v>
       </c>
-      <c r="I57" s="7" t="n"/>
-      <c r="J57" s="7" t="n"/>
-      <c r="K57" s="7" t="n"/>
-      <c r="L57" s="7" t="n"/>
-      <c r="M57" s="7" t="n"/>
-      <c r="N57" s="7" t="n"/>
-      <c r="O57" s="7" t="n"/>
-      <c r="P57" s="7" t="n"/>
-      <c r="Q57" s="7" t="n"/>
-      <c r="R57" s="7" t="n">
+      <c r="I57" s="51" t="n"/>
+      <c r="J57" s="51" t="n"/>
+      <c r="K57" s="51" t="n"/>
+      <c r="L57" s="51" t="n"/>
+      <c r="M57" s="51" t="n"/>
+      <c r="N57" s="51" t="n"/>
+      <c r="O57" s="51" t="n"/>
+      <c r="P57" s="51" t="n"/>
+      <c r="Q57" s="51" t="n"/>
+      <c r="R57" s="51" t="n">
         <v>-10430</v>
       </c>
-      <c r="S57" s="7">
+      <c r="S57" s="51">
         <f>SUM(H57:R57)</f>
         <v/>
       </c>
@@ -9999,22 +10222,22 @@
       <c r="G58" s="4" t="n">
         <v>45456</v>
       </c>
-      <c r="H58" s="13" t="n">
+      <c r="H58" s="42" t="n">
         <v>-69126</v>
       </c>
-      <c r="I58" s="7" t="n"/>
-      <c r="J58" s="7" t="n"/>
-      <c r="K58" s="7" t="n"/>
-      <c r="L58" s="7" t="n"/>
-      <c r="M58" s="7" t="n"/>
-      <c r="N58" s="7" t="n"/>
-      <c r="O58" s="7" t="n"/>
-      <c r="P58" s="7" t="n"/>
-      <c r="Q58" s="7" t="n"/>
-      <c r="R58" s="7" t="n">
+      <c r="I58" s="51" t="n"/>
+      <c r="J58" s="51" t="n"/>
+      <c r="K58" s="51" t="n"/>
+      <c r="L58" s="51" t="n"/>
+      <c r="M58" s="51" t="n"/>
+      <c r="N58" s="51" t="n"/>
+      <c r="O58" s="51" t="n"/>
+      <c r="P58" s="51" t="n"/>
+      <c r="Q58" s="51" t="n"/>
+      <c r="R58" s="51" t="n">
         <v>-13134</v>
       </c>
-      <c r="S58" s="7">
+      <c r="S58" s="51">
         <f>SUM(H58:R58)</f>
         <v/>
       </c>
@@ -10044,22 +10267,22 @@
       <c r="G59" s="4" t="n">
         <v>45457</v>
       </c>
-      <c r="H59" s="13" t="n">
+      <c r="H59" s="42" t="n">
         <v>-94399</v>
       </c>
-      <c r="I59" s="7" t="n"/>
-      <c r="J59" s="7" t="n"/>
-      <c r="K59" s="7" t="n"/>
-      <c r="L59" s="7" t="n"/>
-      <c r="M59" s="7" t="n"/>
-      <c r="N59" s="7" t="n"/>
-      <c r="O59" s="7" t="n"/>
-      <c r="P59" s="7" t="n"/>
-      <c r="Q59" s="7" t="n"/>
-      <c r="R59" s="7" t="n">
+      <c r="I59" s="51" t="n"/>
+      <c r="J59" s="51" t="n"/>
+      <c r="K59" s="51" t="n"/>
+      <c r="L59" s="51" t="n"/>
+      <c r="M59" s="51" t="n"/>
+      <c r="N59" s="51" t="n"/>
+      <c r="O59" s="51" t="n"/>
+      <c r="P59" s="51" t="n"/>
+      <c r="Q59" s="51" t="n"/>
+      <c r="R59" s="51" t="n">
         <v>-17936</v>
       </c>
-      <c r="S59" s="7">
+      <c r="S59" s="51">
         <f>SUM(H59:R59)</f>
         <v/>
       </c>
@@ -10089,22 +10312,22 @@
       <c r="G60" s="26" t="n">
         <v>45467</v>
       </c>
-      <c r="H60" s="33" t="n"/>
-      <c r="I60" s="27" t="n"/>
-      <c r="J60" s="27" t="n"/>
-      <c r="K60" s="27" t="n"/>
-      <c r="L60" s="27" t="n"/>
-      <c r="M60" s="27" t="n"/>
-      <c r="N60" s="27" t="n"/>
-      <c r="O60" s="27" t="n"/>
-      <c r="P60" s="27" t="n"/>
-      <c r="Q60" s="33" t="n">
+      <c r="H60" s="52" t="n"/>
+      <c r="I60" s="50" t="n"/>
+      <c r="J60" s="50" t="n"/>
+      <c r="K60" s="50" t="n"/>
+      <c r="L60" s="50" t="n"/>
+      <c r="M60" s="50" t="n"/>
+      <c r="N60" s="50" t="n"/>
+      <c r="O60" s="50" t="n"/>
+      <c r="P60" s="50" t="n"/>
+      <c r="Q60" s="52" t="n">
         <v>-544</v>
       </c>
-      <c r="R60" s="27" t="n">
+      <c r="R60" s="50" t="n">
         <v>-103</v>
       </c>
-      <c r="S60" s="27">
+      <c r="S60" s="50">
         <f>SUM(H60:R60)</f>
         <v/>
       </c>
@@ -10139,22 +10362,22 @@
       <c r="G61" s="31" t="n">
         <v>45350</v>
       </c>
-      <c r="H61" s="27" t="n"/>
-      <c r="I61" s="32" t="n"/>
-      <c r="J61" s="32" t="n"/>
-      <c r="K61" s="32" t="n"/>
-      <c r="L61" s="32" t="n"/>
-      <c r="M61" s="32" t="n"/>
-      <c r="N61" s="32" t="n"/>
-      <c r="O61" s="32" t="n"/>
-      <c r="P61" s="32" t="n"/>
-      <c r="Q61" s="32" t="n">
+      <c r="H61" s="50" t="n"/>
+      <c r="I61" s="53" t="n"/>
+      <c r="J61" s="53" t="n"/>
+      <c r="K61" s="53" t="n"/>
+      <c r="L61" s="53" t="n"/>
+      <c r="M61" s="53" t="n"/>
+      <c r="N61" s="53" t="n"/>
+      <c r="O61" s="53" t="n"/>
+      <c r="P61" s="53" t="n"/>
+      <c r="Q61" s="53" t="n">
         <v>1238</v>
       </c>
-      <c r="R61" s="32" t="n">
+      <c r="R61" s="53" t="n">
         <v>235</v>
       </c>
-      <c r="S61" s="27">
+      <c r="S61" s="50">
         <f>SUM(H61:R61)</f>
         <v/>
       </c>
@@ -10189,26 +10412,26 @@
       <c r="G62" s="31" t="n">
         <v>45358</v>
       </c>
-      <c r="H62" s="27" t="n"/>
-      <c r="I62" s="32" t="n"/>
-      <c r="J62" s="32" t="n"/>
-      <c r="K62" s="32" t="n"/>
-      <c r="L62" s="32" t="n"/>
-      <c r="M62" s="32">
+      <c r="H62" s="50" t="n"/>
+      <c r="I62" s="53" t="n"/>
+      <c r="J62" s="53" t="n"/>
+      <c r="K62" s="53" t="n"/>
+      <c r="L62" s="53" t="n"/>
+      <c r="M62" s="53">
         <f>2941+6714+1672+412*3+2513+2513</f>
         <v/>
       </c>
-      <c r="N62" s="32" t="n"/>
-      <c r="O62" s="32">
+      <c r="N62" s="53" t="n"/>
+      <c r="O62" s="53">
         <f>1681+5034+5874*4+5034*3</f>
         <v/>
       </c>
-      <c r="P62" s="32" t="n"/>
-      <c r="Q62" s="32" t="n"/>
-      <c r="R62" s="32" t="n">
+      <c r="P62" s="53" t="n"/>
+      <c r="Q62" s="53" t="n"/>
+      <c r="R62" s="53" t="n">
         <v>11948</v>
       </c>
-      <c r="S62" s="27">
+      <c r="S62" s="50">
         <f>SUM(H62:R62)</f>
         <v/>
       </c>
@@ -10243,24 +10466,24 @@
       <c r="G63" s="31" t="n">
         <v>45363</v>
       </c>
-      <c r="H63" s="27" t="n"/>
-      <c r="I63" s="32" t="n"/>
-      <c r="J63" s="32" t="n"/>
-      <c r="K63" s="32" t="n"/>
-      <c r="L63" s="32" t="n"/>
-      <c r="M63" s="32" t="n">
+      <c r="H63" s="50" t="n"/>
+      <c r="I63" s="53" t="n"/>
+      <c r="J63" s="53" t="n"/>
+      <c r="K63" s="53" t="n"/>
+      <c r="L63" s="53" t="n"/>
+      <c r="M63" s="53" t="n">
         <v>15102</v>
       </c>
-      <c r="N63" s="32" t="n"/>
-      <c r="O63" s="32" t="n">
+      <c r="N63" s="53" t="n"/>
+      <c r="O63" s="53" t="n">
         <v>8386</v>
       </c>
-      <c r="P63" s="32" t="n"/>
-      <c r="Q63" s="32" t="n"/>
-      <c r="R63" s="32" t="n">
+      <c r="P63" s="53" t="n"/>
+      <c r="Q63" s="53" t="n"/>
+      <c r="R63" s="53" t="n">
         <v>4463</v>
       </c>
-      <c r="S63" s="27">
+      <c r="S63" s="50">
         <f>SUM(H63:R63)</f>
         <v/>
       </c>
@@ -10295,22 +10518,22 @@
       <c r="G64" s="31" t="n">
         <v>45365</v>
       </c>
-      <c r="H64" s="27" t="n"/>
-      <c r="I64" s="32" t="n"/>
-      <c r="J64" s="32" t="n"/>
-      <c r="K64" s="32" t="n"/>
-      <c r="L64" s="32" t="n"/>
-      <c r="M64" s="32" t="n"/>
-      <c r="N64" s="32" t="n"/>
-      <c r="O64" s="32" t="n"/>
-      <c r="P64" s="32" t="n">
+      <c r="H64" s="50" t="n"/>
+      <c r="I64" s="53" t="n"/>
+      <c r="J64" s="53" t="n"/>
+      <c r="K64" s="53" t="n"/>
+      <c r="L64" s="53" t="n"/>
+      <c r="M64" s="53" t="n"/>
+      <c r="N64" s="53" t="n"/>
+      <c r="O64" s="53" t="n"/>
+      <c r="P64" s="53" t="n">
         <v>11760</v>
       </c>
-      <c r="Q64" s="32" t="n"/>
-      <c r="R64" s="32" t="n">
+      <c r="Q64" s="53" t="n"/>
+      <c r="R64" s="53" t="n">
         <v>2234</v>
       </c>
-      <c r="S64" s="27">
+      <c r="S64" s="50">
         <f>SUM(H64:R64)</f>
         <v/>
       </c>
@@ -10345,22 +10568,22 @@
       <c r="G65" s="31" t="n">
         <v>45367</v>
       </c>
-      <c r="H65" s="27" t="n"/>
-      <c r="I65" s="32" t="n"/>
-      <c r="J65" s="32" t="n"/>
-      <c r="K65" s="32" t="n"/>
-      <c r="L65" s="32" t="n"/>
-      <c r="M65" s="32" t="n"/>
-      <c r="N65" s="32" t="n"/>
-      <c r="O65" s="32" t="n"/>
-      <c r="P65" s="32" t="n">
+      <c r="H65" s="50" t="n"/>
+      <c r="I65" s="53" t="n"/>
+      <c r="J65" s="53" t="n"/>
+      <c r="K65" s="53" t="n"/>
+      <c r="L65" s="53" t="n"/>
+      <c r="M65" s="53" t="n"/>
+      <c r="N65" s="53" t="n"/>
+      <c r="O65" s="53" t="n"/>
+      <c r="P65" s="53" t="n">
         <v>70000</v>
       </c>
-      <c r="Q65" s="32" t="n"/>
-      <c r="R65" s="32" t="n">
+      <c r="Q65" s="53" t="n"/>
+      <c r="R65" s="53" t="n">
         <v>13300</v>
       </c>
-      <c r="S65" s="27">
+      <c r="S65" s="50">
         <f>SUM(H65:R65)</f>
         <v/>
       </c>
@@ -10395,22 +10618,22 @@
       <c r="G66" s="6" t="n">
         <v>45370</v>
       </c>
-      <c r="H66" s="7" t="n"/>
-      <c r="I66" s="8" t="n"/>
-      <c r="J66" s="8" t="n"/>
-      <c r="K66" s="8" t="n"/>
-      <c r="L66" s="8" t="n"/>
-      <c r="M66" s="8" t="n"/>
-      <c r="N66" s="8" t="n"/>
-      <c r="O66" s="8" t="n"/>
-      <c r="P66" s="8" t="n">
+      <c r="H66" s="51" t="n"/>
+      <c r="I66" s="54" t="n"/>
+      <c r="J66" s="54" t="n"/>
+      <c r="K66" s="54" t="n"/>
+      <c r="L66" s="54" t="n"/>
+      <c r="M66" s="54" t="n"/>
+      <c r="N66" s="54" t="n"/>
+      <c r="O66" s="54" t="n"/>
+      <c r="P66" s="54" t="n">
         <v>32750</v>
       </c>
-      <c r="Q66" s="8" t="n"/>
-      <c r="R66" s="8" t="n">
+      <c r="Q66" s="54" t="n"/>
+      <c r="R66" s="54" t="n">
         <v>6223</v>
       </c>
-      <c r="S66" s="7">
+      <c r="S66" s="51">
         <f>SUM(H66:R66)</f>
         <v/>
       </c>
@@ -10440,30 +10663,30 @@
       <c r="G67" s="31" t="n">
         <v>45372</v>
       </c>
-      <c r="H67" s="32">
+      <c r="H67" s="53">
         <f>5025+13840+5025+54302</f>
         <v/>
       </c>
-      <c r="I67" s="32" t="n">
+      <c r="I67" s="53" t="n">
         <v>3479</v>
       </c>
-      <c r="J67" s="32" t="n"/>
-      <c r="K67" s="32" t="n"/>
-      <c r="L67" s="32" t="n"/>
-      <c r="M67" s="32">
+      <c r="J67" s="53" t="n"/>
+      <c r="K67" s="53" t="n"/>
+      <c r="L67" s="53" t="n"/>
+      <c r="M67" s="53">
         <f>3529+1664+2765</f>
         <v/>
       </c>
-      <c r="N67" s="32" t="n"/>
-      <c r="O67" s="32" t="n"/>
-      <c r="P67" s="32" t="n">
+      <c r="N67" s="53" t="n"/>
+      <c r="O67" s="53" t="n"/>
+      <c r="P67" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="Q67" s="32" t="n"/>
-      <c r="R67" s="32" t="n">
+      <c r="Q67" s="53" t="n"/>
+      <c r="R67" s="53" t="n">
         <v>17030</v>
       </c>
-      <c r="S67" s="27">
+      <c r="S67" s="50">
         <f>SUM(H67:R67)</f>
         <v/>
       </c>
@@ -10498,24 +10721,24 @@
       <c r="G68" s="31" t="n">
         <v>45378</v>
       </c>
-      <c r="H68" s="32" t="n"/>
-      <c r="I68" s="32" t="n">
+      <c r="H68" s="53" t="n"/>
+      <c r="I68" s="53" t="n">
         <v>10579</v>
       </c>
-      <c r="J68" s="32" t="n"/>
-      <c r="K68" s="32" t="n"/>
-      <c r="L68" s="32" t="n"/>
-      <c r="M68" s="32" t="n"/>
-      <c r="N68" s="32" t="n"/>
-      <c r="O68" s="32" t="n"/>
-      <c r="P68" s="32" t="n">
+      <c r="J68" s="53" t="n"/>
+      <c r="K68" s="53" t="n"/>
+      <c r="L68" s="53" t="n"/>
+      <c r="M68" s="53" t="n"/>
+      <c r="N68" s="53" t="n"/>
+      <c r="O68" s="53" t="n"/>
+      <c r="P68" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="Q68" s="32" t="n"/>
-      <c r="R68" s="32" t="n">
+      <c r="Q68" s="53" t="n"/>
+      <c r="R68" s="53" t="n">
         <v>2010</v>
       </c>
-      <c r="S68" s="27">
+      <c r="S68" s="50">
         <f>SUM(H68:R68)</f>
         <v/>
       </c>
@@ -10550,24 +10773,24 @@
       <c r="G69" s="31" t="n">
         <v>45378</v>
       </c>
-      <c r="H69" s="32" t="n">
+      <c r="H69" s="53" t="n">
         <v>59210</v>
       </c>
-      <c r="I69" s="32" t="n"/>
-      <c r="J69" s="32" t="n"/>
-      <c r="K69" s="32" t="n"/>
-      <c r="L69" s="32" t="n"/>
-      <c r="M69" s="32" t="n"/>
-      <c r="N69" s="32" t="n"/>
-      <c r="O69" s="32" t="n"/>
-      <c r="P69" s="32" t="n">
+      <c r="I69" s="53" t="n"/>
+      <c r="J69" s="53" t="n"/>
+      <c r="K69" s="53" t="n"/>
+      <c r="L69" s="53" t="n"/>
+      <c r="M69" s="53" t="n"/>
+      <c r="N69" s="53" t="n"/>
+      <c r="O69" s="53" t="n"/>
+      <c r="P69" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="Q69" s="32" t="n"/>
-      <c r="R69" s="32" t="n">
+      <c r="Q69" s="53" t="n"/>
+      <c r="R69" s="53" t="n">
         <v>11250</v>
       </c>
-      <c r="S69" s="27">
+      <c r="S69" s="50">
         <f>SUM(H69:R69)</f>
         <v/>
       </c>
@@ -10602,24 +10825,24 @@
       <c r="G70" s="31" t="n">
         <v>45379</v>
       </c>
-      <c r="H70" s="32" t="n">
+      <c r="H70" s="53" t="n">
         <v>31950</v>
       </c>
-      <c r="I70" s="32" t="n"/>
-      <c r="J70" s="32" t="n"/>
-      <c r="K70" s="32" t="n"/>
-      <c r="L70" s="32" t="n"/>
-      <c r="M70" s="32" t="n"/>
-      <c r="N70" s="32" t="n"/>
-      <c r="O70" s="32" t="n"/>
-      <c r="P70" s="32" t="n">
+      <c r="I70" s="53" t="n"/>
+      <c r="J70" s="53" t="n"/>
+      <c r="K70" s="53" t="n"/>
+      <c r="L70" s="53" t="n"/>
+      <c r="M70" s="53" t="n"/>
+      <c r="N70" s="53" t="n"/>
+      <c r="O70" s="53" t="n"/>
+      <c r="P70" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="Q70" s="32" t="n"/>
-      <c r="R70" s="32" t="n">
+      <c r="Q70" s="53" t="n"/>
+      <c r="R70" s="53" t="n">
         <v>6070</v>
       </c>
-      <c r="S70" s="27">
+      <c r="S70" s="50">
         <f>SUM(H70:R70)</f>
         <v/>
       </c>
@@ -10654,22 +10877,22 @@
       <c r="G71" s="31" t="n">
         <v>45379</v>
       </c>
-      <c r="H71" s="27" t="n"/>
-      <c r="I71" s="32" t="n"/>
-      <c r="J71" s="32" t="n"/>
-      <c r="K71" s="32" t="n"/>
-      <c r="L71" s="32" t="n"/>
-      <c r="M71" s="32" t="n"/>
-      <c r="N71" s="32" t="n"/>
-      <c r="O71" s="32" t="n"/>
-      <c r="P71" s="32" t="n">
+      <c r="H71" s="50" t="n"/>
+      <c r="I71" s="53" t="n"/>
+      <c r="J71" s="53" t="n"/>
+      <c r="K71" s="53" t="n"/>
+      <c r="L71" s="53" t="n"/>
+      <c r="M71" s="53" t="n"/>
+      <c r="N71" s="53" t="n"/>
+      <c r="O71" s="53" t="n"/>
+      <c r="P71" s="53" t="n">
         <v>7033</v>
       </c>
-      <c r="Q71" s="32" t="n"/>
-      <c r="R71" s="32" t="n">
+      <c r="Q71" s="53" t="n"/>
+      <c r="R71" s="53" t="n">
         <v>1336</v>
       </c>
-      <c r="S71" s="27">
+      <c r="S71" s="50">
         <f>SUM(H71:R71)</f>
         <v/>
       </c>
@@ -10704,22 +10927,22 @@
       <c r="G72" s="31" t="n">
         <v>45377</v>
       </c>
-      <c r="H72" s="27" t="n"/>
-      <c r="I72" s="32" t="n"/>
-      <c r="J72" s="32" t="n"/>
-      <c r="K72" s="32" t="n"/>
-      <c r="L72" s="32" t="n"/>
-      <c r="M72" s="32" t="n"/>
-      <c r="N72" s="32" t="n"/>
-      <c r="O72" s="32" t="n"/>
-      <c r="P72" s="32" t="n"/>
-      <c r="Q72" s="32" t="n">
+      <c r="H72" s="50" t="n"/>
+      <c r="I72" s="53" t="n"/>
+      <c r="J72" s="53" t="n"/>
+      <c r="K72" s="53" t="n"/>
+      <c r="L72" s="53" t="n"/>
+      <c r="M72" s="53" t="n"/>
+      <c r="N72" s="53" t="n"/>
+      <c r="O72" s="53" t="n"/>
+      <c r="P72" s="53" t="n"/>
+      <c r="Q72" s="53" t="n">
         <v>301</v>
       </c>
-      <c r="R72" s="32" t="n">
+      <c r="R72" s="53" t="n">
         <v>57</v>
       </c>
-      <c r="S72" s="27">
+      <c r="S72" s="50">
         <f>SUM(H72:R72)</f>
         <v/>
       </c>
@@ -10754,22 +10977,22 @@
       <c r="G73" s="31" t="n">
         <v>45378</v>
       </c>
-      <c r="H73" s="27" t="n"/>
-      <c r="I73" s="32" t="n"/>
-      <c r="J73" s="32" t="n"/>
-      <c r="K73" s="32" t="n"/>
-      <c r="L73" s="32" t="n"/>
-      <c r="M73" s="32" t="n"/>
-      <c r="N73" s="32" t="n"/>
-      <c r="O73" s="32" t="n"/>
-      <c r="P73" s="32" t="n"/>
-      <c r="Q73" s="32" t="n">
+      <c r="H73" s="50" t="n"/>
+      <c r="I73" s="53" t="n"/>
+      <c r="J73" s="53" t="n"/>
+      <c r="K73" s="53" t="n"/>
+      <c r="L73" s="53" t="n"/>
+      <c r="M73" s="53" t="n"/>
+      <c r="N73" s="53" t="n"/>
+      <c r="O73" s="53" t="n"/>
+      <c r="P73" s="53" t="n"/>
+      <c r="Q73" s="53" t="n">
         <v>3190</v>
       </c>
-      <c r="R73" s="32" t="n">
+      <c r="R73" s="53" t="n">
         <v>606</v>
       </c>
-      <c r="S73" s="27">
+      <c r="S73" s="50">
         <f>SUM(H73:R73)</f>
         <v/>
       </c>
@@ -10804,22 +11027,22 @@
       <c r="G74" s="31" t="n">
         <v>45381</v>
       </c>
-      <c r="H74" s="27" t="n"/>
-      <c r="I74" s="32" t="n"/>
-      <c r="J74" s="32" t="n"/>
-      <c r="K74" s="32" t="n"/>
-      <c r="L74" s="32" t="n"/>
-      <c r="M74" s="32" t="n"/>
-      <c r="N74" s="32" t="n"/>
-      <c r="O74" s="32" t="n"/>
-      <c r="P74" s="32" t="n">
+      <c r="H74" s="50" t="n"/>
+      <c r="I74" s="53" t="n"/>
+      <c r="J74" s="53" t="n"/>
+      <c r="K74" s="53" t="n"/>
+      <c r="L74" s="53" t="n"/>
+      <c r="M74" s="53" t="n"/>
+      <c r="N74" s="53" t="n"/>
+      <c r="O74" s="53" t="n"/>
+      <c r="P74" s="53" t="n">
         <v>25001</v>
       </c>
-      <c r="Q74" s="32" t="n"/>
-      <c r="R74" s="32" t="n">
+      <c r="Q74" s="53" t="n"/>
+      <c r="R74" s="53" t="n">
         <v>4749</v>
       </c>
-      <c r="S74" s="27">
+      <c r="S74" s="50">
         <f>SUM(H74:R74)</f>
         <v/>
       </c>
@@ -10854,22 +11077,22 @@
       <c r="G75" s="31" t="n">
         <v>45382</v>
       </c>
-      <c r="H75" s="27" t="n"/>
-      <c r="I75" s="32" t="n"/>
-      <c r="J75" s="32" t="n"/>
-      <c r="K75" s="32" t="n"/>
-      <c r="L75" s="32" t="n"/>
-      <c r="M75" s="32" t="n"/>
-      <c r="N75" s="32" t="n"/>
-      <c r="O75" s="32" t="n"/>
-      <c r="P75" s="32" t="n">
+      <c r="H75" s="50" t="n"/>
+      <c r="I75" s="53" t="n"/>
+      <c r="J75" s="53" t="n"/>
+      <c r="K75" s="53" t="n"/>
+      <c r="L75" s="53" t="n"/>
+      <c r="M75" s="53" t="n"/>
+      <c r="N75" s="53" t="n"/>
+      <c r="O75" s="53" t="n"/>
+      <c r="P75" s="53" t="n">
         <v>-10319</v>
       </c>
-      <c r="Q75" s="32" t="n"/>
-      <c r="R75" s="32" t="n">
+      <c r="Q75" s="53" t="n"/>
+      <c r="R75" s="53" t="n">
         <v>-1961</v>
       </c>
-      <c r="S75" s="27">
+      <c r="S75" s="50">
         <f>SUM(H75:R75)</f>
         <v/>
       </c>
@@ -10904,28 +11127,28 @@
       <c r="G76" s="26" t="n">
         <v>45409</v>
       </c>
-      <c r="H76" s="27" t="n"/>
-      <c r="I76" s="27">
+      <c r="H76" s="50" t="n"/>
+      <c r="I76" s="50">
         <f>6218+7059-2961</f>
         <v/>
       </c>
-      <c r="J76" s="27" t="n"/>
-      <c r="K76" s="27" t="n"/>
-      <c r="L76" s="27" t="n"/>
-      <c r="M76" s="27">
+      <c r="J76" s="50" t="n"/>
+      <c r="K76" s="50" t="n"/>
+      <c r="L76" s="50" t="n"/>
+      <c r="M76" s="50">
         <f>832+1664+10067+3773</f>
         <v/>
       </c>
-      <c r="N76" s="27" t="n"/>
-      <c r="O76" s="27" t="n"/>
-      <c r="P76" s="27" t="n">
+      <c r="N76" s="50" t="n"/>
+      <c r="O76" s="50" t="n"/>
+      <c r="P76" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q76" s="27" t="n"/>
-      <c r="R76" s="27" t="n">
+      <c r="Q76" s="50" t="n"/>
+      <c r="R76" s="50" t="n">
         <v>5064</v>
       </c>
-      <c r="S76" s="27">
+      <c r="S76" s="50">
         <f>SUM(H76:R76)</f>
         <v/>
       </c>
@@ -10960,22 +11183,22 @@
       <c r="G77" s="26" t="n">
         <v>45411</v>
       </c>
-      <c r="H77" s="27" t="n"/>
-      <c r="I77" s="27" t="n"/>
-      <c r="J77" s="27" t="n"/>
-      <c r="K77" s="27" t="n"/>
-      <c r="L77" s="27" t="n"/>
-      <c r="M77" s="27" t="n"/>
-      <c r="N77" s="27" t="n"/>
-      <c r="O77" s="27" t="n"/>
-      <c r="P77" s="27" t="n"/>
-      <c r="Q77" s="27" t="n">
+      <c r="H77" s="50" t="n"/>
+      <c r="I77" s="50" t="n"/>
+      <c r="J77" s="50" t="n"/>
+      <c r="K77" s="50" t="n"/>
+      <c r="L77" s="50" t="n"/>
+      <c r="M77" s="50" t="n"/>
+      <c r="N77" s="50" t="n"/>
+      <c r="O77" s="50" t="n"/>
+      <c r="P77" s="50" t="n"/>
+      <c r="Q77" s="50" t="n">
         <v>7680</v>
       </c>
-      <c r="R77" s="27" t="n">
+      <c r="R77" s="50" t="n">
         <v>1459</v>
       </c>
-      <c r="S77" s="27">
+      <c r="S77" s="50">
         <f>SUM(H77:R77)</f>
         <v/>
       </c>
@@ -11010,24 +11233,24 @@
       <c r="G78" s="26" t="n">
         <v>45418</v>
       </c>
-      <c r="H78" s="27" t="n"/>
-      <c r="I78" s="27" t="n"/>
-      <c r="J78" s="27" t="n"/>
-      <c r="K78" s="27" t="n"/>
-      <c r="L78" s="27" t="n">
+      <c r="H78" s="50" t="n"/>
+      <c r="I78" s="50" t="n"/>
+      <c r="J78" s="50" t="n"/>
+      <c r="K78" s="50" t="n"/>
+      <c r="L78" s="50" t="n">
         <v>10000</v>
       </c>
-      <c r="M78" s="27" t="n"/>
-      <c r="N78" s="27" t="n"/>
-      <c r="O78" s="27" t="n"/>
-      <c r="P78" s="27" t="n">
+      <c r="M78" s="50" t="n"/>
+      <c r="N78" s="50" t="n"/>
+      <c r="O78" s="50" t="n"/>
+      <c r="P78" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q78" s="27" t="n"/>
-      <c r="R78" s="27" t="n">
+      <c r="Q78" s="50" t="n"/>
+      <c r="R78" s="50" t="n">
         <v>1900</v>
       </c>
-      <c r="S78" s="27">
+      <c r="S78" s="50">
         <f>SUM(H78:R78)</f>
         <v/>
       </c>
@@ -11062,22 +11285,22 @@
       <c r="G79" s="26" t="n">
         <v>45420</v>
       </c>
-      <c r="H79" s="27" t="n"/>
-      <c r="I79" s="27" t="n"/>
-      <c r="J79" s="27" t="n"/>
-      <c r="K79" s="27" t="n"/>
-      <c r="L79" s="27" t="n"/>
-      <c r="M79" s="27" t="n"/>
-      <c r="N79" s="27" t="n"/>
-      <c r="O79" s="27" t="n"/>
-      <c r="P79" s="27" t="n">
+      <c r="H79" s="50" t="n"/>
+      <c r="I79" s="50" t="n"/>
+      <c r="J79" s="50" t="n"/>
+      <c r="K79" s="50" t="n"/>
+      <c r="L79" s="50" t="n"/>
+      <c r="M79" s="50" t="n"/>
+      <c r="N79" s="50" t="n"/>
+      <c r="O79" s="50" t="n"/>
+      <c r="P79" s="50" t="n">
         <v>17091</v>
       </c>
-      <c r="Q79" s="27" t="n"/>
-      <c r="R79" s="27" t="n">
+      <c r="Q79" s="50" t="n"/>
+      <c r="R79" s="50" t="n">
         <v>3247</v>
       </c>
-      <c r="S79" s="27">
+      <c r="S79" s="50">
         <f>SUM(H79:R79)</f>
         <v/>
       </c>
@@ -11112,24 +11335,24 @@
       <c r="G80" s="26" t="n">
         <v>45421</v>
       </c>
-      <c r="H80" s="27" t="n">
+      <c r="H80" s="50" t="n">
         <v>78546</v>
       </c>
-      <c r="I80" s="27" t="n"/>
-      <c r="J80" s="27" t="n"/>
-      <c r="K80" s="27" t="n"/>
-      <c r="L80" s="27" t="n"/>
-      <c r="M80" s="27" t="n"/>
-      <c r="N80" s="27" t="n"/>
-      <c r="O80" s="27" t="n"/>
-      <c r="P80" s="27" t="n">
+      <c r="I80" s="50" t="n"/>
+      <c r="J80" s="50" t="n"/>
+      <c r="K80" s="50" t="n"/>
+      <c r="L80" s="50" t="n"/>
+      <c r="M80" s="50" t="n"/>
+      <c r="N80" s="50" t="n"/>
+      <c r="O80" s="50" t="n"/>
+      <c r="P80" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q80" s="27" t="n"/>
-      <c r="R80" s="27" t="n">
+      <c r="Q80" s="50" t="n"/>
+      <c r="R80" s="50" t="n">
         <v>14924</v>
       </c>
-      <c r="S80" s="27">
+      <c r="S80" s="50">
         <f>SUM(H80:R80)</f>
         <v/>
       </c>
@@ -11164,26 +11387,26 @@
       <c r="G81" s="26" t="n">
         <v>45421</v>
       </c>
-      <c r="H81" s="27" t="n"/>
-      <c r="I81" s="27" t="n"/>
-      <c r="J81" s="27" t="n"/>
-      <c r="K81" s="27" t="n">
+      <c r="H81" s="50" t="n"/>
+      <c r="I81" s="50" t="n"/>
+      <c r="J81" s="50" t="n"/>
+      <c r="K81" s="50" t="n">
         <v>7773</v>
       </c>
-      <c r="L81" s="27" t="n"/>
-      <c r="M81" s="27" t="n">
+      <c r="L81" s="50" t="n"/>
+      <c r="M81" s="50" t="n">
         <v>1672</v>
       </c>
-      <c r="N81" s="27" t="n"/>
-      <c r="O81" s="27" t="n"/>
-      <c r="P81" s="27" t="n">
+      <c r="N81" s="50" t="n"/>
+      <c r="O81" s="50" t="n"/>
+      <c r="P81" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q81" s="27" t="n"/>
-      <c r="R81" s="27" t="n">
+      <c r="Q81" s="50" t="n"/>
+      <c r="R81" s="50" t="n">
         <v>1795</v>
       </c>
-      <c r="S81" s="27">
+      <c r="S81" s="50">
         <f>SUM(H81:R81)</f>
         <v/>
       </c>
@@ -11218,24 +11441,24 @@
       <c r="G82" s="26" t="n">
         <v>45421</v>
       </c>
-      <c r="H82" s="27" t="n"/>
-      <c r="I82" s="27" t="n">
+      <c r="H82" s="50" t="n"/>
+      <c r="I82" s="50" t="n">
         <v>7591</v>
       </c>
-      <c r="J82" s="27" t="n"/>
-      <c r="K82" s="27" t="n"/>
-      <c r="L82" s="27" t="n"/>
-      <c r="M82" s="27" t="n"/>
-      <c r="N82" s="27" t="n"/>
-      <c r="O82" s="27" t="n"/>
-      <c r="P82" s="27" t="n">
+      <c r="J82" s="50" t="n"/>
+      <c r="K82" s="50" t="n"/>
+      <c r="L82" s="50" t="n"/>
+      <c r="M82" s="50" t="n"/>
+      <c r="N82" s="50" t="n"/>
+      <c r="O82" s="50" t="n"/>
+      <c r="P82" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q82" s="27" t="n"/>
-      <c r="R82" s="27" t="n">
+      <c r="Q82" s="50" t="n"/>
+      <c r="R82" s="50" t="n">
         <v>1442</v>
       </c>
-      <c r="S82" s="27">
+      <c r="S82" s="50">
         <f>SUM(H82:R82)</f>
         <v/>
       </c>
@@ -11270,24 +11493,24 @@
       <c r="G83" s="26" t="n">
         <v>45422</v>
       </c>
-      <c r="H83" s="27" t="n">
+      <c r="H83" s="50" t="n">
         <v>154505</v>
       </c>
-      <c r="I83" s="27" t="n"/>
-      <c r="J83" s="27" t="n"/>
-      <c r="K83" s="27" t="n"/>
-      <c r="L83" s="27" t="n"/>
-      <c r="M83" s="27" t="n"/>
-      <c r="N83" s="27" t="n"/>
-      <c r="O83" s="27" t="n"/>
-      <c r="P83" s="27" t="n">
+      <c r="I83" s="50" t="n"/>
+      <c r="J83" s="50" t="n"/>
+      <c r="K83" s="50" t="n"/>
+      <c r="L83" s="50" t="n"/>
+      <c r="M83" s="50" t="n"/>
+      <c r="N83" s="50" t="n"/>
+      <c r="O83" s="50" t="n"/>
+      <c r="P83" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q83" s="27" t="n"/>
-      <c r="R83" s="27" t="n">
+      <c r="Q83" s="50" t="n"/>
+      <c r="R83" s="50" t="n">
         <v>29356</v>
       </c>
-      <c r="S83" s="27">
+      <c r="S83" s="50">
         <f>SUM(H83:R83)</f>
         <v/>
       </c>
@@ -11322,24 +11545,24 @@
       <c r="G84" s="26" t="n">
         <v>45427</v>
       </c>
-      <c r="H84" s="27" t="n">
+      <c r="H84" s="50" t="n">
         <v>47537</v>
       </c>
-      <c r="I84" s="27" t="n"/>
-      <c r="J84" s="27" t="n"/>
-      <c r="K84" s="27" t="n"/>
-      <c r="L84" s="27" t="n"/>
-      <c r="M84" s="27" t="n"/>
-      <c r="N84" s="27" t="n"/>
-      <c r="O84" s="27" t="n"/>
-      <c r="P84" s="27" t="n">
+      <c r="I84" s="50" t="n"/>
+      <c r="J84" s="50" t="n"/>
+      <c r="K84" s="50" t="n"/>
+      <c r="L84" s="50" t="n"/>
+      <c r="M84" s="50" t="n"/>
+      <c r="N84" s="50" t="n"/>
+      <c r="O84" s="50" t="n"/>
+      <c r="P84" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q84" s="27" t="n"/>
-      <c r="R84" s="27" t="n">
+      <c r="Q84" s="50" t="n"/>
+      <c r="R84" s="50" t="n">
         <v>9032</v>
       </c>
-      <c r="S84" s="27">
+      <c r="S84" s="50">
         <f>SUM(H84:R84)</f>
         <v/>
       </c>
@@ -11374,24 +11597,24 @@
       <c r="G85" s="26" t="n">
         <v>45428</v>
       </c>
-      <c r="H85" s="27" t="n">
+      <c r="H85" s="50" t="n">
         <v>62213</v>
       </c>
-      <c r="I85" s="27" t="n"/>
-      <c r="J85" s="27" t="n"/>
-      <c r="K85" s="27" t="n"/>
-      <c r="L85" s="27" t="n"/>
-      <c r="M85" s="27" t="n"/>
-      <c r="N85" s="27" t="n"/>
-      <c r="O85" s="27" t="n"/>
-      <c r="P85" s="27" t="n">
+      <c r="I85" s="50" t="n"/>
+      <c r="J85" s="50" t="n"/>
+      <c r="K85" s="50" t="n"/>
+      <c r="L85" s="50" t="n"/>
+      <c r="M85" s="50" t="n"/>
+      <c r="N85" s="50" t="n"/>
+      <c r="O85" s="50" t="n"/>
+      <c r="P85" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q85" s="27" t="n"/>
-      <c r="R85" s="27" t="n">
+      <c r="Q85" s="50" t="n"/>
+      <c r="R85" s="50" t="n">
         <v>11820</v>
       </c>
-      <c r="S85" s="27">
+      <c r="S85" s="50">
         <f>SUM(H85:R85)</f>
         <v/>
       </c>
@@ -11426,24 +11649,24 @@
       <c r="G86" s="26" t="n">
         <v>45429</v>
       </c>
-      <c r="H86" s="27" t="n">
+      <c r="H86" s="50" t="n">
         <v>64472</v>
       </c>
-      <c r="I86" s="27" t="n"/>
-      <c r="J86" s="27" t="n"/>
-      <c r="K86" s="27" t="n"/>
-      <c r="L86" s="27" t="n"/>
-      <c r="M86" s="27" t="n"/>
-      <c r="N86" s="27" t="n"/>
-      <c r="O86" s="27" t="n"/>
-      <c r="P86" s="27" t="n">
+      <c r="I86" s="50" t="n"/>
+      <c r="J86" s="50" t="n"/>
+      <c r="K86" s="50" t="n"/>
+      <c r="L86" s="50" t="n"/>
+      <c r="M86" s="50" t="n"/>
+      <c r="N86" s="50" t="n"/>
+      <c r="O86" s="50" t="n"/>
+      <c r="P86" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q86" s="27" t="n"/>
-      <c r="R86" s="27" t="n">
+      <c r="Q86" s="50" t="n"/>
+      <c r="R86" s="50" t="n">
         <v>12250</v>
       </c>
-      <c r="S86" s="27">
+      <c r="S86" s="50">
         <f>SUM(H86:R86)</f>
         <v/>
       </c>
@@ -11478,28 +11701,28 @@
       <c r="G87" s="26" t="n">
         <v>45429</v>
       </c>
-      <c r="H87" s="27">
+      <c r="H87" s="50">
         <f>8252+15118-454+5697-454+4529+4303-403+3269+6571</f>
         <v/>
       </c>
-      <c r="I87" s="27" t="n"/>
-      <c r="J87" s="27" t="n"/>
-      <c r="K87" s="27" t="n"/>
-      <c r="L87" s="27" t="n"/>
-      <c r="M87" s="27" t="n"/>
-      <c r="N87" s="27">
+      <c r="I87" s="50" t="n"/>
+      <c r="J87" s="50" t="n"/>
+      <c r="K87" s="50" t="n"/>
+      <c r="L87" s="50" t="n"/>
+      <c r="M87" s="50" t="n"/>
+      <c r="N87" s="50">
         <f>+(2370-185)*2+2773+1677+1916+1</f>
         <v/>
       </c>
-      <c r="O87" s="27" t="n"/>
-      <c r="P87" s="27" t="n">
+      <c r="O87" s="50" t="n"/>
+      <c r="P87" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q87" s="27" t="n"/>
-      <c r="R87" s="27" t="n">
+      <c r="Q87" s="50" t="n"/>
+      <c r="R87" s="50" t="n">
         <v>10861</v>
       </c>
-      <c r="S87" s="27">
+      <c r="S87" s="50">
         <f>SUM(H87:R87)</f>
         <v/>
       </c>
@@ -11534,24 +11757,24 @@
       <c r="G88" s="26" t="n">
         <v>45443</v>
       </c>
-      <c r="H88" s="27" t="n"/>
-      <c r="I88" s="27" t="n">
+      <c r="H88" s="50" t="n"/>
+      <c r="I88" s="50" t="n">
         <v>8151</v>
       </c>
-      <c r="J88" s="27" t="n"/>
-      <c r="K88" s="27" t="n"/>
-      <c r="L88" s="27" t="n"/>
-      <c r="M88" s="27" t="n"/>
-      <c r="N88" s="27" t="n"/>
-      <c r="O88" s="27" t="n"/>
-      <c r="P88" s="27" t="n">
+      <c r="J88" s="50" t="n"/>
+      <c r="K88" s="50" t="n"/>
+      <c r="L88" s="50" t="n"/>
+      <c r="M88" s="50" t="n"/>
+      <c r="N88" s="50" t="n"/>
+      <c r="O88" s="50" t="n"/>
+      <c r="P88" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="Q88" s="27" t="n"/>
-      <c r="R88" s="27" t="n">
+      <c r="Q88" s="50" t="n"/>
+      <c r="R88" s="50" t="n">
         <v>1549</v>
       </c>
-      <c r="S88" s="27">
+      <c r="S88" s="50">
         <f>SUM(H88:R88)</f>
         <v/>
       </c>
@@ -11586,22 +11809,22 @@
       <c r="G89" s="26" t="n">
         <v>45441</v>
       </c>
-      <c r="H89" s="27" t="n"/>
-      <c r="I89" s="27" t="n"/>
-      <c r="J89" s="27" t="n"/>
-      <c r="K89" s="27" t="n"/>
-      <c r="L89" s="27" t="n"/>
-      <c r="M89" s="27" t="n"/>
-      <c r="N89" s="27" t="n"/>
-      <c r="O89" s="27" t="n"/>
-      <c r="P89" s="27" t="n"/>
-      <c r="Q89" s="27" t="n">
+      <c r="H89" s="50" t="n"/>
+      <c r="I89" s="50" t="n"/>
+      <c r="J89" s="50" t="n"/>
+      <c r="K89" s="50" t="n"/>
+      <c r="L89" s="50" t="n"/>
+      <c r="M89" s="50" t="n"/>
+      <c r="N89" s="50" t="n"/>
+      <c r="O89" s="50" t="n"/>
+      <c r="P89" s="50" t="n"/>
+      <c r="Q89" s="50" t="n">
         <v>1103</v>
       </c>
-      <c r="R89" s="27" t="n">
+      <c r="R89" s="50" t="n">
         <v>210</v>
       </c>
-      <c r="S89" s="27">
+      <c r="S89" s="50">
         <f>SUM(H89:R89)</f>
         <v/>
       </c>
@@ -11636,22 +11859,22 @@
       <c r="G90" s="4" t="n">
         <v>45440</v>
       </c>
-      <c r="H90" s="7" t="n"/>
-      <c r="I90" s="7" t="n"/>
-      <c r="J90" s="7" t="n"/>
-      <c r="K90" s="7" t="n"/>
-      <c r="L90" s="7" t="n"/>
-      <c r="M90" s="7" t="n"/>
-      <c r="N90" s="7" t="n"/>
-      <c r="O90" s="7" t="n"/>
-      <c r="P90" s="7" t="n"/>
-      <c r="Q90" s="7" t="n">
+      <c r="H90" s="51" t="n"/>
+      <c r="I90" s="51" t="n"/>
+      <c r="J90" s="51" t="n"/>
+      <c r="K90" s="51" t="n"/>
+      <c r="L90" s="51" t="n"/>
+      <c r="M90" s="51" t="n"/>
+      <c r="N90" s="51" t="n"/>
+      <c r="O90" s="51" t="n"/>
+      <c r="P90" s="51" t="n"/>
+      <c r="Q90" s="51" t="n">
         <v>18</v>
       </c>
-      <c r="R90" s="7" t="n">
+      <c r="R90" s="51" t="n">
         <v>3</v>
       </c>
-      <c r="S90" s="7">
+      <c r="S90" s="51">
         <f>SUM(H90:R90)</f>
         <v/>
       </c>
@@ -11679,28 +11902,28 @@
       <c r="G91" s="26" t="n">
         <v>45497</v>
       </c>
-      <c r="H91" s="27" t="n">
+      <c r="H91" s="50" t="n">
         <v>6042</v>
       </c>
-      <c r="I91" s="27">
+      <c r="I91" s="50">
         <f>5269+12294</f>
         <v/>
       </c>
-      <c r="J91" s="27" t="n"/>
-      <c r="K91" s="27" t="n"/>
-      <c r="L91" s="27" t="n"/>
-      <c r="M91" s="27">
+      <c r="J91" s="50" t="n"/>
+      <c r="K91" s="50" t="n"/>
+      <c r="L91" s="50" t="n"/>
+      <c r="M91" s="50">
         <f>4193+3361</f>
         <v/>
       </c>
-      <c r="N91" s="27" t="n"/>
-      <c r="O91" s="27" t="n"/>
-      <c r="P91" s="27" t="n"/>
-      <c r="Q91" s="27" t="n"/>
-      <c r="R91" s="27" t="n">
+      <c r="N91" s="50" t="n"/>
+      <c r="O91" s="50" t="n"/>
+      <c r="P91" s="50" t="n"/>
+      <c r="Q91" s="50" t="n"/>
+      <c r="R91" s="50" t="n">
         <v>5920</v>
       </c>
-      <c r="S91" s="27">
+      <c r="S91" s="50">
         <f>SUM(H91:R91)</f>
         <v/>
       </c>
@@ -11733,22 +11956,22 @@
       <c r="G92" s="26" t="n">
         <v>45499</v>
       </c>
-      <c r="H92" s="27" t="n">
+      <c r="H92" s="50" t="n">
         <v>64728</v>
       </c>
-      <c r="I92" s="27" t="n"/>
-      <c r="J92" s="27" t="n"/>
-      <c r="K92" s="27" t="n"/>
-      <c r="L92" s="27" t="n"/>
-      <c r="M92" s="27" t="n"/>
-      <c r="N92" s="27" t="n"/>
-      <c r="O92" s="27" t="n"/>
-      <c r="P92" s="27" t="n"/>
-      <c r="Q92" s="27" t="n"/>
-      <c r="R92" s="27" t="n">
+      <c r="I92" s="50" t="n"/>
+      <c r="J92" s="50" t="n"/>
+      <c r="K92" s="50" t="n"/>
+      <c r="L92" s="50" t="n"/>
+      <c r="M92" s="50" t="n"/>
+      <c r="N92" s="50" t="n"/>
+      <c r="O92" s="50" t="n"/>
+      <c r="P92" s="50" t="n"/>
+      <c r="Q92" s="50" t="n"/>
+      <c r="R92" s="50" t="n">
         <v>12298</v>
       </c>
-      <c r="S92" s="27">
+      <c r="S92" s="50">
         <f>SUM(H92:R92)</f>
         <v/>
       </c>
@@ -11781,22 +12004,22 @@
       <c r="G93" s="26" t="n">
         <v>45503</v>
       </c>
-      <c r="H93" s="27" t="n"/>
-      <c r="I93" s="27" t="n"/>
-      <c r="J93" s="27" t="n"/>
-      <c r="K93" s="27" t="n"/>
-      <c r="L93" s="27" t="n"/>
-      <c r="M93" s="27" t="n"/>
-      <c r="N93" s="27" t="n"/>
-      <c r="O93" s="27" t="n"/>
-      <c r="P93" s="27" t="n"/>
-      <c r="Q93" s="27" t="n">
+      <c r="H93" s="50" t="n"/>
+      <c r="I93" s="50" t="n"/>
+      <c r="J93" s="50" t="n"/>
+      <c r="K93" s="50" t="n"/>
+      <c r="L93" s="50" t="n"/>
+      <c r="M93" s="50" t="n"/>
+      <c r="N93" s="50" t="n"/>
+      <c r="O93" s="50" t="n"/>
+      <c r="P93" s="50" t="n"/>
+      <c r="Q93" s="50" t="n">
         <v>11700</v>
       </c>
-      <c r="R93" s="27" t="n">
+      <c r="R93" s="50" t="n">
         <v>2223</v>
       </c>
-      <c r="S93" s="27">
+      <c r="S93" s="50">
         <f>SUBTOTAL(9,H93:R93)</f>
         <v/>
       </c>
@@ -11829,22 +12052,22 @@
       <c r="G94" s="26" t="n">
         <v>45505</v>
       </c>
-      <c r="H94" s="27" t="n"/>
-      <c r="I94" s="27" t="n"/>
-      <c r="J94" s="27" t="n"/>
-      <c r="K94" s="27" t="n"/>
-      <c r="L94" s="27" t="n">
+      <c r="H94" s="50" t="n"/>
+      <c r="I94" s="50" t="n"/>
+      <c r="J94" s="50" t="n"/>
+      <c r="K94" s="50" t="n"/>
+      <c r="L94" s="50" t="n">
         <v>10017</v>
       </c>
-      <c r="M94" s="27" t="n"/>
-      <c r="N94" s="27" t="n"/>
-      <c r="O94" s="27" t="n"/>
-      <c r="P94" s="27" t="n"/>
-      <c r="Q94" s="27" t="n"/>
-      <c r="R94" s="27" t="n">
+      <c r="M94" s="50" t="n"/>
+      <c r="N94" s="50" t="n"/>
+      <c r="O94" s="50" t="n"/>
+      <c r="P94" s="50" t="n"/>
+      <c r="Q94" s="50" t="n"/>
+      <c r="R94" s="50" t="n">
         <v>1903</v>
       </c>
-      <c r="S94" s="27">
+      <c r="S94" s="50">
         <f>SUBTOTAL(9,H94:R94)</f>
         <v/>
       </c>
@@ -11877,22 +12100,22 @@
       <c r="G95" s="26" t="n">
         <v>45505</v>
       </c>
-      <c r="H95" s="27" t="n"/>
-      <c r="I95" s="27" t="n"/>
-      <c r="J95" s="27" t="n"/>
-      <c r="K95" s="27" t="n"/>
-      <c r="L95" s="27" t="n"/>
-      <c r="M95" s="27" t="n"/>
-      <c r="N95" s="27" t="n"/>
-      <c r="O95" s="27" t="n">
+      <c r="H95" s="50" t="n"/>
+      <c r="I95" s="50" t="n"/>
+      <c r="J95" s="50" t="n"/>
+      <c r="K95" s="50" t="n"/>
+      <c r="L95" s="50" t="n"/>
+      <c r="M95" s="50" t="n"/>
+      <c r="N95" s="50" t="n"/>
+      <c r="O95" s="50" t="n">
         <v>10067</v>
       </c>
-      <c r="P95" s="27" t="n"/>
-      <c r="Q95" s="27" t="n"/>
-      <c r="R95" s="27" t="n">
+      <c r="P95" s="50" t="n"/>
+      <c r="Q95" s="50" t="n"/>
+      <c r="R95" s="50" t="n">
         <v>1913</v>
       </c>
-      <c r="S95" s="27">
+      <c r="S95" s="50">
         <f>SUBTOTAL(9,H95:R95)</f>
         <v/>
       </c>
@@ -11925,22 +12148,22 @@
       <c r="G96" s="26" t="n">
         <v>45509</v>
       </c>
-      <c r="H96" s="27" t="n">
+      <c r="H96" s="50" t="n">
         <v>101345</v>
       </c>
-      <c r="I96" s="27" t="n"/>
-      <c r="J96" s="27" t="n"/>
-      <c r="K96" s="27" t="n"/>
-      <c r="L96" s="27" t="n"/>
-      <c r="M96" s="27" t="n"/>
-      <c r="N96" s="27" t="n"/>
-      <c r="O96" s="27" t="n"/>
-      <c r="P96" s="27" t="n"/>
-      <c r="Q96" s="27" t="n"/>
-      <c r="R96" s="27" t="n">
+      <c r="I96" s="50" t="n"/>
+      <c r="J96" s="50" t="n"/>
+      <c r="K96" s="50" t="n"/>
+      <c r="L96" s="50" t="n"/>
+      <c r="M96" s="50" t="n"/>
+      <c r="N96" s="50" t="n"/>
+      <c r="O96" s="50" t="n"/>
+      <c r="P96" s="50" t="n"/>
+      <c r="Q96" s="50" t="n"/>
+      <c r="R96" s="50" t="n">
         <v>19255</v>
       </c>
-      <c r="S96" s="27">
+      <c r="S96" s="50">
         <f>SUBTOTAL(9,H96:R96)</f>
         <v/>
       </c>
@@ -11973,22 +12196,22 @@
       <c r="G97" s="26" t="n">
         <v>45509</v>
       </c>
-      <c r="H97" s="27" t="n"/>
-      <c r="I97" s="27" t="n"/>
-      <c r="J97" s="27" t="n">
+      <c r="H97" s="50" t="n"/>
+      <c r="I97" s="50" t="n"/>
+      <c r="J97" s="50" t="n">
         <v>55408</v>
       </c>
-      <c r="K97" s="27" t="n"/>
-      <c r="L97" s="27" t="n"/>
-      <c r="M97" s="27" t="n"/>
-      <c r="N97" s="27" t="n"/>
-      <c r="O97" s="27" t="n"/>
-      <c r="P97" s="27" t="n"/>
-      <c r="Q97" s="27" t="n"/>
-      <c r="R97" s="27" t="n">
+      <c r="K97" s="50" t="n"/>
+      <c r="L97" s="50" t="n"/>
+      <c r="M97" s="50" t="n"/>
+      <c r="N97" s="50" t="n"/>
+      <c r="O97" s="50" t="n"/>
+      <c r="P97" s="50" t="n"/>
+      <c r="Q97" s="50" t="n"/>
+      <c r="R97" s="50" t="n">
         <v>10528</v>
       </c>
-      <c r="S97" s="27">
+      <c r="S97" s="50">
         <f>SUBTOTAL(9,H97:R97)</f>
         <v/>
       </c>
@@ -12021,25 +12244,25 @@
       <c r="G98" s="26" t="n">
         <v>45509</v>
       </c>
-      <c r="H98" s="27" t="n"/>
-      <c r="I98" s="27">
+      <c r="H98" s="50" t="n"/>
+      <c r="I98" s="50">
         <f>3401+1089+1619</f>
         <v/>
       </c>
-      <c r="J98" s="27" t="n"/>
-      <c r="K98" s="27" t="n"/>
-      <c r="L98" s="27" t="n"/>
-      <c r="M98" s="27" t="n"/>
-      <c r="N98" s="27" t="n">
+      <c r="J98" s="50" t="n"/>
+      <c r="K98" s="50" t="n"/>
+      <c r="L98" s="50" t="n"/>
+      <c r="M98" s="50" t="n"/>
+      <c r="N98" s="50" t="n">
         <v>3392</v>
       </c>
-      <c r="O98" s="27" t="n"/>
-      <c r="P98" s="27" t="n"/>
-      <c r="Q98" s="27" t="n"/>
-      <c r="R98" s="27" t="n">
+      <c r="O98" s="50" t="n"/>
+      <c r="P98" s="50" t="n"/>
+      <c r="Q98" s="50" t="n"/>
+      <c r="R98" s="50" t="n">
         <v>1805</v>
       </c>
-      <c r="S98" s="27">
+      <c r="S98" s="50">
         <f>SUBTOTAL(9,H98:R98)</f>
         <v/>
       </c>
@@ -12072,27 +12295,27 @@
       <c r="G99" s="26" t="n">
         <v>45511</v>
       </c>
-      <c r="H99" s="27">
+      <c r="H99" s="50">
         <f>7471+2336+1966</f>
         <v/>
       </c>
-      <c r="I99" s="27" t="n"/>
-      <c r="J99" s="27" t="n"/>
-      <c r="K99" s="27" t="n"/>
-      <c r="L99" s="27" t="n"/>
-      <c r="M99" s="27" t="n"/>
-      <c r="N99" s="27" t="n">
+      <c r="I99" s="50" t="n"/>
+      <c r="J99" s="50" t="n"/>
+      <c r="K99" s="50" t="n"/>
+      <c r="L99" s="50" t="n"/>
+      <c r="M99" s="50" t="n"/>
+      <c r="N99" s="50" t="n">
         <v>3227</v>
       </c>
-      <c r="O99" s="27" t="n"/>
-      <c r="P99" s="27" t="n">
+      <c r="O99" s="50" t="n"/>
+      <c r="P99" s="50" t="n">
         <v>899</v>
       </c>
-      <c r="Q99" s="27" t="n"/>
-      <c r="R99" s="27" t="n">
+      <c r="Q99" s="50" t="n"/>
+      <c r="R99" s="50" t="n">
         <v>3021</v>
       </c>
-      <c r="S99" s="27">
+      <c r="S99" s="50">
         <f>SUBTOTAL(9,H99:R99)</f>
         <v/>
       </c>
@@ -12125,22 +12348,22 @@
       <c r="G100" s="26" t="n">
         <v>45513</v>
       </c>
-      <c r="H100" s="27" t="n"/>
-      <c r="I100" s="27" t="n"/>
-      <c r="J100" s="27" t="n"/>
-      <c r="K100" s="27" t="n"/>
-      <c r="L100" s="27" t="n"/>
-      <c r="M100" s="27" t="n"/>
-      <c r="N100" s="27" t="n">
+      <c r="H100" s="50" t="n"/>
+      <c r="I100" s="50" t="n"/>
+      <c r="J100" s="50" t="n"/>
+      <c r="K100" s="50" t="n"/>
+      <c r="L100" s="50" t="n"/>
+      <c r="M100" s="50" t="n"/>
+      <c r="N100" s="50" t="n">
         <v>30795</v>
       </c>
-      <c r="O100" s="27" t="n"/>
-      <c r="P100" s="27" t="n"/>
-      <c r="Q100" s="27" t="n"/>
-      <c r="R100" s="27" t="n">
+      <c r="O100" s="50" t="n"/>
+      <c r="P100" s="50" t="n"/>
+      <c r="Q100" s="50" t="n"/>
+      <c r="R100" s="50" t="n">
         <v>5851</v>
       </c>
-      <c r="S100" s="27">
+      <c r="S100" s="50">
         <f>SUBTOTAL(9,H100:R100)</f>
         <v/>
       </c>
@@ -12173,22 +12396,22 @@
       <c r="G101" s="26" t="n">
         <v>45513</v>
       </c>
-      <c r="H101" s="27" t="n">
+      <c r="H101" s="50" t="n">
         <v>29269</v>
       </c>
-      <c r="I101" s="27" t="n"/>
-      <c r="J101" s="27" t="n"/>
-      <c r="K101" s="27" t="n"/>
-      <c r="L101" s="27" t="n"/>
-      <c r="M101" s="27" t="n"/>
-      <c r="N101" s="27" t="n"/>
-      <c r="O101" s="27" t="n"/>
-      <c r="P101" s="27" t="n"/>
-      <c r="Q101" s="27" t="n"/>
-      <c r="R101" s="27" t="n">
+      <c r="I101" s="50" t="n"/>
+      <c r="J101" s="50" t="n"/>
+      <c r="K101" s="50" t="n"/>
+      <c r="L101" s="50" t="n"/>
+      <c r="M101" s="50" t="n"/>
+      <c r="N101" s="50" t="n"/>
+      <c r="O101" s="50" t="n"/>
+      <c r="P101" s="50" t="n"/>
+      <c r="Q101" s="50" t="n"/>
+      <c r="R101" s="50" t="n">
         <v>5561</v>
       </c>
-      <c r="S101" s="27">
+      <c r="S101" s="50">
         <f>SUBTOTAL(9,H101:R101)</f>
         <v/>
       </c>
@@ -12221,22 +12444,22 @@
       <c r="G102" s="26" t="n">
         <v>45513</v>
       </c>
-      <c r="H102" s="27" t="n"/>
-      <c r="I102" s="27" t="n">
+      <c r="H102" s="50" t="n"/>
+      <c r="I102" s="50" t="n">
         <v>3151</v>
       </c>
-      <c r="J102" s="27" t="n"/>
-      <c r="K102" s="27" t="n"/>
-      <c r="L102" s="27" t="n"/>
-      <c r="M102" s="27" t="n"/>
-      <c r="N102" s="27" t="n"/>
-      <c r="O102" s="27" t="n"/>
-      <c r="P102" s="27" t="n"/>
-      <c r="Q102" s="27" t="n"/>
-      <c r="R102" s="27" t="n">
+      <c r="J102" s="50" t="n"/>
+      <c r="K102" s="50" t="n"/>
+      <c r="L102" s="50" t="n"/>
+      <c r="M102" s="50" t="n"/>
+      <c r="N102" s="50" t="n"/>
+      <c r="O102" s="50" t="n"/>
+      <c r="P102" s="50" t="n"/>
+      <c r="Q102" s="50" t="n"/>
+      <c r="R102" s="50" t="n">
         <v>599</v>
       </c>
-      <c r="S102" s="27">
+      <c r="S102" s="50">
         <f>SUBTOTAL(9,H102:R102)</f>
         <v/>
       </c>
@@ -12269,22 +12492,22 @@
       <c r="G103" s="26" t="n">
         <v>45514</v>
       </c>
-      <c r="H103" s="27" t="n">
+      <c r="H103" s="50" t="n">
         <v>62213</v>
       </c>
-      <c r="I103" s="27" t="n"/>
-      <c r="J103" s="27" t="n"/>
-      <c r="K103" s="27" t="n"/>
-      <c r="L103" s="27" t="n"/>
-      <c r="M103" s="27" t="n"/>
-      <c r="N103" s="27" t="n"/>
-      <c r="O103" s="27" t="n"/>
-      <c r="P103" s="27" t="n"/>
-      <c r="Q103" s="27" t="n"/>
-      <c r="R103" s="27" t="n">
+      <c r="I103" s="50" t="n"/>
+      <c r="J103" s="50" t="n"/>
+      <c r="K103" s="50" t="n"/>
+      <c r="L103" s="50" t="n"/>
+      <c r="M103" s="50" t="n"/>
+      <c r="N103" s="50" t="n"/>
+      <c r="O103" s="50" t="n"/>
+      <c r="P103" s="50" t="n"/>
+      <c r="Q103" s="50" t="n"/>
+      <c r="R103" s="50" t="n">
         <v>11820</v>
       </c>
-      <c r="S103" s="27">
+      <c r="S103" s="50">
         <f>SUBTOTAL(9,H103:R103)</f>
         <v/>
       </c>
@@ -12317,22 +12540,22 @@
       <c r="G104" s="26" t="n">
         <v>45520</v>
       </c>
-      <c r="H104" s="27" t="n">
+      <c r="H104" s="50" t="n">
         <v>179424</v>
       </c>
-      <c r="I104" s="27" t="n"/>
-      <c r="J104" s="27" t="n"/>
-      <c r="K104" s="27" t="n"/>
-      <c r="L104" s="27" t="n"/>
-      <c r="M104" s="27" t="n"/>
-      <c r="N104" s="27" t="n"/>
-      <c r="O104" s="27" t="n"/>
-      <c r="P104" s="27" t="n"/>
-      <c r="Q104" s="27" t="n"/>
-      <c r="R104" s="27" t="n">
+      <c r="I104" s="50" t="n"/>
+      <c r="J104" s="50" t="n"/>
+      <c r="K104" s="50" t="n"/>
+      <c r="L104" s="50" t="n"/>
+      <c r="M104" s="50" t="n"/>
+      <c r="N104" s="50" t="n"/>
+      <c r="O104" s="50" t="n"/>
+      <c r="P104" s="50" t="n"/>
+      <c r="Q104" s="50" t="n"/>
+      <c r="R104" s="50" t="n">
         <v>34091</v>
       </c>
-      <c r="S104" s="27">
+      <c r="S104" s="50">
         <f>SUBTOTAL(9,H104:R104)</f>
         <v/>
       </c>
@@ -12349,18 +12572,18 @@
       <c r="E105" s="3" t="n"/>
       <c r="F105" s="3" t="n"/>
       <c r="G105" s="4" t="n"/>
-      <c r="H105" s="7" t="n"/>
-      <c r="I105" s="7" t="n"/>
-      <c r="J105" s="7" t="n"/>
-      <c r="K105" s="7" t="n"/>
-      <c r="L105" s="7" t="n"/>
-      <c r="M105" s="7" t="n"/>
-      <c r="N105" s="7" t="n"/>
-      <c r="O105" s="7" t="n"/>
-      <c r="P105" s="7" t="n"/>
-      <c r="Q105" s="7" t="n"/>
-      <c r="R105" s="7" t="n"/>
-      <c r="S105" s="7" t="n"/>
+      <c r="H105" s="51" t="n"/>
+      <c r="I105" s="51" t="n"/>
+      <c r="J105" s="51" t="n"/>
+      <c r="K105" s="51" t="n"/>
+      <c r="L105" s="51" t="n"/>
+      <c r="M105" s="51" t="n"/>
+      <c r="N105" s="51" t="n"/>
+      <c r="O105" s="51" t="n"/>
+      <c r="P105" s="51" t="n"/>
+      <c r="Q105" s="51" t="n"/>
+      <c r="R105" s="51" t="n"/>
+      <c r="S105" s="51" t="n"/>
     </row>
     <row r="106">
       <c r="B106" s="3" t="n"/>
@@ -12369,18 +12592,18 @@
       <c r="E106" s="3" t="n"/>
       <c r="F106" s="3" t="n"/>
       <c r="G106" s="4" t="n"/>
-      <c r="H106" s="7" t="n"/>
-      <c r="I106" s="7" t="n"/>
-      <c r="J106" s="7" t="n"/>
-      <c r="K106" s="7" t="n"/>
-      <c r="L106" s="7" t="n"/>
-      <c r="M106" s="7" t="n"/>
-      <c r="N106" s="7" t="n"/>
-      <c r="O106" s="7" t="n"/>
-      <c r="P106" s="7" t="n"/>
-      <c r="Q106" s="7" t="n"/>
-      <c r="R106" s="7" t="n"/>
-      <c r="S106" s="7" t="n"/>
+      <c r="H106" s="51" t="n"/>
+      <c r="I106" s="51" t="n"/>
+      <c r="J106" s="51" t="n"/>
+      <c r="K106" s="51" t="n"/>
+      <c r="L106" s="51" t="n"/>
+      <c r="M106" s="51" t="n"/>
+      <c r="N106" s="51" t="n"/>
+      <c r="O106" s="51" t="n"/>
+      <c r="P106" s="51" t="n"/>
+      <c r="Q106" s="51" t="n"/>
+      <c r="R106" s="51" t="n"/>
+      <c r="S106" s="51" t="n"/>
     </row>
     <row r="107">
       <c r="B107" s="3" t="n"/>
@@ -12389,18 +12612,18 @@
       <c r="E107" s="3" t="n"/>
       <c r="F107" s="3" t="n"/>
       <c r="G107" s="4" t="n"/>
-      <c r="H107" s="7" t="n"/>
-      <c r="I107" s="7" t="n"/>
-      <c r="J107" s="7" t="n"/>
-      <c r="K107" s="7" t="n"/>
-      <c r="L107" s="7" t="n"/>
-      <c r="M107" s="7" t="n"/>
-      <c r="N107" s="7" t="n"/>
-      <c r="O107" s="7" t="n"/>
-      <c r="P107" s="7" t="n"/>
-      <c r="Q107" s="7" t="n"/>
-      <c r="R107" s="7" t="n"/>
-      <c r="S107" s="7" t="n"/>
+      <c r="H107" s="51" t="n"/>
+      <c r="I107" s="51" t="n"/>
+      <c r="J107" s="51" t="n"/>
+      <c r="K107" s="51" t="n"/>
+      <c r="L107" s="51" t="n"/>
+      <c r="M107" s="51" t="n"/>
+      <c r="N107" s="51" t="n"/>
+      <c r="O107" s="51" t="n"/>
+      <c r="P107" s="51" t="n"/>
+      <c r="Q107" s="51" t="n"/>
+      <c r="R107" s="51" t="n"/>
+      <c r="S107" s="51" t="n"/>
     </row>
     <row r="108">
       <c r="B108" s="3" t="n"/>
@@ -12409,18 +12632,18 @@
       <c r="E108" s="3" t="n"/>
       <c r="F108" s="3" t="n"/>
       <c r="G108" s="4" t="n"/>
-      <c r="H108" s="7" t="n"/>
-      <c r="I108" s="7" t="n"/>
-      <c r="J108" s="7" t="n"/>
-      <c r="K108" s="7" t="n"/>
-      <c r="L108" s="7" t="n"/>
-      <c r="M108" s="7" t="n"/>
-      <c r="N108" s="7" t="n"/>
-      <c r="O108" s="7" t="n"/>
-      <c r="P108" s="7" t="n"/>
-      <c r="Q108" s="7" t="n"/>
-      <c r="R108" s="7" t="n"/>
-      <c r="S108" s="7" t="n"/>
+      <c r="H108" s="51" t="n"/>
+      <c r="I108" s="51" t="n"/>
+      <c r="J108" s="51" t="n"/>
+      <c r="K108" s="51" t="n"/>
+      <c r="L108" s="51" t="n"/>
+      <c r="M108" s="51" t="n"/>
+      <c r="N108" s="51" t="n"/>
+      <c r="O108" s="51" t="n"/>
+      <c r="P108" s="51" t="n"/>
+      <c r="Q108" s="51" t="n"/>
+      <c r="R108" s="51" t="n"/>
+      <c r="S108" s="51" t="n"/>
     </row>
     <row r="109">
       <c r="B109" s="3" t="n"/>
@@ -12429,18 +12652,18 @@
       <c r="E109" s="3" t="n"/>
       <c r="F109" s="3" t="n"/>
       <c r="G109" s="4" t="n"/>
-      <c r="H109" s="7" t="n"/>
-      <c r="I109" s="7" t="n"/>
-      <c r="J109" s="7" t="n"/>
-      <c r="K109" s="7" t="n"/>
-      <c r="L109" s="7" t="n"/>
-      <c r="M109" s="7" t="n"/>
-      <c r="N109" s="7" t="n"/>
-      <c r="O109" s="7" t="n"/>
-      <c r="P109" s="7" t="n"/>
-      <c r="Q109" s="7" t="n"/>
-      <c r="R109" s="7" t="n"/>
-      <c r="S109" s="7" t="n"/>
+      <c r="H109" s="51" t="n"/>
+      <c r="I109" s="51" t="n"/>
+      <c r="J109" s="51" t="n"/>
+      <c r="K109" s="51" t="n"/>
+      <c r="L109" s="51" t="n"/>
+      <c r="M109" s="51" t="n"/>
+      <c r="N109" s="51" t="n"/>
+      <c r="O109" s="51" t="n"/>
+      <c r="P109" s="51" t="n"/>
+      <c r="Q109" s="51" t="n"/>
+      <c r="R109" s="51" t="n"/>
+      <c r="S109" s="51" t="n"/>
     </row>
     <row r="110">
       <c r="B110" s="3" t="n"/>
@@ -12449,18 +12672,18 @@
       <c r="E110" s="3" t="n"/>
       <c r="F110" s="3" t="n"/>
       <c r="G110" s="4" t="n"/>
-      <c r="H110" s="7" t="n"/>
-      <c r="I110" s="7" t="n"/>
-      <c r="J110" s="7" t="n"/>
-      <c r="K110" s="7" t="n"/>
-      <c r="L110" s="7" t="n"/>
-      <c r="M110" s="7" t="n"/>
-      <c r="N110" s="7" t="n"/>
-      <c r="O110" s="7" t="n"/>
-      <c r="P110" s="7" t="n"/>
-      <c r="Q110" s="7" t="n"/>
-      <c r="R110" s="7" t="n"/>
-      <c r="S110" s="7" t="n"/>
+      <c r="H110" s="51" t="n"/>
+      <c r="I110" s="51" t="n"/>
+      <c r="J110" s="51" t="n"/>
+      <c r="K110" s="51" t="n"/>
+      <c r="L110" s="51" t="n"/>
+      <c r="M110" s="51" t="n"/>
+      <c r="N110" s="51" t="n"/>
+      <c r="O110" s="51" t="n"/>
+      <c r="P110" s="51" t="n"/>
+      <c r="Q110" s="51" t="n"/>
+      <c r="R110" s="51" t="n"/>
+      <c r="S110" s="51" t="n"/>
     </row>
     <row r="111">
       <c r="B111" s="3" t="n"/>
@@ -12469,18 +12692,18 @@
       <c r="E111" s="3" t="n"/>
       <c r="F111" s="3" t="n"/>
       <c r="G111" s="4" t="n"/>
-      <c r="H111" s="7" t="n"/>
-      <c r="I111" s="7" t="n"/>
-      <c r="J111" s="7" t="n"/>
-      <c r="K111" s="7" t="n"/>
-      <c r="L111" s="7" t="n"/>
-      <c r="M111" s="7" t="n"/>
-      <c r="N111" s="7" t="n"/>
-      <c r="O111" s="7" t="n"/>
-      <c r="P111" s="7" t="n"/>
-      <c r="Q111" s="7" t="n"/>
-      <c r="R111" s="7" t="n"/>
-      <c r="S111" s="7" t="n"/>
+      <c r="H111" s="51" t="n"/>
+      <c r="I111" s="51" t="n"/>
+      <c r="J111" s="51" t="n"/>
+      <c r="K111" s="51" t="n"/>
+      <c r="L111" s="51" t="n"/>
+      <c r="M111" s="51" t="n"/>
+      <c r="N111" s="51" t="n"/>
+      <c r="O111" s="51" t="n"/>
+      <c r="P111" s="51" t="n"/>
+      <c r="Q111" s="51" t="n"/>
+      <c r="R111" s="51" t="n"/>
+      <c r="S111" s="51" t="n"/>
     </row>
     <row r="112">
       <c r="B112" s="3" t="n"/>
@@ -12489,18 +12712,18 @@
       <c r="E112" s="3" t="n"/>
       <c r="F112" s="3" t="n"/>
       <c r="G112" s="4" t="n"/>
-      <c r="H112" s="7" t="n"/>
-      <c r="I112" s="7" t="n"/>
-      <c r="J112" s="7" t="n"/>
-      <c r="K112" s="7" t="n"/>
-      <c r="L112" s="7" t="n"/>
-      <c r="M112" s="7" t="n"/>
-      <c r="N112" s="7" t="n"/>
-      <c r="O112" s="7" t="n"/>
-      <c r="P112" s="7" t="n"/>
-      <c r="Q112" s="7" t="n"/>
-      <c r="R112" s="7" t="n"/>
-      <c r="S112" s="7" t="n"/>
+      <c r="H112" s="51" t="n"/>
+      <c r="I112" s="51" t="n"/>
+      <c r="J112" s="51" t="n"/>
+      <c r="K112" s="51" t="n"/>
+      <c r="L112" s="51" t="n"/>
+      <c r="M112" s="51" t="n"/>
+      <c r="N112" s="51" t="n"/>
+      <c r="O112" s="51" t="n"/>
+      <c r="P112" s="51" t="n"/>
+      <c r="Q112" s="51" t="n"/>
+      <c r="R112" s="51" t="n"/>
+      <c r="S112" s="51" t="n"/>
     </row>
     <row r="113">
       <c r="B113" s="3" t="n"/>
@@ -12509,18 +12732,18 @@
       <c r="E113" s="3" t="n"/>
       <c r="F113" s="3" t="n"/>
       <c r="G113" s="4" t="n"/>
-      <c r="H113" s="7" t="n"/>
-      <c r="I113" s="7" t="n"/>
-      <c r="J113" s="7" t="n"/>
-      <c r="K113" s="7" t="n"/>
-      <c r="L113" s="7" t="n"/>
-      <c r="M113" s="7" t="n"/>
-      <c r="N113" s="7" t="n"/>
-      <c r="O113" s="7" t="n"/>
-      <c r="P113" s="7" t="n"/>
-      <c r="Q113" s="7" t="n"/>
-      <c r="R113" s="7" t="n"/>
-      <c r="S113" s="7" t="n"/>
+      <c r="H113" s="51" t="n"/>
+      <c r="I113" s="51" t="n"/>
+      <c r="J113" s="51" t="n"/>
+      <c r="K113" s="51" t="n"/>
+      <c r="L113" s="51" t="n"/>
+      <c r="M113" s="51" t="n"/>
+      <c r="N113" s="51" t="n"/>
+      <c r="O113" s="51" t="n"/>
+      <c r="P113" s="51" t="n"/>
+      <c r="Q113" s="51" t="n"/>
+      <c r="R113" s="51" t="n"/>
+      <c r="S113" s="51" t="n"/>
     </row>
     <row r="114">
       <c r="B114" s="3" t="n"/>
@@ -12529,18 +12752,18 @@
       <c r="E114" s="3" t="n"/>
       <c r="F114" s="3" t="n"/>
       <c r="G114" s="4" t="n"/>
-      <c r="H114" s="7" t="n"/>
-      <c r="I114" s="7" t="n"/>
-      <c r="J114" s="7" t="n"/>
-      <c r="K114" s="7" t="n"/>
-      <c r="L114" s="7" t="n"/>
-      <c r="M114" s="7" t="n"/>
-      <c r="N114" s="7" t="n"/>
-      <c r="O114" s="7" t="n"/>
-      <c r="P114" s="7" t="n"/>
-      <c r="Q114" s="7" t="n"/>
-      <c r="R114" s="7" t="n"/>
-      <c r="S114" s="7" t="n"/>
+      <c r="H114" s="51" t="n"/>
+      <c r="I114" s="51" t="n"/>
+      <c r="J114" s="51" t="n"/>
+      <c r="K114" s="51" t="n"/>
+      <c r="L114" s="51" t="n"/>
+      <c r="M114" s="51" t="n"/>
+      <c r="N114" s="51" t="n"/>
+      <c r="O114" s="51" t="n"/>
+      <c r="P114" s="51" t="n"/>
+      <c r="Q114" s="51" t="n"/>
+      <c r="R114" s="51" t="n"/>
+      <c r="S114" s="51" t="n"/>
     </row>
     <row r="115">
       <c r="B115" s="3" t="n"/>
@@ -12549,18 +12772,18 @@
       <c r="E115" s="3" t="n"/>
       <c r="F115" s="3" t="n"/>
       <c r="G115" s="4" t="n"/>
-      <c r="H115" s="7" t="n"/>
-      <c r="I115" s="7" t="n"/>
-      <c r="J115" s="7" t="n"/>
-      <c r="K115" s="7" t="n"/>
-      <c r="L115" s="7" t="n"/>
-      <c r="M115" s="7" t="n"/>
-      <c r="N115" s="7" t="n"/>
-      <c r="O115" s="7" t="n"/>
-      <c r="P115" s="7" t="n"/>
-      <c r="Q115" s="7" t="n"/>
-      <c r="R115" s="7" t="n"/>
-      <c r="S115" s="7" t="n"/>
+      <c r="H115" s="51" t="n"/>
+      <c r="I115" s="51" t="n"/>
+      <c r="J115" s="51" t="n"/>
+      <c r="K115" s="51" t="n"/>
+      <c r="L115" s="51" t="n"/>
+      <c r="M115" s="51" t="n"/>
+      <c r="N115" s="51" t="n"/>
+      <c r="O115" s="51" t="n"/>
+      <c r="P115" s="51" t="n"/>
+      <c r="Q115" s="51" t="n"/>
+      <c r="R115" s="51" t="n"/>
+      <c r="S115" s="51" t="n"/>
     </row>
     <row r="116">
       <c r="B116" s="3" t="n"/>
@@ -12569,18 +12792,18 @@
       <c r="E116" s="3" t="n"/>
       <c r="F116" s="3" t="n"/>
       <c r="G116" s="4" t="n"/>
-      <c r="H116" s="7" t="n"/>
-      <c r="I116" s="7" t="n"/>
-      <c r="J116" s="7" t="n"/>
-      <c r="K116" s="7" t="n"/>
-      <c r="L116" s="7" t="n"/>
-      <c r="M116" s="7" t="n"/>
-      <c r="N116" s="7" t="n"/>
-      <c r="O116" s="7" t="n"/>
-      <c r="P116" s="7" t="n"/>
-      <c r="Q116" s="7" t="n"/>
-      <c r="R116" s="7" t="n"/>
-      <c r="S116" s="7" t="n"/>
+      <c r="H116" s="51" t="n"/>
+      <c r="I116" s="51" t="n"/>
+      <c r="J116" s="51" t="n"/>
+      <c r="K116" s="51" t="n"/>
+      <c r="L116" s="51" t="n"/>
+      <c r="M116" s="51" t="n"/>
+      <c r="N116" s="51" t="n"/>
+      <c r="O116" s="51" t="n"/>
+      <c r="P116" s="51" t="n"/>
+      <c r="Q116" s="51" t="n"/>
+      <c r="R116" s="51" t="n"/>
+      <c r="S116" s="51" t="n"/>
     </row>
     <row r="117">
       <c r="B117" s="3" t="n"/>
@@ -12589,18 +12812,18 @@
       <c r="E117" s="3" t="n"/>
       <c r="F117" s="3" t="n"/>
       <c r="G117" s="4" t="n"/>
-      <c r="H117" s="7" t="n"/>
-      <c r="I117" s="7" t="n"/>
-      <c r="J117" s="7" t="n"/>
-      <c r="K117" s="7" t="n"/>
-      <c r="L117" s="7" t="n"/>
-      <c r="M117" s="7" t="n"/>
-      <c r="N117" s="7" t="n"/>
-      <c r="O117" s="7" t="n"/>
-      <c r="P117" s="7" t="n"/>
-      <c r="Q117" s="7" t="n"/>
-      <c r="R117" s="7" t="n"/>
-      <c r="S117" s="7" t="n"/>
+      <c r="H117" s="51" t="n"/>
+      <c r="I117" s="51" t="n"/>
+      <c r="J117" s="51" t="n"/>
+      <c r="K117" s="51" t="n"/>
+      <c r="L117" s="51" t="n"/>
+      <c r="M117" s="51" t="n"/>
+      <c r="N117" s="51" t="n"/>
+      <c r="O117" s="51" t="n"/>
+      <c r="P117" s="51" t="n"/>
+      <c r="Q117" s="51" t="n"/>
+      <c r="R117" s="51" t="n"/>
+      <c r="S117" s="51" t="n"/>
     </row>
     <row r="118">
       <c r="B118" s="3" t="n"/>
@@ -12609,18 +12832,18 @@
       <c r="E118" s="3" t="n"/>
       <c r="F118" s="3" t="n"/>
       <c r="G118" s="4" t="n"/>
-      <c r="H118" s="7" t="n"/>
-      <c r="I118" s="7" t="n"/>
-      <c r="J118" s="7" t="n"/>
-      <c r="K118" s="7" t="n"/>
-      <c r="L118" s="7" t="n"/>
-      <c r="M118" s="7" t="n"/>
-      <c r="N118" s="7" t="n"/>
-      <c r="O118" s="7" t="n"/>
-      <c r="P118" s="7" t="n"/>
-      <c r="Q118" s="7" t="n"/>
-      <c r="R118" s="7" t="n"/>
-      <c r="S118" s="7" t="n"/>
+      <c r="H118" s="51" t="n"/>
+      <c r="I118" s="51" t="n"/>
+      <c r="J118" s="51" t="n"/>
+      <c r="K118" s="51" t="n"/>
+      <c r="L118" s="51" t="n"/>
+      <c r="M118" s="51" t="n"/>
+      <c r="N118" s="51" t="n"/>
+      <c r="O118" s="51" t="n"/>
+      <c r="P118" s="51" t="n"/>
+      <c r="Q118" s="51" t="n"/>
+      <c r="R118" s="51" t="n"/>
+      <c r="S118" s="51" t="n"/>
     </row>
     <row r="119">
       <c r="B119" s="3" t="n"/>
@@ -12629,18 +12852,18 @@
       <c r="E119" s="3" t="n"/>
       <c r="F119" s="3" t="n"/>
       <c r="G119" s="4" t="n"/>
-      <c r="H119" s="7" t="n"/>
-      <c r="I119" s="7" t="n"/>
-      <c r="J119" s="7" t="n"/>
-      <c r="K119" s="7" t="n"/>
-      <c r="L119" s="7" t="n"/>
-      <c r="M119" s="7" t="n"/>
-      <c r="N119" s="7" t="n"/>
-      <c r="O119" s="7" t="n"/>
-      <c r="P119" s="7" t="n"/>
-      <c r="Q119" s="7" t="n"/>
-      <c r="R119" s="7" t="n"/>
-      <c r="S119" s="7" t="n"/>
+      <c r="H119" s="51" t="n"/>
+      <c r="I119" s="51" t="n"/>
+      <c r="J119" s="51" t="n"/>
+      <c r="K119" s="51" t="n"/>
+      <c r="L119" s="51" t="n"/>
+      <c r="M119" s="51" t="n"/>
+      <c r="N119" s="51" t="n"/>
+      <c r="O119" s="51" t="n"/>
+      <c r="P119" s="51" t="n"/>
+      <c r="Q119" s="51" t="n"/>
+      <c r="R119" s="51" t="n"/>
+      <c r="S119" s="51" t="n"/>
     </row>
     <row r="120">
       <c r="B120" s="3" t="n"/>
@@ -12649,18 +12872,18 @@
       <c r="E120" s="3" t="n"/>
       <c r="F120" s="3" t="n"/>
       <c r="G120" s="4" t="n"/>
-      <c r="H120" s="7" t="n"/>
-      <c r="I120" s="7" t="n"/>
-      <c r="J120" s="7" t="n"/>
-      <c r="K120" s="7" t="n"/>
-      <c r="L120" s="7" t="n"/>
-      <c r="M120" s="7" t="n"/>
-      <c r="N120" s="7" t="n"/>
-      <c r="O120" s="7" t="n"/>
-      <c r="P120" s="7" t="n"/>
-      <c r="Q120" s="7" t="n"/>
-      <c r="R120" s="7" t="n"/>
-      <c r="S120" s="7" t="n"/>
+      <c r="H120" s="51" t="n"/>
+      <c r="I120" s="51" t="n"/>
+      <c r="J120" s="51" t="n"/>
+      <c r="K120" s="51" t="n"/>
+      <c r="L120" s="51" t="n"/>
+      <c r="M120" s="51" t="n"/>
+      <c r="N120" s="51" t="n"/>
+      <c r="O120" s="51" t="n"/>
+      <c r="P120" s="51" t="n"/>
+      <c r="Q120" s="51" t="n"/>
+      <c r="R120" s="51" t="n"/>
+      <c r="S120" s="51" t="n"/>
     </row>
     <row r="121">
       <c r="B121" s="3" t="n"/>
@@ -12669,18 +12892,18 @@
       <c r="E121" s="3" t="n"/>
       <c r="F121" s="3" t="n"/>
       <c r="G121" s="4" t="n"/>
-      <c r="H121" s="7" t="n"/>
-      <c r="I121" s="7" t="n"/>
-      <c r="J121" s="7" t="n"/>
-      <c r="K121" s="7" t="n"/>
-      <c r="L121" s="7" t="n"/>
-      <c r="M121" s="7" t="n"/>
-      <c r="N121" s="7" t="n"/>
-      <c r="O121" s="7" t="n"/>
-      <c r="P121" s="7" t="n"/>
-      <c r="Q121" s="7" t="n"/>
-      <c r="R121" s="7" t="n"/>
-      <c r="S121" s="7" t="n"/>
+      <c r="H121" s="51" t="n"/>
+      <c r="I121" s="51" t="n"/>
+      <c r="J121" s="51" t="n"/>
+      <c r="K121" s="51" t="n"/>
+      <c r="L121" s="51" t="n"/>
+      <c r="M121" s="51" t="n"/>
+      <c r="N121" s="51" t="n"/>
+      <c r="O121" s="51" t="n"/>
+      <c r="P121" s="51" t="n"/>
+      <c r="Q121" s="51" t="n"/>
+      <c r="R121" s="51" t="n"/>
+      <c r="S121" s="51" t="n"/>
     </row>
     <row r="122">
       <c r="B122" s="3" t="n"/>
@@ -12689,18 +12912,18 @@
       <c r="E122" s="3" t="n"/>
       <c r="F122" s="3" t="n"/>
       <c r="G122" s="4" t="n"/>
-      <c r="H122" s="7" t="n"/>
-      <c r="I122" s="7" t="n"/>
-      <c r="J122" s="7" t="n"/>
-      <c r="K122" s="7" t="n"/>
-      <c r="L122" s="7" t="n"/>
-      <c r="M122" s="7" t="n"/>
-      <c r="N122" s="7" t="n"/>
-      <c r="O122" s="7" t="n"/>
-      <c r="P122" s="7" t="n"/>
-      <c r="Q122" s="7" t="n"/>
-      <c r="R122" s="7" t="n"/>
-      <c r="S122" s="7" t="n"/>
+      <c r="H122" s="51" t="n"/>
+      <c r="I122" s="51" t="n"/>
+      <c r="J122" s="51" t="n"/>
+      <c r="K122" s="51" t="n"/>
+      <c r="L122" s="51" t="n"/>
+      <c r="M122" s="51" t="n"/>
+      <c r="N122" s="51" t="n"/>
+      <c r="O122" s="51" t="n"/>
+      <c r="P122" s="51" t="n"/>
+      <c r="Q122" s="51" t="n"/>
+      <c r="R122" s="51" t="n"/>
+      <c r="S122" s="51" t="n"/>
     </row>
     <row r="123">
       <c r="B123" s="3" t="n"/>
@@ -12709,18 +12932,18 @@
       <c r="E123" s="3" t="n"/>
       <c r="F123" s="3" t="n"/>
       <c r="G123" s="4" t="n"/>
-      <c r="H123" s="7" t="n"/>
-      <c r="I123" s="7" t="n"/>
-      <c r="J123" s="7" t="n"/>
-      <c r="K123" s="7" t="n"/>
-      <c r="L123" s="7" t="n"/>
-      <c r="M123" s="7" t="n"/>
-      <c r="N123" s="7" t="n"/>
-      <c r="O123" s="7" t="n"/>
-      <c r="P123" s="7" t="n"/>
-      <c r="Q123" s="7" t="n"/>
-      <c r="R123" s="7" t="n"/>
-      <c r="S123" s="7" t="n"/>
+      <c r="H123" s="51" t="n"/>
+      <c r="I123" s="51" t="n"/>
+      <c r="J123" s="51" t="n"/>
+      <c r="K123" s="51" t="n"/>
+      <c r="L123" s="51" t="n"/>
+      <c r="M123" s="51" t="n"/>
+      <c r="N123" s="51" t="n"/>
+      <c r="O123" s="51" t="n"/>
+      <c r="P123" s="51" t="n"/>
+      <c r="Q123" s="51" t="n"/>
+      <c r="R123" s="51" t="n"/>
+      <c r="S123" s="51" t="n"/>
     </row>
     <row r="124">
       <c r="B124" s="3" t="n"/>
@@ -12729,18 +12952,18 @@
       <c r="E124" s="3" t="n"/>
       <c r="F124" s="3" t="n"/>
       <c r="G124" s="4" t="n"/>
-      <c r="H124" s="7" t="n"/>
-      <c r="I124" s="7" t="n"/>
-      <c r="J124" s="7" t="n"/>
-      <c r="K124" s="7" t="n"/>
-      <c r="L124" s="7" t="n"/>
-      <c r="M124" s="7" t="n"/>
-      <c r="N124" s="7" t="n"/>
-      <c r="O124" s="7" t="n"/>
-      <c r="P124" s="7" t="n"/>
-      <c r="Q124" s="7" t="n"/>
-      <c r="R124" s="7" t="n"/>
-      <c r="S124" s="7" t="n"/>
+      <c r="H124" s="51" t="n"/>
+      <c r="I124" s="51" t="n"/>
+      <c r="J124" s="51" t="n"/>
+      <c r="K124" s="51" t="n"/>
+      <c r="L124" s="51" t="n"/>
+      <c r="M124" s="51" t="n"/>
+      <c r="N124" s="51" t="n"/>
+      <c r="O124" s="51" t="n"/>
+      <c r="P124" s="51" t="n"/>
+      <c r="Q124" s="51" t="n"/>
+      <c r="R124" s="51" t="n"/>
+      <c r="S124" s="51" t="n"/>
     </row>
     <row r="125">
       <c r="B125" s="3" t="n"/>
@@ -12749,18 +12972,18 @@
       <c r="E125" s="3" t="n"/>
       <c r="F125" s="3" t="n"/>
       <c r="G125" s="4" t="n"/>
-      <c r="H125" s="7" t="n"/>
-      <c r="I125" s="7" t="n"/>
-      <c r="J125" s="7" t="n"/>
-      <c r="K125" s="7" t="n"/>
-      <c r="L125" s="7" t="n"/>
-      <c r="M125" s="7" t="n"/>
-      <c r="N125" s="7" t="n"/>
-      <c r="O125" s="7" t="n"/>
-      <c r="P125" s="7" t="n"/>
-      <c r="Q125" s="7" t="n"/>
-      <c r="R125" s="7" t="n"/>
-      <c r="S125" s="7" t="n"/>
+      <c r="H125" s="51" t="n"/>
+      <c r="I125" s="51" t="n"/>
+      <c r="J125" s="51" t="n"/>
+      <c r="K125" s="51" t="n"/>
+      <c r="L125" s="51" t="n"/>
+      <c r="M125" s="51" t="n"/>
+      <c r="N125" s="51" t="n"/>
+      <c r="O125" s="51" t="n"/>
+      <c r="P125" s="51" t="n"/>
+      <c r="Q125" s="51" t="n"/>
+      <c r="R125" s="51" t="n"/>
+      <c r="S125" s="51" t="n"/>
     </row>
     <row r="126">
       <c r="B126" s="3" t="n"/>
@@ -12769,18 +12992,18 @@
       <c r="E126" s="3" t="n"/>
       <c r="F126" s="3" t="n"/>
       <c r="G126" s="4" t="n"/>
-      <c r="H126" s="7" t="n"/>
-      <c r="I126" s="7" t="n"/>
-      <c r="J126" s="7" t="n"/>
-      <c r="K126" s="7" t="n"/>
-      <c r="L126" s="7" t="n"/>
-      <c r="M126" s="7" t="n"/>
-      <c r="N126" s="7" t="n"/>
-      <c r="O126" s="7" t="n"/>
-      <c r="P126" s="7" t="n"/>
-      <c r="Q126" s="7" t="n"/>
-      <c r="R126" s="7" t="n"/>
-      <c r="S126" s="7" t="n"/>
+      <c r="H126" s="51" t="n"/>
+      <c r="I126" s="51" t="n"/>
+      <c r="J126" s="51" t="n"/>
+      <c r="K126" s="51" t="n"/>
+      <c r="L126" s="51" t="n"/>
+      <c r="M126" s="51" t="n"/>
+      <c r="N126" s="51" t="n"/>
+      <c r="O126" s="51" t="n"/>
+      <c r="P126" s="51" t="n"/>
+      <c r="Q126" s="51" t="n"/>
+      <c r="R126" s="51" t="n"/>
+      <c r="S126" s="51" t="n"/>
     </row>
     <row r="127">
       <c r="B127" s="3" t="n"/>
@@ -12789,18 +13012,18 @@
       <c r="E127" s="3" t="n"/>
       <c r="F127" s="3" t="n"/>
       <c r="G127" s="4" t="n"/>
-      <c r="H127" s="7" t="n"/>
-      <c r="I127" s="7" t="n"/>
-      <c r="J127" s="7" t="n"/>
-      <c r="K127" s="7" t="n"/>
-      <c r="L127" s="7" t="n"/>
-      <c r="M127" s="7" t="n"/>
-      <c r="N127" s="7" t="n"/>
-      <c r="O127" s="7" t="n"/>
-      <c r="P127" s="7" t="n"/>
-      <c r="Q127" s="7" t="n"/>
-      <c r="R127" s="7" t="n"/>
-      <c r="S127" s="7" t="n"/>
+      <c r="H127" s="51" t="n"/>
+      <c r="I127" s="51" t="n"/>
+      <c r="J127" s="51" t="n"/>
+      <c r="K127" s="51" t="n"/>
+      <c r="L127" s="51" t="n"/>
+      <c r="M127" s="51" t="n"/>
+      <c r="N127" s="51" t="n"/>
+      <c r="O127" s="51" t="n"/>
+      <c r="P127" s="51" t="n"/>
+      <c r="Q127" s="51" t="n"/>
+      <c r="R127" s="51" t="n"/>
+      <c r="S127" s="51" t="n"/>
     </row>
     <row r="128">
       <c r="B128" s="3" t="n"/>
@@ -12809,18 +13032,18 @@
       <c r="E128" s="3" t="n"/>
       <c r="F128" s="3" t="n"/>
       <c r="G128" s="4" t="n"/>
-      <c r="H128" s="7" t="n"/>
-      <c r="I128" s="7" t="n"/>
-      <c r="J128" s="7" t="n"/>
-      <c r="K128" s="7" t="n"/>
-      <c r="L128" s="7" t="n"/>
-      <c r="M128" s="7" t="n"/>
-      <c r="N128" s="7" t="n"/>
-      <c r="O128" s="7" t="n"/>
-      <c r="P128" s="7" t="n"/>
-      <c r="Q128" s="7" t="n"/>
-      <c r="R128" s="7" t="n"/>
-      <c r="S128" s="7" t="n"/>
+      <c r="H128" s="51" t="n"/>
+      <c r="I128" s="51" t="n"/>
+      <c r="J128" s="51" t="n"/>
+      <c r="K128" s="51" t="n"/>
+      <c r="L128" s="51" t="n"/>
+      <c r="M128" s="51" t="n"/>
+      <c r="N128" s="51" t="n"/>
+      <c r="O128" s="51" t="n"/>
+      <c r="P128" s="51" t="n"/>
+      <c r="Q128" s="51" t="n"/>
+      <c r="R128" s="51" t="n"/>
+      <c r="S128" s="51" t="n"/>
     </row>
     <row r="129">
       <c r="B129" s="3" t="n"/>
@@ -12829,18 +13052,18 @@
       <c r="E129" s="3" t="n"/>
       <c r="F129" s="3" t="n"/>
       <c r="G129" s="4" t="n"/>
-      <c r="H129" s="7" t="n"/>
-      <c r="I129" s="7" t="n"/>
-      <c r="J129" s="7" t="n"/>
-      <c r="K129" s="7" t="n"/>
-      <c r="L129" s="7" t="n"/>
-      <c r="M129" s="7" t="n"/>
-      <c r="N129" s="7" t="n"/>
-      <c r="O129" s="7" t="n"/>
-      <c r="P129" s="7" t="n"/>
-      <c r="Q129" s="7" t="n"/>
-      <c r="R129" s="7" t="n"/>
-      <c r="S129" s="7" t="n"/>
+      <c r="H129" s="51" t="n"/>
+      <c r="I129" s="51" t="n"/>
+      <c r="J129" s="51" t="n"/>
+      <c r="K129" s="51" t="n"/>
+      <c r="L129" s="51" t="n"/>
+      <c r="M129" s="51" t="n"/>
+      <c r="N129" s="51" t="n"/>
+      <c r="O129" s="51" t="n"/>
+      <c r="P129" s="51" t="n"/>
+      <c r="Q129" s="51" t="n"/>
+      <c r="R129" s="51" t="n"/>
+      <c r="S129" s="51" t="n"/>
     </row>
     <row r="130">
       <c r="B130" s="3" t="n"/>
@@ -12849,18 +13072,18 @@
       <c r="E130" s="3" t="n"/>
       <c r="F130" s="3" t="n"/>
       <c r="G130" s="4" t="n"/>
-      <c r="H130" s="7" t="n"/>
-      <c r="I130" s="7" t="n"/>
-      <c r="J130" s="7" t="n"/>
-      <c r="K130" s="7" t="n"/>
-      <c r="L130" s="7" t="n"/>
-      <c r="M130" s="7" t="n"/>
-      <c r="N130" s="7" t="n"/>
-      <c r="O130" s="7" t="n"/>
-      <c r="P130" s="7" t="n"/>
-      <c r="Q130" s="7" t="n"/>
-      <c r="R130" s="7" t="n"/>
-      <c r="S130" s="7" t="n"/>
+      <c r="H130" s="51" t="n"/>
+      <c r="I130" s="51" t="n"/>
+      <c r="J130" s="51" t="n"/>
+      <c r="K130" s="51" t="n"/>
+      <c r="L130" s="51" t="n"/>
+      <c r="M130" s="51" t="n"/>
+      <c r="N130" s="51" t="n"/>
+      <c r="O130" s="51" t="n"/>
+      <c r="P130" s="51" t="n"/>
+      <c r="Q130" s="51" t="n"/>
+      <c r="R130" s="51" t="n"/>
+      <c r="S130" s="51" t="n"/>
     </row>
     <row r="131">
       <c r="B131" s="3" t="n"/>
@@ -12869,18 +13092,18 @@
       <c r="E131" s="3" t="n"/>
       <c r="F131" s="3" t="n"/>
       <c r="G131" s="4" t="n"/>
-      <c r="H131" s="7" t="n"/>
-      <c r="I131" s="7" t="n"/>
-      <c r="J131" s="7" t="n"/>
-      <c r="K131" s="7" t="n"/>
-      <c r="L131" s="7" t="n"/>
-      <c r="M131" s="7" t="n"/>
-      <c r="N131" s="7" t="n"/>
-      <c r="O131" s="7" t="n"/>
-      <c r="P131" s="7" t="n"/>
-      <c r="Q131" s="7" t="n"/>
-      <c r="R131" s="7" t="n"/>
-      <c r="S131" s="7" t="n"/>
+      <c r="H131" s="51" t="n"/>
+      <c r="I131" s="51" t="n"/>
+      <c r="J131" s="51" t="n"/>
+      <c r="K131" s="51" t="n"/>
+      <c r="L131" s="51" t="n"/>
+      <c r="M131" s="51" t="n"/>
+      <c r="N131" s="51" t="n"/>
+      <c r="O131" s="51" t="n"/>
+      <c r="P131" s="51" t="n"/>
+      <c r="Q131" s="51" t="n"/>
+      <c r="R131" s="51" t="n"/>
+      <c r="S131" s="51" t="n"/>
     </row>
     <row r="132">
       <c r="B132" s="3" t="n"/>
@@ -12889,18 +13112,18 @@
       <c r="E132" s="3" t="n"/>
       <c r="F132" s="3" t="n"/>
       <c r="G132" s="4" t="n"/>
-      <c r="H132" s="7" t="n"/>
-      <c r="I132" s="7" t="n"/>
-      <c r="J132" s="7" t="n"/>
-      <c r="K132" s="7" t="n"/>
-      <c r="L132" s="7" t="n"/>
-      <c r="M132" s="7" t="n"/>
-      <c r="N132" s="7" t="n"/>
-      <c r="O132" s="7" t="n"/>
-      <c r="P132" s="7" t="n"/>
-      <c r="Q132" s="7" t="n"/>
-      <c r="R132" s="7" t="n"/>
-      <c r="S132" s="7" t="n"/>
+      <c r="H132" s="51" t="n"/>
+      <c r="I132" s="51" t="n"/>
+      <c r="J132" s="51" t="n"/>
+      <c r="K132" s="51" t="n"/>
+      <c r="L132" s="51" t="n"/>
+      <c r="M132" s="51" t="n"/>
+      <c r="N132" s="51" t="n"/>
+      <c r="O132" s="51" t="n"/>
+      <c r="P132" s="51" t="n"/>
+      <c r="Q132" s="51" t="n"/>
+      <c r="R132" s="51" t="n"/>
+      <c r="S132" s="51" t="n"/>
     </row>
     <row r="133">
       <c r="B133" s="3" t="n"/>
@@ -12909,18 +13132,18 @@
       <c r="E133" s="3" t="n"/>
       <c r="F133" s="3" t="n"/>
       <c r="G133" s="4" t="n"/>
-      <c r="H133" s="7" t="n"/>
-      <c r="I133" s="7" t="n"/>
-      <c r="J133" s="7" t="n"/>
-      <c r="K133" s="7" t="n"/>
-      <c r="L133" s="7" t="n"/>
-      <c r="M133" s="7" t="n"/>
-      <c r="N133" s="7" t="n"/>
-      <c r="O133" s="7" t="n"/>
-      <c r="P133" s="7" t="n"/>
-      <c r="Q133" s="7" t="n"/>
-      <c r="R133" s="7" t="n"/>
-      <c r="S133" s="7" t="n"/>
+      <c r="H133" s="51" t="n"/>
+      <c r="I133" s="51" t="n"/>
+      <c r="J133" s="51" t="n"/>
+      <c r="K133" s="51" t="n"/>
+      <c r="L133" s="51" t="n"/>
+      <c r="M133" s="51" t="n"/>
+      <c r="N133" s="51" t="n"/>
+      <c r="O133" s="51" t="n"/>
+      <c r="P133" s="51" t="n"/>
+      <c r="Q133" s="51" t="n"/>
+      <c r="R133" s="51" t="n"/>
+      <c r="S133" s="51" t="n"/>
     </row>
     <row r="134">
       <c r="B134" s="3" t="n"/>
@@ -12929,18 +13152,18 @@
       <c r="E134" s="3" t="n"/>
       <c r="F134" s="3" t="n"/>
       <c r="G134" s="4" t="n"/>
-      <c r="H134" s="7" t="n"/>
-      <c r="I134" s="7" t="n"/>
-      <c r="J134" s="7" t="n"/>
-      <c r="K134" s="7" t="n"/>
-      <c r="L134" s="7" t="n"/>
-      <c r="M134" s="7" t="n"/>
-      <c r="N134" s="7" t="n"/>
-      <c r="O134" s="7" t="n"/>
-      <c r="P134" s="7" t="n"/>
-      <c r="Q134" s="7" t="n"/>
-      <c r="R134" s="7" t="n"/>
-      <c r="S134" s="7" t="n"/>
+      <c r="H134" s="51" t="n"/>
+      <c r="I134" s="51" t="n"/>
+      <c r="J134" s="51" t="n"/>
+      <c r="K134" s="51" t="n"/>
+      <c r="L134" s="51" t="n"/>
+      <c r="M134" s="51" t="n"/>
+      <c r="N134" s="51" t="n"/>
+      <c r="O134" s="51" t="n"/>
+      <c r="P134" s="51" t="n"/>
+      <c r="Q134" s="51" t="n"/>
+      <c r="R134" s="51" t="n"/>
+      <c r="S134" s="51" t="n"/>
     </row>
     <row r="135">
       <c r="B135" s="3" t="n"/>
@@ -12949,18 +13172,18 @@
       <c r="E135" s="3" t="n"/>
       <c r="F135" s="3" t="n"/>
       <c r="G135" s="4" t="n"/>
-      <c r="H135" s="7" t="n"/>
-      <c r="I135" s="7" t="n"/>
-      <c r="J135" s="7" t="n"/>
-      <c r="K135" s="7" t="n"/>
-      <c r="L135" s="7" t="n"/>
-      <c r="M135" s="7" t="n"/>
-      <c r="N135" s="7" t="n"/>
-      <c r="O135" s="7" t="n"/>
-      <c r="P135" s="7" t="n"/>
-      <c r="Q135" s="7" t="n"/>
-      <c r="R135" s="7" t="n"/>
-      <c r="S135" s="7" t="n"/>
+      <c r="H135" s="51" t="n"/>
+      <c r="I135" s="51" t="n"/>
+      <c r="J135" s="51" t="n"/>
+      <c r="K135" s="51" t="n"/>
+      <c r="L135" s="51" t="n"/>
+      <c r="M135" s="51" t="n"/>
+      <c r="N135" s="51" t="n"/>
+      <c r="O135" s="51" t="n"/>
+      <c r="P135" s="51" t="n"/>
+      <c r="Q135" s="51" t="n"/>
+      <c r="R135" s="51" t="n"/>
+      <c r="S135" s="51" t="n"/>
     </row>
     <row r="136">
       <c r="B136" s="3" t="n"/>
@@ -12969,18 +13192,18 @@
       <c r="E136" s="3" t="n"/>
       <c r="F136" s="3" t="n"/>
       <c r="G136" s="4" t="n"/>
-      <c r="H136" s="7" t="n"/>
-      <c r="I136" s="7" t="n"/>
-      <c r="J136" s="7" t="n"/>
-      <c r="K136" s="7" t="n"/>
-      <c r="L136" s="7" t="n"/>
-      <c r="M136" s="7" t="n"/>
-      <c r="N136" s="7" t="n"/>
-      <c r="O136" s="7" t="n"/>
-      <c r="P136" s="7" t="n"/>
-      <c r="Q136" s="7" t="n"/>
-      <c r="R136" s="7" t="n"/>
-      <c r="S136" s="7" t="n"/>
+      <c r="H136" s="51" t="n"/>
+      <c r="I136" s="51" t="n"/>
+      <c r="J136" s="51" t="n"/>
+      <c r="K136" s="51" t="n"/>
+      <c r="L136" s="51" t="n"/>
+      <c r="M136" s="51" t="n"/>
+      <c r="N136" s="51" t="n"/>
+      <c r="O136" s="51" t="n"/>
+      <c r="P136" s="51" t="n"/>
+      <c r="Q136" s="51" t="n"/>
+      <c r="R136" s="51" t="n"/>
+      <c r="S136" s="51" t="n"/>
     </row>
     <row r="137">
       <c r="B137" s="3" t="n"/>
@@ -12989,18 +13212,18 @@
       <c r="E137" s="3" t="n"/>
       <c r="F137" s="3" t="n"/>
       <c r="G137" s="4" t="n"/>
-      <c r="H137" s="7" t="n"/>
-      <c r="I137" s="7" t="n"/>
-      <c r="J137" s="7" t="n"/>
-      <c r="K137" s="7" t="n"/>
-      <c r="L137" s="7" t="n"/>
-      <c r="M137" s="7" t="n"/>
-      <c r="N137" s="7" t="n"/>
-      <c r="O137" s="7" t="n"/>
-      <c r="P137" s="7" t="n"/>
-      <c r="Q137" s="7" t="n"/>
-      <c r="R137" s="7" t="n"/>
-      <c r="S137" s="7" t="n"/>
+      <c r="H137" s="51" t="n"/>
+      <c r="I137" s="51" t="n"/>
+      <c r="J137" s="51" t="n"/>
+      <c r="K137" s="51" t="n"/>
+      <c r="L137" s="51" t="n"/>
+      <c r="M137" s="51" t="n"/>
+      <c r="N137" s="51" t="n"/>
+      <c r="O137" s="51" t="n"/>
+      <c r="P137" s="51" t="n"/>
+      <c r="Q137" s="51" t="n"/>
+      <c r="R137" s="51" t="n"/>
+      <c r="S137" s="51" t="n"/>
     </row>
     <row r="138">
       <c r="B138" s="3" t="n"/>
@@ -13009,18 +13232,18 @@
       <c r="E138" s="3" t="n"/>
       <c r="F138" s="3" t="n"/>
       <c r="G138" s="4" t="n"/>
-      <c r="H138" s="7" t="n"/>
-      <c r="I138" s="7" t="n"/>
-      <c r="J138" s="7" t="n"/>
-      <c r="K138" s="7" t="n"/>
-      <c r="L138" s="7" t="n"/>
-      <c r="M138" s="7" t="n"/>
-      <c r="N138" s="7" t="n"/>
-      <c r="O138" s="7" t="n"/>
-      <c r="P138" s="7" t="n"/>
-      <c r="Q138" s="7" t="n"/>
-      <c r="R138" s="7" t="n"/>
-      <c r="S138" s="7" t="n"/>
+      <c r="H138" s="51" t="n"/>
+      <c r="I138" s="51" t="n"/>
+      <c r="J138" s="51" t="n"/>
+      <c r="K138" s="51" t="n"/>
+      <c r="L138" s="51" t="n"/>
+      <c r="M138" s="51" t="n"/>
+      <c r="N138" s="51" t="n"/>
+      <c r="O138" s="51" t="n"/>
+      <c r="P138" s="51" t="n"/>
+      <c r="Q138" s="51" t="n"/>
+      <c r="R138" s="51" t="n"/>
+      <c r="S138" s="51" t="n"/>
     </row>
     <row r="139">
       <c r="B139" s="3" t="n"/>
@@ -13029,18 +13252,18 @@
       <c r="E139" s="3" t="n"/>
       <c r="F139" s="3" t="n"/>
       <c r="G139" s="4" t="n"/>
-      <c r="H139" s="7" t="n"/>
-      <c r="I139" s="7" t="n"/>
-      <c r="J139" s="7" t="n"/>
-      <c r="K139" s="7" t="n"/>
-      <c r="L139" s="7" t="n"/>
-      <c r="M139" s="7" t="n"/>
-      <c r="N139" s="7" t="n"/>
-      <c r="O139" s="7" t="n"/>
-      <c r="P139" s="7" t="n"/>
-      <c r="Q139" s="7" t="n"/>
-      <c r="R139" s="7" t="n"/>
-      <c r="S139" s="7" t="n"/>
+      <c r="H139" s="51" t="n"/>
+      <c r="I139" s="51" t="n"/>
+      <c r="J139" s="51" t="n"/>
+      <c r="K139" s="51" t="n"/>
+      <c r="L139" s="51" t="n"/>
+      <c r="M139" s="51" t="n"/>
+      <c r="N139" s="51" t="n"/>
+      <c r="O139" s="51" t="n"/>
+      <c r="P139" s="51" t="n"/>
+      <c r="Q139" s="51" t="n"/>
+      <c r="R139" s="51" t="n"/>
+      <c r="S139" s="51" t="n"/>
     </row>
     <row r="140">
       <c r="B140" s="3" t="n"/>
@@ -13049,18 +13272,18 @@
       <c r="E140" s="3" t="n"/>
       <c r="F140" s="3" t="n"/>
       <c r="G140" s="4" t="n"/>
-      <c r="H140" s="7" t="n"/>
-      <c r="I140" s="7" t="n"/>
-      <c r="J140" s="7" t="n"/>
-      <c r="K140" s="7" t="n"/>
-      <c r="L140" s="7" t="n"/>
-      <c r="M140" s="7" t="n"/>
-      <c r="N140" s="7" t="n"/>
-      <c r="O140" s="7" t="n"/>
-      <c r="P140" s="7" t="n"/>
-      <c r="Q140" s="7" t="n"/>
-      <c r="R140" s="7" t="n"/>
-      <c r="S140" s="7" t="n"/>
+      <c r="H140" s="51" t="n"/>
+      <c r="I140" s="51" t="n"/>
+      <c r="J140" s="51" t="n"/>
+      <c r="K140" s="51" t="n"/>
+      <c r="L140" s="51" t="n"/>
+      <c r="M140" s="51" t="n"/>
+      <c r="N140" s="51" t="n"/>
+      <c r="O140" s="51" t="n"/>
+      <c r="P140" s="51" t="n"/>
+      <c r="Q140" s="51" t="n"/>
+      <c r="R140" s="51" t="n"/>
+      <c r="S140" s="51" t="n"/>
     </row>
     <row r="141">
       <c r="B141" s="3" t="n"/>
@@ -13069,18 +13292,18 @@
       <c r="E141" s="3" t="n"/>
       <c r="F141" s="3" t="n"/>
       <c r="G141" s="4" t="n"/>
-      <c r="H141" s="7" t="n"/>
-      <c r="I141" s="7" t="n"/>
-      <c r="J141" s="7" t="n"/>
-      <c r="K141" s="7" t="n"/>
-      <c r="L141" s="7" t="n"/>
-      <c r="M141" s="7" t="n"/>
-      <c r="N141" s="7" t="n"/>
-      <c r="O141" s="7" t="n"/>
-      <c r="P141" s="7" t="n"/>
-      <c r="Q141" s="7" t="n"/>
-      <c r="R141" s="7" t="n"/>
-      <c r="S141" s="7" t="n"/>
+      <c r="H141" s="51" t="n"/>
+      <c r="I141" s="51" t="n"/>
+      <c r="J141" s="51" t="n"/>
+      <c r="K141" s="51" t="n"/>
+      <c r="L141" s="51" t="n"/>
+      <c r="M141" s="51" t="n"/>
+      <c r="N141" s="51" t="n"/>
+      <c r="O141" s="51" t="n"/>
+      <c r="P141" s="51" t="n"/>
+      <c r="Q141" s="51" t="n"/>
+      <c r="R141" s="51" t="n"/>
+      <c r="S141" s="51" t="n"/>
     </row>
     <row r="142">
       <c r="B142" s="3" t="n"/>
@@ -13089,18 +13312,18 @@
       <c r="E142" s="3" t="n"/>
       <c r="F142" s="3" t="n"/>
       <c r="G142" s="4" t="n"/>
-      <c r="H142" s="7" t="n"/>
-      <c r="I142" s="7" t="n"/>
-      <c r="J142" s="7" t="n"/>
-      <c r="K142" s="7" t="n"/>
-      <c r="L142" s="7" t="n"/>
-      <c r="M142" s="7" t="n"/>
-      <c r="N142" s="7" t="n"/>
-      <c r="O142" s="7" t="n"/>
-      <c r="P142" s="7" t="n"/>
-      <c r="Q142" s="7" t="n"/>
-      <c r="R142" s="7" t="n"/>
-      <c r="S142" s="7" t="n"/>
+      <c r="H142" s="51" t="n"/>
+      <c r="I142" s="51" t="n"/>
+      <c r="J142" s="51" t="n"/>
+      <c r="K142" s="51" t="n"/>
+      <c r="L142" s="51" t="n"/>
+      <c r="M142" s="51" t="n"/>
+      <c r="N142" s="51" t="n"/>
+      <c r="O142" s="51" t="n"/>
+      <c r="P142" s="51" t="n"/>
+      <c r="Q142" s="51" t="n"/>
+      <c r="R142" s="51" t="n"/>
+      <c r="S142" s="51" t="n"/>
     </row>
     <row r="143">
       <c r="B143" s="3" t="n"/>
@@ -13109,18 +13332,18 @@
       <c r="E143" s="3" t="n"/>
       <c r="F143" s="3" t="n"/>
       <c r="G143" s="4" t="n"/>
-      <c r="H143" s="7" t="n"/>
-      <c r="I143" s="7" t="n"/>
-      <c r="J143" s="7" t="n"/>
-      <c r="K143" s="7" t="n"/>
-      <c r="L143" s="7" t="n"/>
-      <c r="M143" s="7" t="n"/>
-      <c r="N143" s="7" t="n"/>
-      <c r="O143" s="7" t="n"/>
-      <c r="P143" s="7" t="n"/>
-      <c r="Q143" s="7" t="n"/>
-      <c r="R143" s="7" t="n"/>
-      <c r="S143" s="7" t="n"/>
+      <c r="H143" s="51" t="n"/>
+      <c r="I143" s="51" t="n"/>
+      <c r="J143" s="51" t="n"/>
+      <c r="K143" s="51" t="n"/>
+      <c r="L143" s="51" t="n"/>
+      <c r="M143" s="51" t="n"/>
+      <c r="N143" s="51" t="n"/>
+      <c r="O143" s="51" t="n"/>
+      <c r="P143" s="51" t="n"/>
+      <c r="Q143" s="51" t="n"/>
+      <c r="R143" s="51" t="n"/>
+      <c r="S143" s="51" t="n"/>
     </row>
     <row r="144">
       <c r="B144" s="3" t="n"/>
@@ -13129,18 +13352,18 @@
       <c r="E144" s="3" t="n"/>
       <c r="F144" s="3" t="n"/>
       <c r="G144" s="4" t="n"/>
-      <c r="H144" s="7" t="n"/>
-      <c r="I144" s="7" t="n"/>
-      <c r="J144" s="7" t="n"/>
-      <c r="K144" s="7" t="n"/>
-      <c r="L144" s="7" t="n"/>
-      <c r="M144" s="7" t="n"/>
-      <c r="N144" s="7" t="n"/>
-      <c r="O144" s="7" t="n"/>
-      <c r="P144" s="7" t="n"/>
-      <c r="Q144" s="7" t="n"/>
-      <c r="R144" s="7" t="n"/>
-      <c r="S144" s="7" t="n"/>
+      <c r="H144" s="51" t="n"/>
+      <c r="I144" s="51" t="n"/>
+      <c r="J144" s="51" t="n"/>
+      <c r="K144" s="51" t="n"/>
+      <c r="L144" s="51" t="n"/>
+      <c r="M144" s="51" t="n"/>
+      <c r="N144" s="51" t="n"/>
+      <c r="O144" s="51" t="n"/>
+      <c r="P144" s="51" t="n"/>
+      <c r="Q144" s="51" t="n"/>
+      <c r="R144" s="51" t="n"/>
+      <c r="S144" s="51" t="n"/>
     </row>
     <row r="145">
       <c r="B145" s="3" t="n"/>
@@ -13149,18 +13372,18 @@
       <c r="E145" s="3" t="n"/>
       <c r="F145" s="3" t="n"/>
       <c r="G145" s="4" t="n"/>
-      <c r="H145" s="7" t="n"/>
-      <c r="I145" s="7" t="n"/>
-      <c r="J145" s="7" t="n"/>
-      <c r="K145" s="7" t="n"/>
-      <c r="L145" s="7" t="n"/>
-      <c r="M145" s="7" t="n"/>
-      <c r="N145" s="7" t="n"/>
-      <c r="O145" s="7" t="n"/>
-      <c r="P145" s="7" t="n"/>
-      <c r="Q145" s="7" t="n"/>
-      <c r="R145" s="7" t="n"/>
-      <c r="S145" s="7" t="n"/>
+      <c r="H145" s="51" t="n"/>
+      <c r="I145" s="51" t="n"/>
+      <c r="J145" s="51" t="n"/>
+      <c r="K145" s="51" t="n"/>
+      <c r="L145" s="51" t="n"/>
+      <c r="M145" s="51" t="n"/>
+      <c r="N145" s="51" t="n"/>
+      <c r="O145" s="51" t="n"/>
+      <c r="P145" s="51" t="n"/>
+      <c r="Q145" s="51" t="n"/>
+      <c r="R145" s="51" t="n"/>
+      <c r="S145" s="51" t="n"/>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
@@ -13169,18 +13392,18 @@
       <c r="E146" s="3" t="n"/>
       <c r="F146" s="3" t="n"/>
       <c r="G146" s="4" t="n"/>
-      <c r="H146" s="7" t="n"/>
-      <c r="I146" s="7" t="n"/>
-      <c r="J146" s="7" t="n"/>
-      <c r="K146" s="7" t="n"/>
-      <c r="L146" s="7" t="n"/>
-      <c r="M146" s="7" t="n"/>
-      <c r="N146" s="7" t="n"/>
-      <c r="O146" s="7" t="n"/>
-      <c r="P146" s="7" t="n"/>
-      <c r="Q146" s="7" t="n"/>
-      <c r="R146" s="7" t="n"/>
-      <c r="S146" s="7" t="n"/>
+      <c r="H146" s="51" t="n"/>
+      <c r="I146" s="51" t="n"/>
+      <c r="J146" s="51" t="n"/>
+      <c r="K146" s="51" t="n"/>
+      <c r="L146" s="51" t="n"/>
+      <c r="M146" s="51" t="n"/>
+      <c r="N146" s="51" t="n"/>
+      <c r="O146" s="51" t="n"/>
+      <c r="P146" s="51" t="n"/>
+      <c r="Q146" s="51" t="n"/>
+      <c r="R146" s="51" t="n"/>
+      <c r="S146" s="51" t="n"/>
     </row>
     <row r="147">
       <c r="B147" s="3" t="n"/>
@@ -13189,18 +13412,18 @@
       <c r="E147" s="3" t="n"/>
       <c r="F147" s="3" t="n"/>
       <c r="G147" s="4" t="n"/>
-      <c r="H147" s="7" t="n"/>
-      <c r="I147" s="7" t="n"/>
-      <c r="J147" s="7" t="n"/>
-      <c r="K147" s="7" t="n"/>
-      <c r="L147" s="7" t="n"/>
-      <c r="M147" s="7" t="n"/>
-      <c r="N147" s="7" t="n"/>
-      <c r="O147" s="7" t="n"/>
-      <c r="P147" s="7" t="n"/>
-      <c r="Q147" s="7" t="n"/>
-      <c r="R147" s="7" t="n"/>
-      <c r="S147" s="7" t="n"/>
+      <c r="H147" s="51" t="n"/>
+      <c r="I147" s="51" t="n"/>
+      <c r="J147" s="51" t="n"/>
+      <c r="K147" s="51" t="n"/>
+      <c r="L147" s="51" t="n"/>
+      <c r="M147" s="51" t="n"/>
+      <c r="N147" s="51" t="n"/>
+      <c r="O147" s="51" t="n"/>
+      <c r="P147" s="51" t="n"/>
+      <c r="Q147" s="51" t="n"/>
+      <c r="R147" s="51" t="n"/>
+      <c r="S147" s="51" t="n"/>
     </row>
     <row r="148">
       <c r="B148" s="3" t="n"/>
@@ -13209,18 +13432,18 @@
       <c r="E148" s="3" t="n"/>
       <c r="F148" s="3" t="n"/>
       <c r="G148" s="4" t="n"/>
-      <c r="H148" s="7" t="n"/>
-      <c r="I148" s="7" t="n"/>
-      <c r="J148" s="7" t="n"/>
-      <c r="K148" s="7" t="n"/>
-      <c r="L148" s="7" t="n"/>
-      <c r="M148" s="7" t="n"/>
-      <c r="N148" s="7" t="n"/>
-      <c r="O148" s="7" t="n"/>
-      <c r="P148" s="7" t="n"/>
-      <c r="Q148" s="7" t="n"/>
-      <c r="R148" s="7" t="n"/>
-      <c r="S148" s="7" t="n"/>
+      <c r="H148" s="51" t="n"/>
+      <c r="I148" s="51" t="n"/>
+      <c r="J148" s="51" t="n"/>
+      <c r="K148" s="51" t="n"/>
+      <c r="L148" s="51" t="n"/>
+      <c r="M148" s="51" t="n"/>
+      <c r="N148" s="51" t="n"/>
+      <c r="O148" s="51" t="n"/>
+      <c r="P148" s="51" t="n"/>
+      <c r="Q148" s="51" t="n"/>
+      <c r="R148" s="51" t="n"/>
+      <c r="S148" s="51" t="n"/>
     </row>
     <row r="149">
       <c r="B149" s="3" t="n"/>
@@ -13229,18 +13452,18 @@
       <c r="E149" s="3" t="n"/>
       <c r="F149" s="3" t="n"/>
       <c r="G149" s="4" t="n"/>
-      <c r="H149" s="7" t="n"/>
-      <c r="I149" s="7" t="n"/>
-      <c r="J149" s="7" t="n"/>
-      <c r="K149" s="7" t="n"/>
-      <c r="L149" s="7" t="n"/>
-      <c r="M149" s="7" t="n"/>
-      <c r="N149" s="7" t="n"/>
-      <c r="O149" s="7" t="n"/>
-      <c r="P149" s="7" t="n"/>
-      <c r="Q149" s="7" t="n"/>
-      <c r="R149" s="7" t="n"/>
-      <c r="S149" s="7" t="n"/>
+      <c r="H149" s="51" t="n"/>
+      <c r="I149" s="51" t="n"/>
+      <c r="J149" s="51" t="n"/>
+      <c r="K149" s="51" t="n"/>
+      <c r="L149" s="51" t="n"/>
+      <c r="M149" s="51" t="n"/>
+      <c r="N149" s="51" t="n"/>
+      <c r="O149" s="51" t="n"/>
+      <c r="P149" s="51" t="n"/>
+      <c r="Q149" s="51" t="n"/>
+      <c r="R149" s="51" t="n"/>
+      <c r="S149" s="51" t="n"/>
     </row>
     <row r="150">
       <c r="B150" s="3" t="n"/>
@@ -13249,18 +13472,18 @@
       <c r="E150" s="3" t="n"/>
       <c r="F150" s="3" t="n"/>
       <c r="G150" s="4" t="n"/>
-      <c r="H150" s="7" t="n"/>
-      <c r="I150" s="7" t="n"/>
-      <c r="J150" s="7" t="n"/>
-      <c r="K150" s="7" t="n"/>
-      <c r="L150" s="7" t="n"/>
-      <c r="M150" s="7" t="n"/>
-      <c r="N150" s="7" t="n"/>
-      <c r="O150" s="7" t="n"/>
-      <c r="P150" s="7" t="n"/>
-      <c r="Q150" s="7" t="n"/>
-      <c r="R150" s="7" t="n"/>
-      <c r="S150" s="7" t="n"/>
+      <c r="H150" s="51" t="n"/>
+      <c r="I150" s="51" t="n"/>
+      <c r="J150" s="51" t="n"/>
+      <c r="K150" s="51" t="n"/>
+      <c r="L150" s="51" t="n"/>
+      <c r="M150" s="51" t="n"/>
+      <c r="N150" s="51" t="n"/>
+      <c r="O150" s="51" t="n"/>
+      <c r="P150" s="51" t="n"/>
+      <c r="Q150" s="51" t="n"/>
+      <c r="R150" s="51" t="n"/>
+      <c r="S150" s="51" t="n"/>
     </row>
     <row r="151">
       <c r="B151" s="3" t="n"/>
@@ -13269,21 +13492,21 @@
       <c r="E151" s="3" t="n"/>
       <c r="F151" s="3" t="n"/>
       <c r="G151" s="3" t="n"/>
-      <c r="H151" s="7">
+      <c r="H151" s="51">
         <f>SUM(MATERIA_PRIMA)</f>
         <v/>
       </c>
-      <c r="I151" s="7" t="n"/>
-      <c r="J151" s="7" t="n"/>
-      <c r="K151" s="7" t="n"/>
-      <c r="L151" s="7" t="n"/>
-      <c r="M151" s="7" t="n"/>
-      <c r="N151" s="7" t="n"/>
-      <c r="O151" s="7" t="n"/>
-      <c r="P151" s="7" t="n"/>
-      <c r="Q151" s="7" t="n"/>
-      <c r="R151" s="7" t="n"/>
-      <c r="S151" s="7" t="n"/>
+      <c r="I151" s="51" t="n"/>
+      <c r="J151" s="51" t="n"/>
+      <c r="K151" s="51" t="n"/>
+      <c r="L151" s="51" t="n"/>
+      <c r="M151" s="51" t="n"/>
+      <c r="N151" s="51" t="n"/>
+      <c r="O151" s="51" t="n"/>
+      <c r="P151" s="51" t="n"/>
+      <c r="Q151" s="51" t="n"/>
+      <c r="R151" s="51" t="n"/>
+      <c r="S151" s="51" t="n"/>
     </row>
     <row r="152">
       <c r="C152" s="10" t="n"/>

--- a/REGISTRO DE COMPRAS 2024.xlsx
+++ b/REGISTRO DE COMPRAS 2024.xlsx
@@ -46,8 +46,8 @@
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="166" formatCode="#,##0.0;[Red]#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -565,7 +565,7 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
@@ -608,7 +608,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -739,10 +739,10 @@
     <xf numFmtId="165" fontId="16" fillId="33" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="16" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -770,6 +770,7 @@
     <xf numFmtId="164" fontId="0" fillId="33" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1189,7 +1190,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:M17"/>
+  <dimension ref="B2:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -1707,6 +1708,49 @@
       <c r="L17" s="43">
         <f>SUM(L6:L16)</f>
         <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>77</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>77</v>
+      </c>
+      <c r="H18" s="55" t="n">
+        <v>36192</v>
+      </c>
+      <c r="I18" t="n">
+        <v>77</v>
+      </c>
+      <c r="J18" t="n">
+        <v>77</v>
+      </c>
+      <c r="K18" t="n">
+        <v>77</v>
+      </c>
+      <c r="L18" t="n">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1733,7 +1777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:M21"/>
+  <dimension ref="B2:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
@@ -2441,30 +2485,73 @@
       </c>
     </row>
     <row r="21" customFormat="1" s="21">
-      <c r="B21" s="17" t="n"/>
-      <c r="C21" s="17" t="n"/>
-      <c r="D21" s="17" t="n"/>
-      <c r="E21" s="17" t="n"/>
-      <c r="F21" s="17" t="n"/>
-      <c r="G21" s="17" t="n"/>
-      <c r="H21" s="17" t="n"/>
-      <c r="I21" s="43">
+      <c r="B21" t="n">
+        <v>77</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>77</v>
+      </c>
+      <c r="H21" s="55" t="n">
+        <v>36220</v>
+      </c>
+      <c r="I21" t="n">
+        <v>77</v>
+      </c>
+      <c r="J21" t="n">
+        <v>77</v>
+      </c>
+      <c r="K21" t="n">
+        <v>77</v>
+      </c>
+      <c r="L21" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="17" t="n"/>
+      <c r="C22" s="17" t="n"/>
+      <c r="D22" s="17" t="n"/>
+      <c r="E22" s="17" t="n"/>
+      <c r="F22" s="17" t="n"/>
+      <c r="G22" s="17" t="n"/>
+      <c r="H22" s="17" t="n"/>
+      <c r="I22" s="43">
         <f>SUM(I6:I20)</f>
         <v/>
       </c>
-      <c r="J21" s="43">
+      <c r="J22" s="43">
         <f>SUM(J6:J20)</f>
         <v/>
       </c>
-      <c r="K21" s="43">
+      <c r="K22" s="43">
         <f>SUM(K6:K20)</f>
         <v/>
       </c>
-      <c r="L21" s="43">
+      <c r="L22" s="43">
         <f>SUM(L6:L20)</f>
         <v/>
       </c>
-      <c r="M21" s="44" t="n"/>
+      <c r="M22" s="45" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2490,7 +2577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:M21"/>
+  <dimension ref="B2:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
@@ -3116,54 +3203,97 @@
       </c>
     </row>
     <row r="19" customFormat="1" s="21">
-      <c r="B19" s="17" t="n"/>
-      <c r="C19" s="17" t="n"/>
-      <c r="D19" s="17" t="n"/>
-      <c r="E19" s="17" t="n"/>
-      <c r="F19" s="17" t="n"/>
-      <c r="G19" s="17" t="n"/>
-      <c r="H19" s="23" t="n"/>
-      <c r="I19" s="43" t="n"/>
-      <c r="J19" s="43">
+      <c r="B19" t="n">
+        <v>77</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>77</v>
+      </c>
+      <c r="H19" s="55" t="n">
+        <v>36251</v>
+      </c>
+      <c r="I19" t="n">
+        <v>77</v>
+      </c>
+      <c r="J19" t="n">
+        <v>77</v>
+      </c>
+      <c r="K19" t="n">
+        <v>77</v>
+      </c>
+      <c r="L19" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="17" t="n"/>
+      <c r="C20" s="17" t="n"/>
+      <c r="D20" s="17" t="n"/>
+      <c r="E20" s="17" t="n"/>
+      <c r="F20" s="17" t="n"/>
+      <c r="G20" s="17" t="n"/>
+      <c r="H20" s="23" t="n"/>
+      <c r="I20" s="43" t="n"/>
+      <c r="J20" s="43">
         <f>SUM(J6:J18)</f>
         <v/>
       </c>
-      <c r="K19" s="43">
+      <c r="K20" s="43">
         <f>SUM(K6:K18)</f>
         <v/>
       </c>
-      <c r="L19" s="43">
+      <c r="L20" s="43">
         <f>SUM(L6:L18)</f>
         <v/>
       </c>
-      <c r="M19" s="44" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
-      <c r="D20" s="3" t="n"/>
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="n"/>
-      <c r="H20" s="4" t="n"/>
-      <c r="I20" s="42" t="n"/>
-      <c r="J20" s="42" t="n"/>
-      <c r="K20" s="42" t="n"/>
-      <c r="L20" s="42" t="n"/>
+      <c r="M20" s="45" t="n"/>
     </row>
     <row r="21" customFormat="1" s="21">
-      <c r="B21" s="17" t="n"/>
-      <c r="C21" s="17" t="n"/>
-      <c r="D21" s="17" t="n"/>
-      <c r="E21" s="17" t="n"/>
-      <c r="F21" s="17" t="n"/>
-      <c r="G21" s="17" t="n"/>
-      <c r="H21" s="17" t="n"/>
-      <c r="I21" s="43" t="n"/>
-      <c r="J21" s="43" t="n"/>
-      <c r="K21" s="43" t="n"/>
-      <c r="L21" s="43" t="n"/>
-      <c r="M21" s="44" t="n"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
+      <c r="H21" s="4" t="n"/>
+      <c r="I21" s="42" t="n"/>
+      <c r="J21" s="42" t="n"/>
+      <c r="K21" s="42" t="n"/>
+      <c r="L21" s="42" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="17" t="n"/>
+      <c r="C22" s="17" t="n"/>
+      <c r="D22" s="17" t="n"/>
+      <c r="E22" s="17" t="n"/>
+      <c r="F22" s="17" t="n"/>
+      <c r="G22" s="17" t="n"/>
+      <c r="H22" s="17" t="n"/>
+      <c r="I22" s="43" t="n"/>
+      <c r="J22" s="43" t="n"/>
+      <c r="K22" s="43" t="n"/>
+      <c r="L22" s="43" t="n"/>
+      <c r="M22" s="45" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3897,73 +4027,73 @@
       </c>
     </row>
     <row r="21" customFormat="1" s="21">
-      <c r="B21" s="17" t="n"/>
-      <c r="C21" s="17" t="n"/>
-      <c r="D21" s="17" t="n"/>
-      <c r="E21" s="17" t="n"/>
-      <c r="F21" s="17" t="n"/>
-      <c r="G21" s="17" t="n"/>
-      <c r="H21" s="17" t="n"/>
-      <c r="I21" s="43">
+      <c r="B21" t="n">
+        <v>77</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>77</v>
+      </c>
+      <c r="H21" s="55" t="n">
+        <v>36281</v>
+      </c>
+      <c r="I21" t="n">
+        <v>77</v>
+      </c>
+      <c r="J21" t="n">
+        <v>77</v>
+      </c>
+      <c r="K21" t="n">
+        <v>77</v>
+      </c>
+      <c r="L21" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="17" t="n"/>
+      <c r="C22" s="17" t="n"/>
+      <c r="D22" s="17" t="n"/>
+      <c r="E22" s="17" t="n"/>
+      <c r="F22" s="17" t="n"/>
+      <c r="G22" s="17" t="n"/>
+      <c r="H22" s="17" t="n"/>
+      <c r="I22" s="43">
         <f>SUM(I6:I20)</f>
         <v/>
       </c>
-      <c r="J21" s="43">
+      <c r="J22" s="43">
         <f>SUM(J6:J20)</f>
         <v/>
       </c>
-      <c r="K21" s="43">
+      <c r="K22" s="43">
         <f>SUM(K6:K20)</f>
         <v/>
       </c>
-      <c r="L21" s="43">
+      <c r="L22" s="43">
         <f>SUM(L6:L20)</f>
         <v/>
       </c>
-      <c r="M21" s="44" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" t="n">
-        <v>10</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>10</v>
-      </c>
-      <c r="H22" s="45" t="n">
-        <v>36656</v>
-      </c>
-      <c r="I22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J22" t="n">
-        <v>10</v>
-      </c>
-      <c r="K22" t="n">
-        <v>10</v>
-      </c>
-      <c r="L22" t="n">
-        <v>10</v>
-      </c>
+      <c r="M22" s="45" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4945,7 +5075,7 @@
         <f>SUM(L6:L25)</f>
         <v/>
       </c>
-      <c r="M26" s="44" t="n"/>
+      <c r="M26" s="45" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5719,7 +5849,7 @@
         <f>SUM(L6:L25)</f>
         <v/>
       </c>
-      <c r="M26" s="44" t="n"/>
+      <c r="M26" s="45" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6637,7 +6767,7 @@
         <f>SUM(L6:L25)</f>
         <v/>
       </c>
-      <c r="M26" s="44" t="n"/>
+      <c r="M26" s="45" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7378,7 +7508,7 @@
         <f>SUM(L6:L25)</f>
         <v/>
       </c>
-      <c r="M26" s="44" t="n"/>
+      <c r="M26" s="45" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
